--- a/TT231_DemoScreen_work_Status.xlsx
+++ b/TT231_DemoScreen_work_Status.xlsx
@@ -4994,7 +4994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
       <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>

--- a/TT231_DemoScreen_work_Status.xlsx
+++ b/TT231_DemoScreen_work_Status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14220" windowHeight="6030" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14220" windowHeight="6036" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Screens" sheetId="3" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="469">
   <si>
     <t>Notes</t>
   </si>
@@ -1361,48 +1361,6 @@
     <t>&gt;60 expressway - green</t>
   </si>
   <si>
-    <r>
-      <t>dark </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>green</t>
-    </r>
-  </si>
-  <si>
-    <t>#006400</t>
-  </si>
-  <si>
-    <t>#ffbf00</t>
-  </si>
-  <si>
-    <t>amber</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>#FF0000</t>
-  </si>
-  <si>
-    <t>Dark Red</t>
-  </si>
-  <si>
-    <t>#8b0000</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>#00FF00</t>
-  </si>
-  <si>
     <t>The csv Speed data file is not import proberly</t>
   </si>
   <si>
@@ -1437,6 +1395,114 @@
   </si>
   <si>
     <t>if call the new layer, existing layer has to be deleted.</t>
+  </si>
+  <si>
+    <t>8/7 - 12/7</t>
+  </si>
+  <si>
+    <t>BIS Part - Speed data chart, Incident data Chart</t>
+  </si>
+  <si>
+    <t>Zone selection page removed, Login and command control page linked</t>
+  </si>
+  <si>
+    <t>Change the font color in command control</t>
+  </si>
+  <si>
+    <t>Working on LTA Feedback</t>
+  </si>
+  <si>
+    <t>Draw prediction on map after creating accident</t>
+  </si>
+  <si>
+    <t>75,175,198 - blue</t>
+  </si>
+  <si>
+    <t>192,80,77 - brown</t>
+  </si>
+  <si>
+    <t>155,187,89 - green</t>
+  </si>
+  <si>
+    <t>128,100,162 - lavender</t>
+  </si>
+  <si>
+    <t>79,129,189 - dark blue</t>
+  </si>
+  <si>
+    <t>0,176,80 - green</t>
+  </si>
+  <si>
+    <t>192,0,0 - red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255, 192, 0 - yellow </t>
+  </si>
+  <si>
+    <t>219,132,61 - brown</t>
+  </si>
+  <si>
+    <t>170, 70, 67 - burgundy</t>
+  </si>
+  <si>
+    <t>#006400 - dark green</t>
+  </si>
+  <si>
+    <t>#ffbf00 - amber</t>
+  </si>
+  <si>
+    <t>#FF0000 - red</t>
+  </si>
+  <si>
+    <t>#8b0000 - Dark Red</t>
+  </si>
+  <si>
+    <t>#00FF00 - Green</t>
+  </si>
+  <si>
+    <t>#ffffff - white</t>
+  </si>
+  <si>
+    <t>#000000 - Black</t>
+  </si>
+  <si>
+    <t>eqt_id - sapsc_719085, sapsc_719084, sapsc_719082</t>
+  </si>
+  <si>
+    <t>CCTV Camera Location</t>
+  </si>
+  <si>
+    <t>103.8587667</t>
+  </si>
+  <si>
+    <t>1.3752537</t>
+  </si>
+  <si>
+    <t>103.8582773</t>
+  </si>
+  <si>
+    <t>1.3770134</t>
+  </si>
+  <si>
+    <t>103.8584744</t>
+  </si>
+  <si>
+    <t>1.3778264</t>
+  </si>
+  <si>
+    <t>Camera Points added on the map</t>
+  </si>
+  <si>
+    <t>Video generated based on the camera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new traffic speed layer added near the accident location </t>
+  </si>
+  <si>
+    <t>bis module json file added</t>
+  </si>
+  <si>
+    <t>changing the bis format as per new ppt (Infographics_conclusion_v5 (with comments))</t>
   </si>
 </sst>
 </file>
@@ -1650,19 +1716,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3" tint="-0.499984740745262"/>
@@ -1680,6 +1733,20 @@
       <color rgb="FF202124"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="-0.499984740745262"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1997,35 +2064,35 @@
     <xf numFmtId="17" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="17" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -2332,8 +2399,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>206169</xdr:rowOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>429</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2758,6 +2825,87 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3223540</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>99244</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5524500"/>
+          <a:ext cx="3223540" cy="2126164"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3002531</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>38282</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="106680" y="7764780"/>
+          <a:ext cx="2895851" cy="2103302"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="ProjectTracker3" displayName="ProjectTracker3" ref="A3:H29" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8" headerRowCellStyle="Heading 2">
   <autoFilter ref="A3:H29"/>
@@ -3031,27 +3179,27 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.25" customWidth="1"/>
-    <col min="2" max="2" width="22.625" customWidth="1"/>
-    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="1" max="1" width="23.19921875" customWidth="1"/>
+    <col min="2" max="2" width="22.59765625" customWidth="1"/>
+    <col min="3" max="3" width="16.8984375" customWidth="1"/>
     <col min="4" max="4" width="50.5" style="17" customWidth="1"/>
     <col min="5" max="5" width="21.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="16.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.375" customWidth="1"/>
-    <col min="8" max="8" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="16.09765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.3984375" customWidth="1"/>
+    <col min="8" max="8" width="16.3984375" customWidth="1"/>
     <col min="9" max="9" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:8" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:8" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -3077,7 +3225,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
@@ -3099,7 +3247,7 @@
       </c>
       <c r="H4" s="20"/>
     </row>
-    <row r="5" spans="1:8" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
@@ -3121,7 +3269,7 @@
       </c>
       <c r="H5" s="20"/>
     </row>
-    <row r="6" spans="1:8" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
@@ -3145,7 +3293,7 @@
       </c>
       <c r="H6" s="20"/>
     </row>
-    <row r="7" spans="1:8" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>15</v>
       </c>
@@ -3167,7 +3315,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="20"/>
     </row>
-    <row r="8" spans="1:8" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
@@ -3189,7 +3337,7 @@
       </c>
       <c r="H8" s="20"/>
     </row>
-    <row r="9" spans="1:8" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>15</v>
       </c>
@@ -3211,7 +3359,7 @@
       </c>
       <c r="H9" s="20"/>
     </row>
-    <row r="10" spans="1:8" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>15</v>
       </c>
@@ -3233,7 +3381,7 @@
       </c>
       <c r="H10" s="20"/>
     </row>
-    <row r="11" spans="1:8" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
@@ -3255,7 +3403,7 @@
       </c>
       <c r="H11" s="20"/>
     </row>
-    <row r="12" spans="1:8" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>15</v>
       </c>
@@ -3277,7 +3425,7 @@
       </c>
       <c r="H12" s="20"/>
     </row>
-    <row r="13" spans="1:8" s="10" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="10" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>15</v>
       </c>
@@ -3301,7 +3449,7 @@
       </c>
       <c r="H13" s="20"/>
     </row>
-    <row r="14" spans="1:8" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>15</v>
       </c>
@@ -3325,7 +3473,7 @@
       </c>
       <c r="H14" s="20"/>
     </row>
-    <row r="15" spans="1:8" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="11" t="s">
         <v>51</v>
@@ -3347,7 +3495,7 @@
       </c>
       <c r="H15" s="20"/>
     </row>
-    <row r="16" spans="1:8" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="11" t="s">
         <v>59</v>
@@ -3371,7 +3519,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="11" t="s">
         <v>59</v>
@@ -3391,7 +3539,7 @@
       </c>
       <c r="H17" s="20"/>
     </row>
-    <row r="18" spans="1:8" s="10" customFormat="1" ht="54" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="10" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>65</v>
       </c>
@@ -3407,7 +3555,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>68</v>
       </c>
@@ -3429,7 +3577,7 @@
       <c r="G19" s="16"/>
       <c r="H19" s="20"/>
     </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="11" t="s">
         <v>75</v>
@@ -3451,7 +3599,7 @@
       </c>
       <c r="H20" s="20"/>
     </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11" t="s">
         <v>82</v>
@@ -3473,7 +3621,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11" t="s">
         <v>86</v>
@@ -3493,7 +3641,7 @@
       <c r="G22" s="16"/>
       <c r="H22" s="20"/>
     </row>
-    <row r="23" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11" t="s">
         <v>93</v>
@@ -3513,7 +3661,7 @@
       <c r="G23" s="16"/>
       <c r="H23" s="20"/>
     </row>
-    <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11" t="s">
         <v>96</v>
@@ -3533,7 +3681,7 @@
       <c r="G24" s="16"/>
       <c r="H24" s="20"/>
     </row>
-    <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11" t="s">
         <v>101</v>
@@ -3553,7 +3701,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11" t="s">
@@ -3571,7 +3719,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11" t="s">
         <v>112</v>
@@ -3591,7 +3739,7 @@
       <c r="G27" s="16"/>
       <c r="H27" s="20"/>
     </row>
-    <row r="28" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11" t="s">
         <v>115</v>
@@ -3609,7 +3757,7 @@
       <c r="G28" s="16"/>
       <c r="H28" s="20"/>
     </row>
-    <row r="29" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -3651,36 +3799,36 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="31.625" customWidth="1"/>
+    <col min="2" max="2" width="13.09765625" customWidth="1"/>
+    <col min="3" max="3" width="31.59765625" customWidth="1"/>
     <col min="4" max="4" width="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="44"/>
       <c r="D1" s="44"/>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D2" s="44"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D3" s="44"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B79" s="44"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B82" s="45"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B86" s="44"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B90" s="44"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B93" s="44"/>
     </row>
   </sheetData>
@@ -3702,41 +3850,41 @@
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66.625" customWidth="1"/>
+    <col min="1" max="1" width="66.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
     </row>
-    <row r="6" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
     </row>
-    <row r="8" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
     </row>
   </sheetData>
@@ -3761,17 +3909,17 @@
       <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="24.25" customWidth="1"/>
+    <col min="2" max="2" width="24.19921875" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="37.125" style="33" customWidth="1"/>
-    <col min="5" max="5" width="44.625" style="33" customWidth="1"/>
-    <col min="6" max="6" width="59.625" customWidth="1"/>
+    <col min="4" max="4" width="37.09765625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="44.59765625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="59.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>131</v>
       </c>
@@ -3791,7 +3939,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
@@ -3805,7 +3953,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>124</v>
       </c>
@@ -3816,7 +3964,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>132</v>
       </c>
@@ -3833,47 +3981,47 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E5" s="33" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="E6" s="33" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="E7" s="33" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E8" s="33" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E9" s="34" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E10" s="35" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E11" s="35" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>137</v>
       </c>
@@ -3887,7 +4035,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>138</v>
       </c>
@@ -3895,27 +4043,27 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E21" s="33" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E23" s="32" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E24" s="33" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="E25" s="33" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
         <v>148</v>
       </c>
@@ -3923,27 +4071,27 @@
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E32" s="33" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E33" s="33" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E34" s="33" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E35" s="33" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>165</v>
       </c>
@@ -3960,7 +4108,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>164</v>
       </c>
@@ -3974,7 +4122,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>169</v>
       </c>
@@ -3985,7 +4133,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>171</v>
       </c>
@@ -3993,7 +4141,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>175</v>
       </c>
@@ -4001,7 +4149,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>173</v>
       </c>
@@ -4012,7 +4160,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>214</v>
       </c>
@@ -4023,7 +4171,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>215</v>
       </c>
@@ -4031,7 +4179,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
         <v>170</v>
       </c>
@@ -4042,7 +4190,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="24"/>
       <c r="C49" t="s">
         <v>173</v>
@@ -4051,7 +4199,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="24"/>
       <c r="C50" t="s">
         <v>168</v>
@@ -4060,7 +4208,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="24"/>
       <c r="C51" t="s">
         <v>221</v>
@@ -4069,13 +4217,13 @@
         <v>216</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="24"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="24"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="24" t="s">
         <v>38</v>
       </c>
@@ -4086,7 +4234,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>173</v>
       </c>
@@ -4094,7 +4242,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>168</v>
       </c>
@@ -4105,7 +4253,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>189</v>
       </c>
@@ -4116,7 +4264,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>197</v>
       </c>
@@ -4124,12 +4272,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E60" s="33" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E61" s="33" t="s">
         <v>194</v>
       </c>
@@ -4146,23 +4294,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+      <selection activeCell="B100" sqref="B100:B107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" style="28" customWidth="1"/>
-    <col min="2" max="2" width="20.75" style="42" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="7.125" customWidth="1"/>
+    <col min="2" max="2" width="20.69921875" style="42" customWidth="1"/>
+    <col min="3" max="3" width="14.69921875" customWidth="1"/>
+    <col min="4" max="4" width="7.09765625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="7" max="7" width="34.875" customWidth="1"/>
+    <col min="7" max="7" width="34.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>155</v>
       </c>
@@ -4176,7 +4324,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="28">
         <v>103.839</v>
       </c>
@@ -4190,7 +4338,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="29">
         <v>103.81699999999999</v>
       </c>
@@ -4201,7 +4349,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="28">
         <v>103.806</v>
       </c>
@@ -4212,7 +4360,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="28">
         <v>103.79</v>
       </c>
@@ -4223,7 +4371,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="28">
         <v>103.77800000000001</v>
       </c>
@@ -4234,21 +4382,21 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="31"/>
       <c r="B9" s="43"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E10" s="24" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>103.884</v>
       </c>
@@ -4259,7 +4407,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>103.851</v>
       </c>
@@ -4270,28 +4418,28 @@
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>203</v>
       </c>
       <c r="E14" s="30"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>103.839</v>
       </c>
@@ -4302,7 +4450,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="29">
         <v>103.81699999999999</v>
       </c>
@@ -4313,7 +4461,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>103.806</v>
       </c>
@@ -4324,42 +4472,42 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E24" s="24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="28">
         <v>103.79</v>
       </c>
@@ -4370,7 +4518,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="28">
         <v>103.77800000000001</v>
       </c>
@@ -4381,17 +4529,17 @@
         <v>163</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="28" t="s">
         <v>237</v>
       </c>
@@ -4402,7 +4550,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
         <v>236</v>
       </c>
@@ -4413,7 +4561,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="28">
         <v>1.332525</v>
       </c>
@@ -4424,7 +4572,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="28">
         <v>1.331914</v>
       </c>
@@ -4435,7 +4583,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="28" t="s">
         <v>243</v>
       </c>
@@ -4446,7 +4594,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="28">
         <v>103.857499</v>
       </c>
@@ -4460,7 +4608,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="28">
         <v>103.8581903</v>
       </c>
@@ -4468,7 +4616,7 @@
         <v>1.3837919999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="28">
         <v>103.8553513</v>
       </c>
@@ -4476,7 +4624,7 @@
         <v>1.3759417</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="28">
         <v>103.8583969</v>
       </c>
@@ -4484,12 +4632,12 @@
         <v>1.3615294</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B48" s="42" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="28" t="s">
         <v>265</v>
       </c>
@@ -4503,7 +4651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="28" t="s">
         <v>266</v>
       </c>
@@ -4514,7 +4662,7 @@
         <v>1.3759417</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="28" t="s">
         <v>265</v>
       </c>
@@ -4528,7 +4676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="28" t="s">
         <v>266</v>
       </c>
@@ -4539,7 +4687,7 @@
         <v>1.3777482999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="28" t="s">
         <v>265</v>
       </c>
@@ -4553,7 +4701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="28" t="s">
         <v>266</v>
       </c>
@@ -4564,7 +4712,7 @@
         <v>1.3705164999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="28" t="s">
         <v>265</v>
       </c>
@@ -4578,7 +4726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="28" t="s">
         <v>266</v>
       </c>
@@ -4589,7 +4737,7 @@
         <v>1.3691533</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="28" t="s">
         <v>265</v>
       </c>
@@ -4603,7 +4751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="28" t="s">
         <v>266</v>
       </c>
@@ -4614,7 +4762,7 @@
         <v>1.3627773000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="28" t="s">
         <v>265</v>
       </c>
@@ -4628,7 +4776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="28" t="s">
         <v>266</v>
       </c>
@@ -4639,7 +4787,7 @@
         <v>1.3615294</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="28" t="s">
         <v>265</v>
       </c>
@@ -4653,7 +4801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="28" t="s">
         <v>266</v>
       </c>
@@ -4664,7 +4812,7 @@
         <v>1.3837919999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="28" t="s">
         <v>265</v>
       </c>
@@ -4678,7 +4826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="28" t="s">
         <v>266</v>
       </c>
@@ -4689,7 +4837,7 @@
         <v>1.3855739</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="28" t="s">
         <v>386</v>
       </c>
@@ -4697,57 +4845,57 @@
         <v>387</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="28" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="28" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="28" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="28" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="28" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="28" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="28" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="28" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="28" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="28">
         <v>1471</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="28">
         <v>31088.9</v>
       </c>
@@ -4755,7 +4903,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="28">
         <v>39920.080000000002</v>
       </c>
@@ -4763,12 +4911,12 @@
         <v>391</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="28">
         <v>426</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="28">
         <v>30755.81</v>
       </c>
@@ -4776,7 +4924,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="28">
         <v>39822.019999999997</v>
       </c>
@@ -4784,12 +4932,12 @@
         <v>393</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="28">
         <v>1270</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="28">
         <v>30383.93</v>
       </c>
@@ -4797,12 +4945,70 @@
         <v>394</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="28">
         <v>39757.74</v>
       </c>
       <c r="B96" s="42" t="s">
         <v>395</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="28" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>30832.0437322</v>
+      </c>
+      <c r="B100" s="42" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>39694.078958400001</v>
+      </c>
+      <c r="B101" s="42" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>30777.594452199999</v>
+      </c>
+      <c r="B103" s="42" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>39888.679278600001</v>
+      </c>
+      <c r="B104" s="42" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>30799.527124200002</v>
+      </c>
+      <c r="B106" s="42" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>39978.569966700001</v>
+      </c>
+      <c r="B107" s="42" t="s">
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -4823,63 +5029,63 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="57.875" customWidth="1"/>
+    <col min="1" max="1" width="48.59765625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="57.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="32" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="33" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="32" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="33" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A56" s="33" t="s">
         <v>201</v>
       </c>
@@ -4898,13 +5104,13 @@
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.875" customWidth="1"/>
-    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="1" max="1" width="22.8984375" customWidth="1"/>
+    <col min="2" max="2" width="23.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>222</v>
       </c>
@@ -4923,14 +5129,14 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.5" customWidth="1"/>
     <col min="2" max="2" width="26.5" customWidth="1"/>
-    <col min="3" max="3" width="71.625" customWidth="1"/>
+    <col min="3" max="3" width="71.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>223</v>
       </c>
@@ -4941,7 +5147,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>226</v>
       </c>
@@ -4952,7 +5158,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
         <v>228</v>
       </c>
@@ -4963,20 +5169,20 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="38"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
         <v>247</v>
       </c>
@@ -4992,609 +5198,660 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C119"/>
+  <dimension ref="A1:C129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.125" style="50" customWidth="1"/>
-    <col min="2" max="2" width="28.125" style="50" customWidth="1"/>
-    <col min="3" max="3" width="106.875" style="50" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="50"/>
+    <col min="1" max="1" width="12.09765625" style="47" customWidth="1"/>
+    <col min="2" max="2" width="28.09765625" style="47" customWidth="1"/>
+    <col min="3" max="3" width="106.8984375" style="47" customWidth="1"/>
+    <col min="4" max="16384" width="8.69921875" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="46" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="50" t="s">
         <v>337</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="47" t="s">
         <v>353</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="51" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C3" s="54" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="51" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C4" s="54" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="51" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C5" s="54"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="51"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="50" t="s">
         <v>338</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="51" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C7" s="54" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="51" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="50" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="47" t="s">
         <v>340</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="51" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C10" s="54" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="51" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C11" s="54" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="51" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="55"/>
-      <c r="C12" s="54" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="52"/>
+      <c r="C12" s="51" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C13" s="54" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="51" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C14" s="54" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="51" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C15" s="54" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="51" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C16" s="54"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="50" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="51"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="47" t="s">
         <v>345</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="51" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C18" s="54" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="51" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C19" s="54" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="51" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C20" s="54" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="51" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C21" s="54" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="51" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="50" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="47" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="50" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="47" t="s">
         <v>347</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="51" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C25" s="54" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="51" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="55"/>
-      <c r="C26" s="54" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="52"/>
+      <c r="C26" s="51" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C27" s="54" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="51" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C28" s="54" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="51" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="50" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="51" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C31" s="54" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="51" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C32" s="54" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="51" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="54"/>
-      <c r="C33" s="54" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="51"/>
+      <c r="C33" s="51" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C34" s="54" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="51" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C35" s="54" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="51" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C36" s="54" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="51" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C37" s="54" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="51" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C38" s="54" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="51" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C39" s="54" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="51" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="50" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="47" t="s">
         <v>341</v>
       </c>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="51" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C42" s="54" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="51" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C43" s="54" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="51" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C44" s="54" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="51" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C45" s="54" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="51" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="55"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="55" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="52"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="52" t="s">
         <v>342</v>
       </c>
-      <c r="C47" s="54" t="s">
+      <c r="C47" s="51" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C48" s="54" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C48" s="51" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C49" s="54" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="51" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C50" s="54" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="51" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="50" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="47" t="s">
         <v>343</v>
       </c>
-      <c r="B52" s="50" t="s">
+      <c r="B52" s="47" t="s">
         <v>360</v>
       </c>
-      <c r="C52" s="54" t="s">
+      <c r="C52" s="51" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="50" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="47" t="s">
         <v>344</v>
       </c>
-      <c r="C53" s="54" t="s">
+      <c r="C53" s="51" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="50" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="47" t="s">
         <v>359</v>
       </c>
-      <c r="C54" s="54" t="s">
+      <c r="C54" s="51" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="50" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="47" t="s">
         <v>354</v>
       </c>
-      <c r="C55" s="54" t="s">
+      <c r="C55" s="51" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="50" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="47" t="s">
         <v>355</v>
       </c>
-      <c r="C56" s="54" t="s">
+      <c r="C56" s="51" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="50" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="47" t="s">
         <v>356</v>
       </c>
-      <c r="C57" s="54" t="s">
+      <c r="C57" s="51" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="50" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="47" t="s">
         <v>357</v>
       </c>
-      <c r="C58" s="54" t="s">
+      <c r="C58" s="51" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C59" s="54" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C59" s="51" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C60" s="54" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C60" s="51" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C61" s="54" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="51" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C62" s="54" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C62" s="51" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C63" s="54" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C63" s="51" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C64" s="54" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C64" s="51" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C65" s="54" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="51" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C66" s="54" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C66" s="51" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C67" s="54" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="51" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C68" s="54" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C68" s="51" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C69" s="54" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C69" s="51" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C70" s="54"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C71" s="54"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="50" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C70" s="51"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C71" s="51"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="47" t="s">
         <v>358</v>
       </c>
-      <c r="B72" s="50" t="s">
+      <c r="B72" s="47" t="s">
         <v>290</v>
       </c>
-      <c r="C72" s="50" t="s">
+      <c r="C72" s="47" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C73" s="50" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C73" s="47" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C74" s="50" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C74" s="47" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C75" s="50" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C75" s="47" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C76" s="50" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C76" s="47" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="51" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="48" t="s">
         <v>246</v>
       </c>
-      <c r="B77" s="50" t="s">
+      <c r="B77" s="47" t="s">
         <v>259</v>
       </c>
-      <c r="C77" s="50" t="s">
+      <c r="C77" s="47" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C78" s="50" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C78" s="47" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C79" s="50" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C79" s="47" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B80" s="50" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B80" s="47" t="s">
         <v>264</v>
       </c>
-      <c r="C80" s="50" t="s">
+      <c r="C80" s="47" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C81" s="50" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C81" s="47" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C82" s="50" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C82" s="47" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C83" s="50" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C83" s="47" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C84" s="50" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C84" s="47" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="52" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="C85" s="50" t="s">
+      <c r="C85" s="47" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C86" s="50" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C86" s="47" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C87" s="50" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C87" s="47" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C88" s="50" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C88" s="47" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B89" s="50" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B89" s="47" t="s">
         <v>377</v>
       </c>
-      <c r="C89" s="50" t="s">
+      <c r="C89" s="47" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C90" s="50" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C90" s="47" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C91" s="50" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C91" s="47" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C92" s="50" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C92" s="47" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="50" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="B94" s="49" t="s">
+      <c r="B94" s="46" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C95" s="50" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C95" s="47" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C96" s="50" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C96" s="47" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C97" s="50" t="s">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" s="47" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C98" s="50" t="s">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98" s="47" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C99" s="50" t="s">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C99" s="47" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C100" s="47" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C101" s="47" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C111" s="47" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C112" s="47" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C113" s="47" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C114" s="47" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C115" s="47" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C116" s="47" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C117" s="47" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C118" s="47" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C100" s="50" t="s">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C119" s="47" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C101" s="50" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="47" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C111" s="50" t="s">
+      <c r="C121" s="47" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C112" s="50" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B122" s="47" t="s">
+        <v>437</v>
+      </c>
+      <c r="C122" s="47" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C113" s="50" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C123" s="47" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C114" s="50" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C115" s="50" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C124" s="47" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C116" s="50" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C117" s="50" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C118" s="50" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C119" s="50" t="s">
-        <v>442</v>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C125" s="47" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C126" s="47" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C127" s="47" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C128" s="47" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129" s="47" t="s">
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -5606,206 +5863,241 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.5" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="46" t="s">
-        <v>421</v>
-      </c>
-      <c r="B33" s="46" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>424</v>
-      </c>
-      <c r="B34" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="47" t="s">
-        <v>425</v>
-      </c>
-      <c r="B35" s="46" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>427</v>
-      </c>
-      <c r="B36" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>429</v>
-      </c>
-      <c r="B37" s="48" t="s">
-        <v>430</v>
+    <row r="33" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="53"/>
+      <c r="B33" s="53" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="54"/>
+      <c r="B34" s="54" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="53"/>
+      <c r="B35" s="53" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="54"/>
+      <c r="B36" s="54" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="54"/>
+      <c r="B37" s="55" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>448</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e39e7e9e36de66d473ce04bb4ab2dbb8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="19dc5994665da46609c24125788630d8" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -6010,10 +6302,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3AB413C-A07F-4EE8-909C-4B888D55CBB2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C78C4875-2E31-4ACC-AEED-0DAFD072C30B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6036,20 +6356,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C78C4875-2E31-4ACC-AEED-0DAFD072C30B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3AB413C-A07F-4EE8-909C-4B888D55CBB2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/TT231_DemoScreen_work_Status.xlsx
+++ b/TT231_DemoScreen_work_Status.xlsx
@@ -16,7 +16,7 @@
     <sheet name="GIS" sheetId="8" r:id="rId7"/>
     <sheet name="Daily Work Status" sheetId="9" r:id="rId8"/>
     <sheet name="Issue facing" sheetId="10" r:id="rId9"/>
-    <sheet name="Sheet2" sheetId="11" r:id="rId10"/>
+    <sheet name="Projectfilelocation" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc535884" localSheetId="0">Screens!$E$19</definedName>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="536">
   <si>
     <t>Notes</t>
   </si>
@@ -1503,6 +1503,207 @@
   </si>
   <si>
     <t>changing the bis format as per new ppt (Infographics_conclusion_v5 (with comments))</t>
+  </si>
+  <si>
+    <t>118, 183, 178 - roadwork</t>
+  </si>
+  <si>
+    <t>78, 121, 167 - accident</t>
+  </si>
+  <si>
+    <t>237, 201, 72 - yellow</t>
+  </si>
+  <si>
+    <t>242, 142, 43 - heavy traffic</t>
+  </si>
+  <si>
+    <t>225, 87, 89 - obstacle</t>
+  </si>
+  <si>
+    <t>42, 87, 131</t>
+  </si>
+  <si>
+    <t>81, 130, 175</t>
+  </si>
+  <si>
+    <t>96, 145, 187</t>
+  </si>
+  <si>
+    <t>111, 160, 200</t>
+  </si>
+  <si>
+    <t>10, 20, 68 - dark blue</t>
+  </si>
+  <si>
+    <t>112, 162, 201 - #70A2C9</t>
+  </si>
+  <si>
+    <t>BIS Module</t>
+  </si>
+  <si>
+    <t>Bis module dashboard designed</t>
+  </si>
+  <si>
+    <t>Road Close and open chart, Congestion Road, Zone, speed data chart</t>
+  </si>
+  <si>
+    <t>Medical Leavn on 17th July 2019</t>
+  </si>
+  <si>
+    <t>Create IR proposed and current msg display on the map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On load add traffic speed layer and Accident blinking icon </t>
+  </si>
+  <si>
+    <t>VMS</t>
+  </si>
+  <si>
+    <t>GLIDE</t>
+  </si>
+  <si>
+    <t>1.3082692</t>
+  </si>
+  <si>
+    <t>103.9094703</t>
+  </si>
+  <si>
+    <t>103.9054419</t>
+  </si>
+  <si>
+    <t>1.3064163</t>
+  </si>
+  <si>
+    <t>103.9019901</t>
+  </si>
+  <si>
+    <t>1.3039255</t>
+  </si>
+  <si>
+    <t>103.8906241</t>
+  </si>
+  <si>
+    <t>1.300115</t>
+  </si>
+  <si>
+    <t>103.8895556</t>
+  </si>
+  <si>
+    <t>1.3002632</t>
+  </si>
+  <si>
+    <t>103.9085518</t>
+  </si>
+  <si>
+    <t>1.3082027</t>
+  </si>
+  <si>
+    <t>103.9068805</t>
+  </si>
+  <si>
+    <t>1.3072516</t>
+  </si>
+  <si>
+    <t>103.904935</t>
+  </si>
+  <si>
+    <t>1.3059509</t>
+  </si>
+  <si>
+    <t>103.9025278</t>
+  </si>
+  <si>
+    <t>1.3044001</t>
+  </si>
+  <si>
+    <t>103.9005097</t>
+  </si>
+  <si>
+    <t>1.3031741</t>
+  </si>
+  <si>
+    <t>103.8971268</t>
+  </si>
+  <si>
+    <t>1.3019824</t>
+  </si>
+  <si>
+    <t>103.8938274</t>
+  </si>
+  <si>
+    <t>1.3009662</t>
+  </si>
+  <si>
+    <t>Mobile Road work</t>
+  </si>
+  <si>
+    <t>Litter picking along Ln1</t>
+  </si>
+  <si>
+    <t>Plant watering along Ln1</t>
+  </si>
+  <si>
+    <t>Road sweeping along Ln1</t>
+  </si>
+  <si>
+    <t>Tunnel Washing</t>
+  </si>
+  <si>
+    <t>1.308453, 103.909596</t>
+  </si>
+  <si>
+    <t>1.308378, 103.909102</t>
+  </si>
+  <si>
+    <t>1.308217, 103.908437</t>
+  </si>
+  <si>
+    <t>1.307917, 103.908051</t>
+  </si>
+  <si>
+    <t>1.307745, 103.907697</t>
+  </si>
+  <si>
+    <t>1.307555, 103.907426</t>
+  </si>
+  <si>
+    <t>1.307322, 103.907069</t>
+  </si>
+  <si>
+    <t>1.306644, 103.906106</t>
+  </si>
+  <si>
+    <t>1.305786, 103.904808</t>
+  </si>
+  <si>
+    <t>1.304692, 103.903075</t>
+  </si>
+  <si>
+    <t>Mobile Road work Vehicle moving points</t>
+  </si>
+  <si>
+    <t>Z:\01 - Project Design\06 - User Interface Design Document\UI_Designs\Icons</t>
+  </si>
+  <si>
+    <t>Icon Location</t>
+  </si>
+  <si>
+    <t>15/7 - 19/7</t>
+  </si>
+  <si>
+    <t>22/7 - 26/7</t>
+  </si>
+  <si>
+    <t>Removed intervals from grid view panel..  Also removed the interval for graph from command control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">event road layer created and </t>
+  </si>
+  <si>
+    <t>mobile road work - display image on the map created, based on the certain intervals</t>
+  </si>
+  <si>
+    <t>mobile road work - display message on the map created, based on the certain intervals</t>
   </si>
 </sst>
 </file>
@@ -1512,7 +1713,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;Over/Under flag&quot;;&quot;&quot;;&quot;&quot;"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="3" tint="-0.499984740745262"/>
@@ -1748,6 +1949,18 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF201F1E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1925,7 +2138,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2093,6 +2306,12 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -2903,6 +3122,82 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3067051</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>123495</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="11963400"/>
+          <a:ext cx="3067050" cy="2638095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2342857</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>66483</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="14897100"/>
+          <a:ext cx="2342857" cy="1533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3782,7 +4077,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter notes for projects in this column" sqref="G3"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <tableParts count="1">
@@ -3796,25 +4091,52 @@
   <dimension ref="B1:D93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.09765625" customWidth="1"/>
     <col min="3" max="3" width="31.59765625" customWidth="1"/>
-    <col min="4" max="4" width="56" customWidth="1"/>
+    <col min="4" max="4" width="90.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="44"/>
+      <c r="C1" t="s">
+        <v>512</v>
+      </c>
       <c r="D1" s="44"/>
     </row>
     <row r="2" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>513</v>
+      </c>
       <c r="D2" s="44"/>
     </row>
     <row r="3" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>514</v>
+      </c>
       <c r="D3" s="44"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>529</v>
+      </c>
+      <c r="D9" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="79" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B79" s="44"/>
@@ -4294,10 +4616,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:G157"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100:B107"/>
+    <sheetView topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5009,6 +5331,263 @@
       </c>
       <c r="B107" s="42" t="s">
         <v>463</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="28" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="28">
+        <v>36474.971568599998</v>
+      </c>
+      <c r="B110" s="42" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="28">
+        <v>32287.4021058</v>
+      </c>
+      <c r="B111" s="42" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="28">
+        <v>36026.658896200002</v>
+      </c>
+      <c r="B113" s="42" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="28">
+        <v>32082.515513599999</v>
+      </c>
+      <c r="B114" s="42" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="28">
+        <v>35642.5160798</v>
+      </c>
+      <c r="B116" s="42" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="28">
+        <v>31807.078489299998</v>
+      </c>
+      <c r="B117" s="42" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="28">
+        <v>34377.592782599997</v>
+      </c>
+      <c r="B119" s="42" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="28">
+        <v>31385.698520900001</v>
+      </c>
+      <c r="B120" s="42" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="28">
+        <v>34258.6779025</v>
+      </c>
+      <c r="B122" s="42" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="28">
+        <v>31402.082680899999</v>
+      </c>
+      <c r="B123" s="42" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="28" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="28">
+        <v>36372.76</v>
+      </c>
+      <c r="B126" s="42" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="28">
+        <v>32280.05</v>
+      </c>
+      <c r="B127" s="42" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="28">
+        <v>36186.76</v>
+      </c>
+      <c r="B129" s="42" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="28">
+        <v>32174.880000000001</v>
+      </c>
+      <c r="B130" s="42" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="28">
+        <v>35970.25</v>
+      </c>
+      <c r="B132" s="42" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="28">
+        <v>32031.05</v>
+      </c>
+      <c r="B133" s="42" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="28">
+        <v>35702.36</v>
+      </c>
+      <c r="B135" s="42" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="28">
+        <v>31859.56</v>
+      </c>
+      <c r="B136" s="42" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="28">
+        <v>35477.760000000002</v>
+      </c>
+      <c r="B138" s="42" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="28">
+        <v>31723.99</v>
+      </c>
+      <c r="B139" s="42" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="28">
+        <v>35101.279999999999</v>
+      </c>
+      <c r="B141" s="42" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="28">
+        <v>31592.21</v>
+      </c>
+      <c r="B142" s="42" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="28">
+        <v>34734.089999999997</v>
+      </c>
+      <c r="B144" s="42" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="28">
+        <v>31479.83</v>
+      </c>
+      <c r="B145" s="42" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="28" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="28" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="28" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="28" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="28" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="28" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="28" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="28" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="28" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="28" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="28" t="s">
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -5198,10 +5777,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C129"/>
+  <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="C130" sqref="C130"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5849,9 +6428,63 @@
         <v>467</v>
       </c>
     </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C129" s="47" t="s">
         <v>468</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="47" t="s">
+        <v>530</v>
+      </c>
+      <c r="B131" s="47" t="s">
+        <v>480</v>
+      </c>
+      <c r="C131" s="47" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C132" s="47" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="47" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C134" s="47" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C135" s="47" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C136" s="47" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="47" t="s">
+        <v>531</v>
+      </c>
+      <c r="C140" s="47" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C141" s="47" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C142" s="57" t="s">
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -5863,10 +6496,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6090,6 +6723,62 @@
         <v>448</v>
       </c>
     </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>479</v>
+      </c>
+      <c r="C77" s="56"/>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>478</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -6098,6 +6787,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e39e7e9e36de66d473ce04bb4ab2dbb8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="19dc5994665da46609c24125788630d8" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -6302,38 +7008,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C78C4875-2E31-4ACC-AEED-0DAFD072C30B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3AB413C-A07F-4EE8-909C-4B888D55CBB2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6356,9 +7034,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3AB413C-A07F-4EE8-909C-4B888D55CBB2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C78C4875-2E31-4ACC-AEED-0DAFD072C30B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/TT231_DemoScreen_work_Status.xlsx
+++ b/TT231_DemoScreen_work_Status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14220" windowHeight="6036" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14220" windowHeight="6036" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Screens" sheetId="3" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Daily Work Status" sheetId="9" r:id="rId8"/>
     <sheet name="Issue facing" sheetId="10" r:id="rId9"/>
     <sheet name="Projectfilelocation" sheetId="11" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc535884" localSheetId="0">Screens!$E$19</definedName>
@@ -95,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="540">
   <si>
     <t>Notes</t>
   </si>
@@ -1704,6 +1705,18 @@
   </si>
   <si>
     <t>mobile road work - display message on the map created, based on the certain intervals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detection camera layer created </t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Commission</t>
   </si>
 </sst>
 </file>
@@ -2514,6 +2527,550 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-SG"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="127"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="27"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10664326334208224"/>
+          <c:y val="7.407407407407407E-2"/>
+          <c:w val="0.66085629921259847"/>
+          <c:h val="0.83387394284047822"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Age</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Salary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>25500</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>25700</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25200</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>26800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>25400</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>25500</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25900</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>25950</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>25955</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>25957</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>25960</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>25970</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>26100</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>26200</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>26350</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>26400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Commission</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="74219008"/>
+        <c:axId val="46054144"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="74219008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="46054144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46054144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="74219008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -3201,6 +3758,41 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="ProjectTracker3" displayName="ProjectTracker3" ref="A3:H29" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8" headerRowCellStyle="Heading 2">
   <autoFilter ref="A3:H29"/>
@@ -4159,6 +4751,499 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>30000</v>
+      </c>
+      <c r="C3">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>31000</v>
+      </c>
+      <c r="C4">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>32000</v>
+      </c>
+      <c r="C5">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>29000</v>
+      </c>
+      <c r="C6">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>30000</v>
+      </c>
+      <c r="C7">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>10000</v>
+      </c>
+      <c r="C8">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <v>30000</v>
+      </c>
+      <c r="C9">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>80</v>
+      </c>
+      <c r="B10">
+        <v>12000</v>
+      </c>
+      <c r="C10">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>90</v>
+      </c>
+      <c r="B11">
+        <v>25000</v>
+      </c>
+      <c r="C11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <v>14000</v>
+      </c>
+      <c r="C12">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>110</v>
+      </c>
+      <c r="B13">
+        <v>30000</v>
+      </c>
+      <c r="C13">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>120</v>
+      </c>
+      <c r="B14">
+        <v>32000</v>
+      </c>
+      <c r="C14">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>130</v>
+      </c>
+      <c r="B15">
+        <v>23000</v>
+      </c>
+      <c r="C15">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>140</v>
+      </c>
+      <c r="B16">
+        <v>24000</v>
+      </c>
+      <c r="C16">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>150</v>
+      </c>
+      <c r="B17">
+        <v>19000</v>
+      </c>
+      <c r="C17">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>160</v>
+      </c>
+      <c r="B18">
+        <v>20000</v>
+      </c>
+      <c r="C18">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>170</v>
+      </c>
+      <c r="B19">
+        <v>21000</v>
+      </c>
+      <c r="C19">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>180</v>
+      </c>
+      <c r="B20">
+        <v>22000</v>
+      </c>
+      <c r="C20">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>190</v>
+      </c>
+      <c r="B21">
+        <v>23000</v>
+      </c>
+      <c r="C21">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>200</v>
+      </c>
+      <c r="B22">
+        <v>24000</v>
+      </c>
+      <c r="C22">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>210</v>
+      </c>
+      <c r="B23">
+        <v>25000</v>
+      </c>
+      <c r="C23">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>220</v>
+      </c>
+      <c r="B24">
+        <v>26000</v>
+      </c>
+      <c r="C24">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>230</v>
+      </c>
+      <c r="B25">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>240</v>
+      </c>
+      <c r="B26">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>250</v>
+      </c>
+      <c r="B27">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>40</v>
+      </c>
+      <c r="B31">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>50</v>
+      </c>
+      <c r="B32">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>60</v>
+      </c>
+      <c r="B33">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>70</v>
+      </c>
+      <c r="B34">
+        <v>25500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>80</v>
+      </c>
+      <c r="B35">
+        <v>25700</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>90</v>
+      </c>
+      <c r="B36">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>100</v>
+      </c>
+      <c r="B37">
+        <v>25200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>110</v>
+      </c>
+      <c r="B38">
+        <v>26800</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>120</v>
+      </c>
+      <c r="B39">
+        <v>25400</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>130</v>
+      </c>
+      <c r="B40">
+        <v>25500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>140</v>
+      </c>
+      <c r="B41">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>150</v>
+      </c>
+      <c r="B42">
+        <v>25900</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>160</v>
+      </c>
+      <c r="B43">
+        <v>25950</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>170</v>
+      </c>
+      <c r="B44">
+        <v>25955</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>180</v>
+      </c>
+      <c r="B45">
+        <v>25957</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>190</v>
+      </c>
+      <c r="B46">
+        <v>25960</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>200</v>
+      </c>
+      <c r="B47">
+        <v>25970</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>210</v>
+      </c>
+      <c r="B48">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>220</v>
+      </c>
+      <c r="B49">
+        <v>26100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>230</v>
+      </c>
+      <c r="B50">
+        <v>26200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>240</v>
+      </c>
+      <c r="B51">
+        <v>26350</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>250</v>
+      </c>
+      <c r="B52">
+        <v>26400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
@@ -5777,10 +6862,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C142"/>
+  <dimension ref="A1:C143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="C140" sqref="C140"/>
+    <sheetView topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6487,6 +7572,11 @@
         <v>532</v>
       </c>
     </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C143" s="47" t="s">
+        <v>536</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6498,8 +7588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/TT231_DemoScreen_work_Status.xlsx
+++ b/TT231_DemoScreen_work_Status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14220" windowHeight="6036" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="1176" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Screens" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Issue facing" sheetId="10" r:id="rId9"/>
     <sheet name="Projectfilelocation" sheetId="11" r:id="rId10"/>
     <sheet name="Sheet1" sheetId="12" r:id="rId11"/>
+    <sheet name="Sheet2" sheetId="13" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc535884" localSheetId="0">Screens!$E$19</definedName>
@@ -28,14 +29,6 @@
     <definedName name="FlagPercent">#REF!</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -96,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="607">
   <si>
     <t>Notes</t>
   </si>
@@ -1717,6 +1710,207 @@
   </si>
   <si>
     <t>Commission</t>
+  </si>
+  <si>
+    <t>29/7 - 2/8</t>
+  </si>
+  <si>
+    <t>Ccgrid view changed to new format, fourth layer changed to traffic alert layer in command control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After choose incident the traffic alert panel will open with image and video display with  map, </t>
+  </si>
+  <si>
+    <t>Speed graph created</t>
+  </si>
+  <si>
+    <t>TIP point</t>
+  </si>
+  <si>
+    <t>Event points</t>
+  </si>
+  <si>
+    <t>XY</t>
+  </si>
+  <si>
+    <t>Lati Longi</t>
+  </si>
+  <si>
+    <t>103.9459272</t>
+  </si>
+  <si>
+    <t>1.3115447</t>
+  </si>
+  <si>
+    <t>103.9374682</t>
+  </si>
+  <si>
+    <t>1.3100315</t>
+  </si>
+  <si>
+    <t>103.9276788</t>
+  </si>
+  <si>
+    <t>1.3064829</t>
+  </si>
+  <si>
+    <t>103.9236992</t>
+  </si>
+  <si>
+    <t>1.3054055</t>
+  </si>
+  <si>
+    <t>103.968971</t>
+  </si>
+  <si>
+    <t>1.3201737</t>
+  </si>
+  <si>
+    <t>103.9152873</t>
+  </si>
+  <si>
+    <t>1.3026633</t>
+  </si>
+  <si>
+    <t>103.902556</t>
+  </si>
+  <si>
+    <t>1.2987917</t>
+  </si>
+  <si>
+    <t>Detection Camera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCTV Layer </t>
+  </si>
+  <si>
+    <t>103.8610203</t>
+  </si>
+  <si>
+    <t>1.3698366</t>
+  </si>
+  <si>
+    <t>103.8587663</t>
+  </si>
+  <si>
+    <t>103.8564699</t>
+  </si>
+  <si>
+    <t>1.376076</t>
+  </si>
+  <si>
+    <t>1.3691602</t>
+  </si>
+  <si>
+    <t>103.8579652</t>
+  </si>
+  <si>
+    <t>103.8582773°</t>
+  </si>
+  <si>
+    <t>1.3770134°</t>
+  </si>
+  <si>
+    <t>103.92464</t>
+  </si>
+  <si>
+    <t>1.3113622</t>
+  </si>
+  <si>
+    <t>XY values</t>
+  </si>
+  <si>
+    <t>1.3123578</t>
+  </si>
+  <si>
+    <t>103.9237142</t>
+  </si>
+  <si>
+    <t>103.9205104</t>
+  </si>
+  <si>
+    <t>1.3113841</t>
+  </si>
+  <si>
+    <t>103.9161265</t>
+  </si>
+  <si>
+    <t>1.3097458</t>
+  </si>
+  <si>
+    <t>103.912317</t>
+  </si>
+  <si>
+    <t>1.3089701</t>
+  </si>
+  <si>
+    <t>103.8878191</t>
+  </si>
+  <si>
+    <t>1.3007663</t>
+  </si>
+  <si>
+    <t>Glide Ids Siglap Raod, East coast Road, Mountbatten Rd. for Mobile Road work</t>
+  </si>
+  <si>
+    <t>103.9246401°</t>
+  </si>
+  <si>
+    <t>1.3113624°</t>
+  </si>
+  <si>
+    <t>VMS Points in Accdient New Points inclused CTE VMS</t>
+  </si>
+  <si>
+    <t>tatip_711020</t>
+  </si>
+  <si>
+    <t>tatip_711022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIP </t>
+  </si>
+  <si>
+    <t>TSP</t>
+  </si>
+  <si>
+    <t>TTP</t>
+  </si>
+  <si>
+    <t>tcttp_713024</t>
+  </si>
+  <si>
+    <t>tcttp_713019</t>
+  </si>
+  <si>
+    <t>tatip_711018</t>
+  </si>
+  <si>
+    <t>103.8579017</t>
+  </si>
+  <si>
+    <t>1.3500895</t>
+  </si>
+  <si>
+    <t>103.8542773</t>
+  </si>
+  <si>
+    <t>1.3580211</t>
+  </si>
+  <si>
+    <t>103.8622071</t>
+  </si>
+  <si>
+    <t>1.3540672</t>
+  </si>
+  <si>
+    <t>Traffic Information Panel - traffic message (ID-start-100)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traffic Sign Panel - only sign </t>
+  </si>
+  <si>
+    <t>Traffic Time Panel - traffic message and time (ID-start-200)</t>
   </si>
 </sst>
 </file>
@@ -2151,7 +2345,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2325,6 +2519,10 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -2520,9 +2718,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleDark1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2534,10 +2729,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="127"/>
+      <c14:style val="112"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="27"/>
+      <c:style val="12"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -2614,121 +2809,121 @@
                   <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>120</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>130</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>140</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>150</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>160</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>170</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>180</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>190</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>200</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>210</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>220</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>230</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>240</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>250</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>10</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>20</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>40</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>50</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>60</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>70</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>80</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>90</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>100</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>110</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>120</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>130</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>140</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>150</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>160</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>170</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>180</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>190</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>200</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>210</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>220</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>230</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>240</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>250</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2792,121 +2987,121 @@
                   <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23000</c:v>
+                  <c:v>11.87</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24000</c:v>
+                  <c:v>12.05</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19000</c:v>
+                  <c:v>12.25</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20000</c:v>
+                  <c:v>12.4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>21000</c:v>
+                  <c:v>12.57</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22000</c:v>
+                  <c:v>12.75</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23000</c:v>
+                  <c:v>12.99</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24000</c:v>
+                  <c:v>13.16</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>25000</c:v>
+                  <c:v>13.38</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>26000</c:v>
+                  <c:v>13.59</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>27000</c:v>
+                  <c:v>13.81</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>28000</c:v>
+                  <c:v>14.03</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>29000</c:v>
+                  <c:v>14.11</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>22000</c:v>
+                  <c:v>14.21</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>23000</c:v>
+                  <c:v>14.35</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>24000</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>25000</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>21000</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>25000</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>25500</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>25700</c:v>
+                  <c:v>1.21</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>30000</c:v>
+                  <c:v>1.47</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>25200</c:v>
+                  <c:v>1.65</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>26800</c:v>
+                  <c:v>1.81</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>25400</c:v>
+                  <c:v>1.96</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>25500</c:v>
+                  <c:v>2.13</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>30000</c:v>
+                  <c:v>2.2999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>25900</c:v>
+                  <c:v>2.48</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>25950</c:v>
+                  <c:v>2.64</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>25955</c:v>
+                  <c:v>2.81</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>25957</c:v>
+                  <c:v>2.92</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>25960</c:v>
+                  <c:v>3.04</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>25970</c:v>
+                  <c:v>3.05</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>26000</c:v>
+                  <c:v>3.22</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>26100</c:v>
+                  <c:v>3.38</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>26200</c:v>
+                  <c:v>3.56</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>26350</c:v>
+                  <c:v>3.73</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>26400</c:v>
+                  <c:v>3.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3017,11 +3212,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="74219008"/>
-        <c:axId val="46054144"/>
+        <c:axId val="634935808"/>
+        <c:axId val="622610112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74219008"/>
+        <c:axId val="634935808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3030,7 +3225,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46054144"/>
+        <c:crossAx val="622610112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3038,7 +3233,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46054144"/>
+        <c:axId val="622610112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3049,14 +3244,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74219008"/>
+        <c:crossAx val="634935808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3067,6 +3261,357 @@
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-SG"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$14:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.99</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.38</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.59</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.81</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.03</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.81</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.96</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.13</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.48</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.64</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.81</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.92</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.04</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.22</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.38</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.56</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.73</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="634959872"/>
+        <c:axId val="622612416"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="634959872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="622612416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="622612416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="634959872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -3195,6 +3740,42 @@
         <a:xfrm>
           <a:off x="4514851" y="10058401"/>
           <a:ext cx="2381249" cy="4816268"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2266951</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4019551" y="52568475"/>
+          <a:ext cx="1838324" cy="2152650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3790,6 +4371,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4753,10 +5364,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C52"/>
+  <dimension ref="A2:C297"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4894,353 +5505,1606 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>120</v>
-      </c>
-      <c r="B14">
-        <v>32000</v>
+      <c r="A14" s="58">
+        <v>29</v>
+      </c>
+      <c r="B14" s="58">
+        <v>0</v>
       </c>
       <c r="C14">
         <v>45000</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>130</v>
-      </c>
-      <c r="B15">
-        <v>23000</v>
+      <c r="A15" s="58">
+        <v>74</v>
+      </c>
+      <c r="B15" s="58">
+        <v>11.87</v>
       </c>
       <c r="C15">
         <v>25000</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>140</v>
-      </c>
-      <c r="B16">
-        <v>24000</v>
+      <c r="A16" s="58">
+        <v>20</v>
+      </c>
+      <c r="B16" s="58">
+        <v>12.05</v>
       </c>
       <c r="C16">
         <v>30000</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>150</v>
-      </c>
-      <c r="B17">
-        <v>19000</v>
+      <c r="A17" s="58">
+        <v>10</v>
+      </c>
+      <c r="B17" s="58">
+        <v>12.25</v>
       </c>
       <c r="C17">
         <v>31000</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>160</v>
-      </c>
-      <c r="B18">
-        <v>20000</v>
+      <c r="A18" s="58">
+        <v>94</v>
+      </c>
+      <c r="B18" s="58">
+        <v>12.4</v>
       </c>
       <c r="C18">
         <v>32000</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>170</v>
-      </c>
-      <c r="B19">
-        <v>21000</v>
+      <c r="A19" s="58">
+        <v>23</v>
+      </c>
+      <c r="B19" s="58">
+        <v>12.57</v>
       </c>
       <c r="C19">
         <v>33000</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>180</v>
-      </c>
-      <c r="B20">
-        <v>22000</v>
+      <c r="A20" s="58">
+        <v>62</v>
+      </c>
+      <c r="B20" s="58">
+        <v>12.75</v>
       </c>
       <c r="C20">
         <v>34000</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>190</v>
-      </c>
-      <c r="B21">
-        <v>23000</v>
+      <c r="A21" s="58">
+        <v>50</v>
+      </c>
+      <c r="B21" s="58">
+        <v>12.99</v>
       </c>
       <c r="C21">
         <v>35000</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>200</v>
-      </c>
-      <c r="B22">
-        <v>24000</v>
+      <c r="A22" s="58">
+        <v>108</v>
+      </c>
+      <c r="B22" s="58">
+        <v>13.16</v>
       </c>
       <c r="C22">
         <v>36000</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>210</v>
-      </c>
-      <c r="B23">
-        <v>25000</v>
+      <c r="A23" s="58">
+        <v>11</v>
+      </c>
+      <c r="B23" s="58">
+        <v>13.38</v>
       </c>
       <c r="C23">
         <v>30000</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>220</v>
-      </c>
-      <c r="B24">
-        <v>26000</v>
+      <c r="A24" s="58">
+        <v>12</v>
+      </c>
+      <c r="B24" s="58">
+        <v>13.59</v>
       </c>
       <c r="C24">
         <v>41000</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>230</v>
-      </c>
-      <c r="B25">
-        <v>27000</v>
+      <c r="A25" s="58">
+        <v>48</v>
+      </c>
+      <c r="B25" s="58">
+        <v>13.81</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>240</v>
-      </c>
-      <c r="B26">
-        <v>28000</v>
+      <c r="A26" s="58">
+        <v>44</v>
+      </c>
+      <c r="B26" s="58">
+        <v>14.03</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>250</v>
-      </c>
-      <c r="B27">
-        <v>29000</v>
+      <c r="A27" s="58">
+        <v>92</v>
+      </c>
+      <c r="B27" s="58">
+        <v>14.11</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="58">
+        <v>94</v>
+      </c>
+      <c r="B28" s="58">
+        <v>14.21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="58">
+        <v>97</v>
+      </c>
+      <c r="B29" s="58">
+        <v>14.35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="58">
+        <v>31</v>
+      </c>
+      <c r="B30" s="58">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="58">
+        <v>26</v>
+      </c>
+      <c r="B31" s="58">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="58">
+        <v>54</v>
+      </c>
+      <c r="B32" s="58">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="58">
+        <v>90</v>
+      </c>
+      <c r="B33" s="58">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="58">
+        <v>72</v>
+      </c>
+      <c r="B34" s="58">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="58">
+        <v>97</v>
+      </c>
+      <c r="B35" s="58">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="58">
+        <v>75</v>
+      </c>
+      <c r="B36" s="58">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="58">
+        <v>95</v>
+      </c>
+      <c r="B37" s="58">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="58">
+        <v>65</v>
+      </c>
+      <c r="B38" s="58">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="58">
+        <v>36</v>
+      </c>
+      <c r="B39" s="58">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="58">
+        <v>82</v>
+      </c>
+      <c r="B40" s="58">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="58">
+        <v>13</v>
+      </c>
+      <c r="B41" s="58">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="58">
+        <v>108</v>
+      </c>
+      <c r="B42" s="58">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="58">
+        <v>36</v>
+      </c>
+      <c r="B43" s="58">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="58">
+        <v>74</v>
+      </c>
+      <c r="B44" s="58">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="58">
+        <v>19</v>
+      </c>
+      <c r="B45" s="58">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="58">
+        <v>75</v>
+      </c>
+      <c r="B46" s="58">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="58">
+        <v>72</v>
+      </c>
+      <c r="B47" s="58">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="58">
+        <v>35</v>
+      </c>
+      <c r="B48" s="58">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="58">
+        <v>65</v>
+      </c>
+      <c r="B49" s="58">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="58">
+        <v>51</v>
+      </c>
+      <c r="B50" s="58">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="58">
+        <v>25</v>
+      </c>
+      <c r="B51" s="58">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="58">
+        <v>99</v>
+      </c>
+      <c r="B52" s="58">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="58">
+        <v>30</v>
+      </c>
+      <c r="B53" s="58">
+        <v>4.0199999999999996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="58">
+        <v>67</v>
+      </c>
+      <c r="B54" s="58">
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="58">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="58">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="58">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="58">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="58">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="58">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="58">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="58">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="58">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="58">
         <v>10</v>
       </c>
-      <c r="B28">
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="58">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="58">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="58">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="58">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="58">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="58">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="58">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="58">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="58">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="58">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="58">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="58">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="58">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="58">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="58">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="58">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="58">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="58">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="58">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="58">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="58">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="58">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="58">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="58">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="58">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="58">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="58">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="58">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="58">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="58">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="58">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="58">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="58">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="58">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="58">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="58">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="58">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="58">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="58">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="58">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="58">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="58">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="58">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="58">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="58">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="58">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="58">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="58">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="58">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="58">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="58">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="58">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="58">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="58">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="58">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="58">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="58">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="58">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="58">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="58">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="58">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="58">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="58">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="58">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="58">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="58">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="58">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="58">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="58">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="58">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="58">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="58">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="58">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="58">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="58">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="58">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="58">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="58">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="58">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="58">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="58">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="58">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="58">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="58">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="58">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="58">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="58">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="58">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="58">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="58">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="58">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="58">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="58">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="58">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="58">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="58">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="58">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="58">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="58">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="58">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="58">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="58">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="58">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="58">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="58">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="58">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="58">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="58">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="58">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="58">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="58">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="58">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="58">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="58">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="58">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="58">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="58">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="58">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="58">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="58">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="58">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="58">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="58">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="58">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="58">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="58">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="58">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="58">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="58">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="58">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="58">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="58">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="58">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="58">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="58">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="58">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="58">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="58">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="58">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="58">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="58">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="58">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="58">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="58">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="58">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="58">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="58">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="58">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="58">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="58">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="58">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="58">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="58">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="58">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="58">
         <v>20</v>
       </c>
-      <c r="B29">
-        <v>23000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>30</v>
-      </c>
-      <c r="B30">
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="58">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="58">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="58">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="58">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="58">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="58">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="58">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="58">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="58">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="58">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="58">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="58">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="58">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="58">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="58">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="58">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="58">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="58">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="58">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="58">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="58">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="58">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="58">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="58">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="58">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="58">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="58">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="58">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="58">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="58">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="58">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="58">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="58">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="58">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="58">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="58">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="58">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="58">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="58">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="58">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="58">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="58">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="58">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="58">
         <v>40</v>
       </c>
-      <c r="B31">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>50</v>
-      </c>
-      <c r="B32">
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>60</v>
-      </c>
-      <c r="B33">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>70</v>
-      </c>
-      <c r="B34">
-        <v>25500</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>80</v>
-      </c>
-      <c r="B35">
-        <v>25700</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>90</v>
-      </c>
-      <c r="B36">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="58">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="58">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="58">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="58">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="58">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="58">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="58">
         <v>100</v>
       </c>
-      <c r="B37">
-        <v>25200</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>110</v>
-      </c>
-      <c r="B38">
-        <v>26800</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>120</v>
-      </c>
-      <c r="B39">
-        <v>25400</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>130</v>
-      </c>
-      <c r="B40">
-        <v>25500</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>140</v>
-      </c>
-      <c r="B41">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>150</v>
-      </c>
-      <c r="B42">
-        <v>25900</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>160</v>
-      </c>
-      <c r="B43">
-        <v>25950</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>170</v>
-      </c>
-      <c r="B44">
-        <v>25955</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>180</v>
-      </c>
-      <c r="B45">
-        <v>25957</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>190</v>
-      </c>
-      <c r="B46">
-        <v>25960</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>200</v>
-      </c>
-      <c r="B47">
-        <v>25970</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>210</v>
-      </c>
-      <c r="B48">
-        <v>26000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>220</v>
-      </c>
-      <c r="B49">
-        <v>26100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>230</v>
-      </c>
-      <c r="B50">
-        <v>26200</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>240</v>
-      </c>
-      <c r="B51">
-        <v>26350</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>250</v>
-      </c>
-      <c r="B52">
-        <v>26400</v>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="58">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="58">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="58">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="58">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.8984375" customWidth="1"/>
+    <col min="4" max="4" width="16.19921875" customWidth="1"/>
+    <col min="5" max="5" width="14.8984375" customWidth="1"/>
+    <col min="6" max="6" width="25.69921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5701,16 +7565,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G157"/>
+  <dimension ref="A1:G290"/>
   <sheetViews>
-    <sheetView topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="C145" sqref="C145"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="G242" sqref="G242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" style="28" customWidth="1"/>
-    <col min="2" max="2" width="20.69921875" style="42" customWidth="1"/>
+    <col min="2" max="2" width="50.69921875" style="42" customWidth="1"/>
     <col min="3" max="3" width="14.69921875" customWidth="1"/>
     <col min="4" max="4" width="7.09765625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
@@ -6360,17 +8224,17 @@
         <v>395</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="28" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>30832.0437322</v>
       </c>
@@ -6378,7 +8242,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>39694.078958400001</v>
       </c>
@@ -6386,7 +8250,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>30777.594452199999</v>
       </c>
@@ -6394,7 +8258,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>39888.679278600001</v>
       </c>
@@ -6402,7 +8266,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>30799.527124200002</v>
       </c>
@@ -6410,7 +8274,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>39978.569966700001</v>
       </c>
@@ -6418,261 +8282,1008 @@
         <v>463</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="28" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="28">
+        <v>38163.228498199998</v>
+      </c>
+      <c r="B110" s="42" t="s">
+        <v>573</v>
+      </c>
+      <c r="E110" s="42"/>
+      <c r="G110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="28">
+        <v>32629.488922100001</v>
+      </c>
+      <c r="B111" s="42" t="s">
+        <v>574</v>
+      </c>
+      <c r="E111" s="42"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E112" s="42"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="28">
         <v>36474.971568599998</v>
       </c>
-      <c r="B110" s="42" t="s">
+      <c r="B113" s="42" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="28">
+      <c r="E113" s="42"/>
+      <c r="G113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="28">
         <v>32287.4021058</v>
       </c>
-      <c r="B111" s="42" t="s">
+      <c r="B114" s="42" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="28">
+      <c r="E114" s="42"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E115" s="42"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="28">
         <v>36026.658896200002</v>
       </c>
-      <c r="B113" s="42" t="s">
+      <c r="B116" s="42" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="28">
+      <c r="E116" s="42"/>
+      <c r="G116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="28">
         <v>32082.515513599999</v>
       </c>
-      <c r="B114" s="42" t="s">
+      <c r="B117" s="42" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="28">
+      <c r="E117" s="42"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E118" s="42"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="28">
         <v>35642.5160798</v>
       </c>
-      <c r="B116" s="42" t="s">
+      <c r="B119" s="42" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="28">
+      <c r="E119" s="42"/>
+      <c r="G119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="28">
         <v>31807.078489299998</v>
       </c>
-      <c r="B117" s="42" t="s">
+      <c r="B120" s="42" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="28">
+      <c r="E120" s="42"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="28">
         <v>34377.592782599997</v>
       </c>
-      <c r="B119" s="42" t="s">
+      <c r="B122" s="42" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="28">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="28">
         <v>31385.698520900001</v>
       </c>
-      <c r="B120" s="42" t="s">
+      <c r="B123" s="42" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="28">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="28">
         <v>34258.6779025</v>
       </c>
-      <c r="B122" s="42" t="s">
+      <c r="B125" s="42" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="28">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="28">
         <v>31402.082680899999</v>
       </c>
-      <c r="B123" s="42" t="s">
+      <c r="B126" s="42" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="28" t="s">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="28" t="s">
         <v>487</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="28">
-        <v>36372.76</v>
-      </c>
-      <c r="B126" s="42" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="28">
-        <v>32280.05</v>
-      </c>
-      <c r="B127" s="42" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="28">
-        <v>36186.76</v>
+        <v>36372.76</v>
       </c>
       <c r="B129" s="42" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="28">
-        <v>32174.880000000001</v>
+        <v>32280.05</v>
       </c>
       <c r="B130" s="42" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="28">
-        <v>35970.25</v>
+        <v>36186.76</v>
       </c>
       <c r="B132" s="42" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="28">
-        <v>32031.05</v>
+        <v>32174.880000000001</v>
       </c>
       <c r="B133" s="42" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="28">
-        <v>35702.36</v>
+        <v>35970.25</v>
       </c>
       <c r="B135" s="42" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="28">
-        <v>31859.56</v>
+        <v>32031.05</v>
       </c>
       <c r="B136" s="42" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="28">
-        <v>35477.760000000002</v>
+        <v>35702.36</v>
       </c>
       <c r="B138" s="42" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="28">
-        <v>31723.99</v>
+        <v>31859.56</v>
       </c>
       <c r="B139" s="42" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="28">
-        <v>35101.279999999999</v>
+        <v>35477.760000000002</v>
       </c>
       <c r="B141" s="42" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="28">
-        <v>31592.21</v>
+        <v>31723.99</v>
       </c>
       <c r="B142" s="42" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="28">
-        <v>34734.089999999997</v>
+        <v>35101.279999999999</v>
       </c>
       <c r="B144" s="42" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="28">
+        <v>31592.21</v>
+      </c>
+      <c r="B145" s="42" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="28">
+        <v>34734.089999999997</v>
+      </c>
+      <c r="B147" s="42" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="28">
         <v>31479.83</v>
       </c>
-      <c r="B145" s="42" t="s">
+      <c r="B148" s="42" t="s">
         <v>511</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="28" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="28" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="28" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="28" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="28" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="28" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="28" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="28" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="28" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="28" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="28" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="28" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="28" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="28" t="s">
         <v>526</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="28" t="s">
+        <v>544</v>
+      </c>
+      <c r="B164" s="42" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="28" t="s">
+        <v>546</v>
+      </c>
+      <c r="B165" s="42" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="28">
+        <v>40532.2757413</v>
+      </c>
+      <c r="B166" s="42" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="28">
+        <v>32649.741543799999</v>
+      </c>
+      <c r="B167" s="42" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="28">
+        <v>39590.876380399997</v>
+      </c>
+      <c r="B169" s="42" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="28">
+        <v>32482.380007700001</v>
+      </c>
+      <c r="B170" s="42" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="28">
+        <v>38501.4283154</v>
+      </c>
+      <c r="B172" s="42" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="28">
+        <v>32089.951655299999</v>
+      </c>
+      <c r="B173" s="42" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="28">
+        <v>38058.538523000003</v>
+      </c>
+      <c r="B175" s="42" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="28">
+        <v>31970.810215199999</v>
+      </c>
+      <c r="B176" s="42" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="28">
+        <v>43096.791007599997</v>
+      </c>
+      <c r="B178" s="42" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="28">
+        <v>33604.025064699999</v>
+      </c>
+      <c r="B179" s="42" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="28">
+        <v>37122.373530099998</v>
+      </c>
+      <c r="B181" s="42" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="28">
+        <v>31667.560614900001</v>
+      </c>
+      <c r="B182" s="42" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="28">
+        <v>35705.505176799998</v>
+      </c>
+      <c r="B184" s="42" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="28">
+        <v>31239.412582500001</v>
+      </c>
+      <c r="B185" s="42" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="28">
+        <v>34512.7804397</v>
+      </c>
+      <c r="B188" s="28">
+        <v>103.89183869999999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="28">
+        <v>30864.168038200001</v>
+      </c>
+      <c r="B189" s="28">
+        <v>1.2953984000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="28" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="28">
+        <v>30576.4513592</v>
+      </c>
+      <c r="B192" s="42" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="28">
+        <v>39785.026074499998</v>
+      </c>
+      <c r="B193" s="42" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="28">
+        <v>30742.867327299999</v>
+      </c>
+      <c r="B195" s="42" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="28">
+        <v>39020.313529799998</v>
+      </c>
+      <c r="B196" s="42" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="28" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="28">
+        <v>30777.594452199999</v>
+      </c>
+      <c r="B199" s="42" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="28">
+        <v>39888.679278600001</v>
+      </c>
+      <c r="B200" s="42" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="28">
+        <v>30832.0437322</v>
+      </c>
+      <c r="B202" s="42" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="28">
+        <v>39694.078958400001</v>
+      </c>
+      <c r="B203" s="42" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="28">
+        <v>31082.8658765</v>
+      </c>
+      <c r="B205" s="42" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="28">
+        <v>39095.1092938</v>
+      </c>
+      <c r="B206" s="42" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="28" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="28" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="28">
+        <v>38163.228498199998</v>
+      </c>
+      <c r="B211" s="28" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="28">
+        <v>32629.488922100001</v>
+      </c>
+      <c r="B212" s="28" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="28">
+        <v>38060.19</v>
+      </c>
+      <c r="B214" s="42" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="28">
+        <v>32739.54</v>
+      </c>
+      <c r="B215" s="42" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="28">
+        <v>37703.629999999997</v>
+      </c>
+      <c r="B217" s="42" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="28">
+        <v>32631.88</v>
+      </c>
+      <c r="B218" s="42" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="28">
+        <v>37215.75</v>
+      </c>
+      <c r="B220" s="42" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="28">
+        <v>32450.71</v>
+      </c>
+      <c r="B221" s="42" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="28">
+        <v>36791.79</v>
+      </c>
+      <c r="B223" s="42" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="28">
+        <v>32364.92</v>
+      </c>
+      <c r="B224" s="42" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="28">
+        <v>36372.76</v>
+      </c>
+      <c r="B226" s="42" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="28">
+        <v>32280.05</v>
+      </c>
+      <c r="B227" s="42" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="28">
+        <v>36186.76</v>
+      </c>
+      <c r="B229" s="42" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="28">
+        <v>32174.880000000001</v>
+      </c>
+      <c r="B230" s="42" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="28">
+        <v>35970.25</v>
+      </c>
+      <c r="B232" s="42" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="28">
+        <v>32031.05</v>
+      </c>
+      <c r="B233" s="42" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="28">
+        <v>35702.36</v>
+      </c>
+      <c r="B235" s="42" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="28">
+        <v>31859.56</v>
+      </c>
+      <c r="B236" s="42" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="28">
+        <v>35477.760000000002</v>
+      </c>
+      <c r="B238" s="42" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="28">
+        <v>31723.99</v>
+      </c>
+      <c r="B239" s="42" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="28">
+        <v>35101.279999999999</v>
+      </c>
+      <c r="B241" s="42" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="28">
+        <v>31592.21</v>
+      </c>
+      <c r="B242" s="42" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="28">
+        <v>34734.089999999997</v>
+      </c>
+      <c r="B244" s="42" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="28">
+        <v>31479.83</v>
+      </c>
+      <c r="B245" s="42" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="28">
+        <v>34065.42</v>
+      </c>
+      <c r="B247" s="42" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="28">
+        <v>31457.71</v>
+      </c>
+      <c r="B248" s="42" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="28" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="59">
+        <v>30451.992083900001</v>
+      </c>
+      <c r="B251" s="59">
+        <v>103.8553513</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="59">
+        <v>39770.158830499997</v>
+      </c>
+      <c r="B252" s="59">
+        <v>1.3759417</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="59"/>
+      <c r="B253" s="59"/>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="59">
+        <v>31328.920852700001</v>
+      </c>
+      <c r="B254" s="59">
+        <v>103.8632314</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="59">
+        <v>39969.945966599997</v>
+      </c>
+      <c r="B255" s="59">
+        <v>1.3777482999999999</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="59"/>
+      <c r="B256" s="59"/>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="59">
+        <v>31499.1505488</v>
+      </c>
+      <c r="B257" s="59">
+        <v>103.86476089999999</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="59">
+        <v>39170.2856139</v>
+      </c>
+      <c r="B258" s="59">
+        <v>1.3705164999999999</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="59"/>
+      <c r="B259" s="59"/>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="59">
+        <v>30690.992468100001</v>
+      </c>
+      <c r="B260" s="59">
+        <v>103.857499</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="59">
+        <v>39019.5417418</v>
+      </c>
+      <c r="B261" s="59">
+        <v>1.3691533</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="59"/>
+      <c r="B262" s="59"/>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="59">
+        <v>30814.207316200002</v>
+      </c>
+      <c r="B263" s="59">
+        <v>103.85860630000001</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="59">
+        <v>39781.755438499997</v>
+      </c>
+      <c r="B264" s="59">
+        <v>1.3760463000000001</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="59"/>
+      <c r="B265" s="59"/>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="59">
+        <v>31063.382612400001</v>
+      </c>
+      <c r="B266" s="59">
+        <v>103.8608452</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="59">
+        <v>39106.710509800003</v>
+      </c>
+      <c r="B267" s="59">
+        <v>1.3699416</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="28" t="s">
+        <v>593</v>
+      </c>
+      <c r="B269" s="42" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="B270" s="42" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="28" t="s">
+        <v>594</v>
+      </c>
+      <c r="B271" s="42" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="28">
+        <v>30790.9181002</v>
+      </c>
+      <c r="B273" s="59">
+        <v>103.8583969</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="28">
+        <v>38176.531180999998</v>
+      </c>
+      <c r="B274" s="59">
+        <v>1.3615294</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="28" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="28">
+        <v>30767.915796199999</v>
+      </c>
+      <c r="B277" s="59">
+        <v>103.8581904</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="28">
+        <v>40638.217391300001</v>
+      </c>
+      <c r="B278" s="59">
+        <v>1.3837919999999999</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="28" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="28">
+        <v>30735.826324099999</v>
+      </c>
+      <c r="B281" s="42" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="28">
+        <v>36911.550443799999</v>
+      </c>
+      <c r="B282" s="42" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="28" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="28">
+        <v>30332.467923699998</v>
+      </c>
+      <c r="B285" s="42" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="28">
+        <v>37788.599724599997</v>
+      </c>
+      <c r="B286" s="42" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="28" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" s="28">
+        <v>31214.9684046</v>
+      </c>
+      <c r="B289" s="42" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="28">
+        <v>37351.410860199998</v>
+      </c>
+      <c r="B290" s="42" t="s">
+        <v>603</v>
       </c>
     </row>
   </sheetData>
@@ -6689,7 +9300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -6790,7 +9401,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6862,10 +9473,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C143"/>
+  <dimension ref="A1:C147"/>
   <sheetViews>
-    <sheetView topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="C144" sqref="C144"/>
+    <sheetView topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="C153" sqref="C153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7577,6 +10188,24 @@
         <v>536</v>
       </c>
     </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C144" s="47" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="C146" s="47" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C147" s="47" t="s">
+        <v>542</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7588,8 +10217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7877,23 +10506,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e39e7e9e36de66d473ce04bb4ab2dbb8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="19dc5994665da46609c24125788630d8" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -8098,32 +10710,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3AB413C-A07F-4EE8-909C-4B888D55CBB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EFB9284-2381-45C4-9342-D2A846659864}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C78C4875-2E31-4ACC-AEED-0DAFD072C30B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8140,4 +10744,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EFB9284-2381-45C4-9342-D2A846659864}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3AB413C-A07F-4EE8-909C-4B888D55CBB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/TT231_DemoScreen_work_Status.xlsx
+++ b/TT231_DemoScreen_work_Status.xlsx
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="620">
   <si>
     <t>Notes</t>
   </si>
@@ -1703,15 +1703,6 @@
     <t xml:space="preserve">detection camera layer created </t>
   </si>
   <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Salary</t>
-  </si>
-  <si>
-    <t>Commission</t>
-  </si>
-  <si>
     <t>29/7 - 2/8</t>
   </si>
   <si>
@@ -1727,9 +1718,6 @@
     <t>TIP point</t>
   </si>
   <si>
-    <t>Event points</t>
-  </si>
-  <si>
     <t>XY</t>
   </si>
   <si>
@@ -1911,6 +1899,57 @@
   </si>
   <si>
     <t>Traffic Time Panel - traffic message and time (ID-start-200)</t>
+  </si>
+  <si>
+    <t>tuition fee</t>
+  </si>
+  <si>
+    <t>bus fee</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>5/8 - 9/8</t>
+  </si>
+  <si>
+    <t>13/8 - 16/8</t>
+  </si>
+  <si>
+    <t>Event TIP points</t>
+  </si>
+  <si>
+    <t>$$$$$$$$$</t>
+  </si>
+  <si>
+    <t>103.9757038</t>
+  </si>
+  <si>
+    <t>1.3300795</t>
+  </si>
+  <si>
+    <t>103.97652</t>
+  </si>
+  <si>
+    <t>1.326665</t>
+  </si>
+  <si>
+    <t>1.2991446</t>
+  </si>
+  <si>
+    <t>103.9024259</t>
+  </si>
+  <si>
+    <t>103.8916975</t>
+  </si>
+  <si>
+    <t>1.2957672</t>
+  </si>
+  <si>
+    <t>Planned Event</t>
   </si>
 </sst>
 </file>
@@ -2729,39 +2768,29 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="112"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="12"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.10664326334208224"/>
-          <c:y val="7.407407407407407E-2"/>
-          <c:w val="0.66085629921259847"/>
-          <c:h val="0.83387394284047822"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
-        <c:grouping val="standard"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$2</c:f>
+              <c:f>Sheet1!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Age</c:v>
+                  <c:v>Speed</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2771,159 +2800,327 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$52</c:f>
+              <c:f>Sheet1!$A$2:$A$108</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
+                <c:ptCount val="107"/>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="12">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="34">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="35">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="39">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="50">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="86">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="87">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>72</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>99</c:v>
+                <c:pt idx="100">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2935,11 +3132,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$2</c:f>
+              <c:f>Sheet1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Salary</c:v>
+                  <c:v>KM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2949,253 +3146,327 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$52</c:f>
+              <c:f>Sheet1!$B$2:$B$108</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>30000</c:v>
-                </c:pt>
+                <c:ptCount val="107"/>
                 <c:pt idx="1">
-                  <c:v>31000</c:v>
+                  <c:v>16.22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32000</c:v>
+                  <c:v>16.29</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29000</c:v>
+                  <c:v>16.41</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30000</c:v>
+                  <c:v>16.59</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10000</c:v>
+                  <c:v>16.66</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30000</c:v>
+                  <c:v>16.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12000</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25000</c:v>
+                  <c:v>17.059999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14000</c:v>
+                  <c:v>17.190000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30000</c:v>
+                  <c:v>17.309999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>17.47</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.87</c:v>
+                  <c:v>17.61</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12.05</c:v>
+                  <c:v>17.75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12.25</c:v>
+                  <c:v>17.91</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12.4</c:v>
+                  <c:v>18.03</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12.57</c:v>
+                  <c:v>18.22</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12.75</c:v>
+                  <c:v>18.41</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12.99</c:v>
+                  <c:v>18.649999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13.16</c:v>
+                  <c:v>18.77</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13.38</c:v>
+                  <c:v>18.940000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>13.59</c:v>
+                  <c:v>19.05</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>13.81</c:v>
+                  <c:v>19.11</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>14.03</c:v>
+                  <c:v>19.23</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>14.11</c:v>
+                  <c:v>19.350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>14.21</c:v>
+                  <c:v>19.420000000000002</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>14.35</c:v>
+                  <c:v>19.61</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.22</c:v>
+                  <c:v>19.850000000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.45</c:v>
+                  <c:v>20.09</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.6</c:v>
+                  <c:v>20.309999999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.75</c:v>
+                  <c:v>20.53</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>20.57</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20.7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20.84</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20.99</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21.12</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21.25</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>21.38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>21.54</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>21.69</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>21.96</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>22.23</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>22.57</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>22.7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>22.82</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>22.95</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>22.98</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>23.02</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>23.18</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>23.35</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>23.54</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>23.76</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>23.98</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>24.19</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>24.41</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>24.53</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>24.65</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>24.84</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>25.04</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>25.23</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>25.42</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>25.61</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>25.81</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>26.18</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>26.35</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>26.36</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>26.39</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>26.42</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>26.43</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>26.43</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>26.46</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>0.98</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.21</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.47</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.65</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.81</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.96</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2.13</c:v>
-                </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="83">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.53</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.87</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.19</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.27</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>2.2999999999999998</c:v>
                 </c:pt>
-                <c:pt idx="39">
-                  <c:v>2.48</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2.64</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2.81</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2.92</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3.04</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3.05</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3.22</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.38</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>3.56</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3.73</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>3.88</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Commission</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$3:$C$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>31000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>33000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>34000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>35000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>36000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>41000</c:v>
+                <c:pt idx="95">
+                  <c:v>2.41</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.62</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.65</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.82</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.93</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3.06</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3.17</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3.51</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3.67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3212,11 +3483,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="634935808"/>
-        <c:axId val="622610112"/>
+        <c:axId val="151560704"/>
+        <c:axId val="151081472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="634935808"/>
+        <c:axId val="151560704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3225,7 +3496,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="622610112"/>
+        <c:crossAx val="151081472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3233,7 +3504,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="622610112"/>
+        <c:axId val="151081472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3244,7 +3515,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="634935808"/>
+        <c:crossAx val="151560704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3254,7 +3525,7 @@
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
@@ -3283,136 +3554,348 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="standard"/>
+        <c:grouping val="percentStacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Speed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$14:$A$52</c:f>
+              <c:f>Sheet1!$A$2:$A$108</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
-                <c:pt idx="0">
-                  <c:v>29</c:v>
-                </c:pt>
+                <c:ptCount val="107"/>
                 <c:pt idx="1">
-                  <c:v>74</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>94</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="35">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="47">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="73">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="95">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>72</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>99</c:v>
+                <c:pt idx="100">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3422,131 +3905,343 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$14:$B$52</c:f>
+              <c:f>Sheet1!$B$2:$B$108</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
+                <c:ptCount val="107"/>
                 <c:pt idx="1">
-                  <c:v>11.87</c:v>
+                  <c:v>16.22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.05</c:v>
+                  <c:v>16.29</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.25</c:v>
+                  <c:v>16.41</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.4</c:v>
+                  <c:v>16.59</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.57</c:v>
+                  <c:v>16.66</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.75</c:v>
+                  <c:v>16.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.99</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.16</c:v>
+                  <c:v>17.059999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.38</c:v>
+                  <c:v>17.190000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.59</c:v>
+                  <c:v>17.309999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13.81</c:v>
+                  <c:v>17.47</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.03</c:v>
+                  <c:v>17.61</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.11</c:v>
+                  <c:v>17.75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14.21</c:v>
+                  <c:v>17.91</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>14.35</c:v>
+                  <c:v>18.03</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.22</c:v>
+                  <c:v>18.22</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.45</c:v>
+                  <c:v>18.41</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.6</c:v>
+                  <c:v>18.649999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.75</c:v>
+                  <c:v>18.77</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>18.940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.05</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19.11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19.350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19.420000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>19.61</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20.09</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20.309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20.53</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20.57</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20.7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20.84</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20.99</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21.12</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21.25</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>21.38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>21.54</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>21.69</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>21.96</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>22.23</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>22.57</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>22.7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>22.82</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>22.95</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>22.98</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>23.02</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>23.18</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>23.35</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>23.54</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>23.76</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>23.98</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>24.19</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>24.41</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>24.53</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>24.65</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>24.84</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>25.04</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>25.23</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>25.42</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>25.61</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>25.81</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>26.18</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>26.35</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>26.36</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>26.39</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>26.42</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>26.43</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>26.43</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>26.46</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>0.98</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.47</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.65</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.81</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.96</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.13</c:v>
-                </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="83">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.53</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.87</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.19</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.27</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>2.2999999999999998</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.48</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.64</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.81</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2.92</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.04</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.05</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.22</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.38</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.56</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.73</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3.88</c:v>
+                <c:pt idx="95">
+                  <c:v>2.41</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.62</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.65</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.82</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.93</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3.06</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3.17</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3.51</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3.67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3563,11 +4258,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="634959872"/>
-        <c:axId val="622612416"/>
+        <c:axId val="153317376"/>
+        <c:axId val="151083200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="634959872"/>
+        <c:axId val="153317376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3576,7 +4271,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="622612416"/>
+        <c:crossAx val="151083200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3584,18 +4279,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="622612416"/>
+        <c:axId val="151083200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="634959872"/>
+        <c:crossAx val="153317376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3605,13 +4300,13 @@
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="landscape"/>
+    <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -3752,13 +4447,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2266951</xdr:colOff>
-      <xdr:row>250</xdr:row>
+      <xdr:row>273</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>261</xdr:row>
+      <xdr:row>284</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4343,20 +5038,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4373,20 +5068,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>209549</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5364,1671 +6059,1406 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C297"/>
+  <dimension ref="A1:B297"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>537</v>
-      </c>
-      <c r="B2" t="s">
-        <v>538</v>
-      </c>
-      <c r="C2" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="58">
+        <v>40</v>
+      </c>
+      <c r="B3" s="58">
+        <v>16.22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="58">
+        <v>84</v>
+      </c>
+      <c r="B4" s="58">
+        <v>16.29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="58">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>30000</v>
-      </c>
-      <c r="C3">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>20</v>
-      </c>
-      <c r="B4">
-        <v>31000</v>
-      </c>
-      <c r="C4">
-        <v>41000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B5" s="58">
+        <v>16.41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="58">
+        <v>98</v>
+      </c>
+      <c r="B6" s="58">
+        <v>16.59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="58">
+        <v>51</v>
+      </c>
+      <c r="B7" s="58">
+        <v>16.66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="58">
+        <v>57</v>
+      </c>
+      <c r="B8" s="58">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="58">
+        <v>92</v>
+      </c>
+      <c r="B9" s="58">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="58">
+        <v>94</v>
+      </c>
+      <c r="B10" s="58">
+        <v>17.059999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="58">
+        <v>39</v>
+      </c>
+      <c r="B11" s="58">
+        <v>17.190000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="58">
+        <v>9</v>
+      </c>
+      <c r="B12" s="58">
+        <v>17.309999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="58">
         <v>30</v>
       </c>
-      <c r="B5">
-        <v>32000</v>
-      </c>
-      <c r="C5">
-        <v>44000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>40</v>
-      </c>
-      <c r="B6">
-        <v>29000</v>
-      </c>
-      <c r="C6">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>50</v>
-      </c>
-      <c r="B7">
-        <v>30000</v>
-      </c>
-      <c r="C7">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>60</v>
-      </c>
-      <c r="B8">
-        <v>10000</v>
-      </c>
-      <c r="C8">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>70</v>
-      </c>
-      <c r="B9">
-        <v>30000</v>
-      </c>
-      <c r="C9">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>80</v>
-      </c>
-      <c r="B10">
-        <v>12000</v>
-      </c>
-      <c r="C10">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>90</v>
-      </c>
-      <c r="B11">
-        <v>25000</v>
-      </c>
-      <c r="C11">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>100</v>
-      </c>
-      <c r="B12">
-        <v>14000</v>
-      </c>
-      <c r="C12">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>110</v>
-      </c>
-      <c r="B13">
-        <v>30000</v>
-      </c>
-      <c r="C13">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="58">
+        <v>17.47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="58">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="B14" s="58">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17.61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="58">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B15" s="58">
-        <v>11.87</v>
-      </c>
-      <c r="C15">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="58">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="B16" s="58">
-        <v>12.05</v>
-      </c>
-      <c r="C16">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17.91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="58">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="B17" s="58">
-        <v>12.25</v>
-      </c>
-      <c r="C17">
-        <v>31000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18.03</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="58">
+        <v>89</v>
+      </c>
+      <c r="B18" s="58">
+        <v>18.22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="58">
+        <v>32</v>
+      </c>
+      <c r="B19" s="58">
+        <v>18.41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="58">
+        <v>99</v>
+      </c>
+      <c r="B20" s="58">
+        <v>18.649999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="58">
+        <v>56</v>
+      </c>
+      <c r="B21" s="58">
+        <v>18.77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="58">
+        <v>87</v>
+      </c>
+      <c r="B22" s="58">
+        <v>18.940000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="58">
+        <v>71</v>
+      </c>
+      <c r="B23" s="58">
+        <v>19.05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="58">
+        <v>73</v>
+      </c>
+      <c r="B24" s="58">
+        <v>19.11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="58">
+        <v>106</v>
+      </c>
+      <c r="B25" s="58">
+        <v>19.23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="58">
+        <v>64</v>
+      </c>
+      <c r="B26" s="58">
+        <v>19.350000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="58">
+        <v>73</v>
+      </c>
+      <c r="B27" s="58">
+        <v>19.420000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="58">
+        <v>54</v>
+      </c>
+      <c r="B28" s="58">
+        <v>19.61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="58">
+        <v>33</v>
+      </c>
+      <c r="B29" s="58">
+        <v>19.850000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="58">
+        <v>91</v>
+      </c>
+      <c r="B30" s="58">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="58">
+        <v>53</v>
+      </c>
+      <c r="B31" s="58">
+        <v>20.309999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="58">
         <v>94</v>
       </c>
-      <c r="B18" s="58">
-        <v>12.4</v>
-      </c>
-      <c r="C18">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="58">
-        <v>23</v>
-      </c>
-      <c r="B19" s="58">
-        <v>12.57</v>
-      </c>
-      <c r="C19">
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="58">
-        <v>62</v>
-      </c>
-      <c r="B20" s="58">
-        <v>12.75</v>
-      </c>
-      <c r="C20">
-        <v>34000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="58">
-        <v>50</v>
-      </c>
-      <c r="B21" s="58">
-        <v>12.99</v>
-      </c>
-      <c r="C21">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="58">
-        <v>108</v>
-      </c>
-      <c r="B22" s="58">
-        <v>13.16</v>
-      </c>
-      <c r="C22">
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="58">
-        <v>11</v>
-      </c>
-      <c r="B23" s="58">
-        <v>13.38</v>
-      </c>
-      <c r="C23">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="58">
-        <v>12</v>
-      </c>
-      <c r="B24" s="58">
-        <v>13.59</v>
-      </c>
-      <c r="C24">
-        <v>41000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="58">
-        <v>48</v>
-      </c>
-      <c r="B25" s="58">
-        <v>13.81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="58">
-        <v>44</v>
-      </c>
-      <c r="B26" s="58">
-        <v>14.03</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="58">
-        <v>92</v>
-      </c>
-      <c r="B27" s="58">
-        <v>14.11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="58">
-        <v>94</v>
-      </c>
-      <c r="B28" s="58">
-        <v>14.21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="58">
-        <v>97</v>
-      </c>
-      <c r="B29" s="58">
-        <v>14.35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="58">
-        <v>31</v>
-      </c>
-      <c r="B30" s="58">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="58">
-        <v>26</v>
-      </c>
-      <c r="B31" s="58">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="58">
-        <v>54</v>
-      </c>
       <c r="B32" s="58">
-        <v>0.6</v>
+        <v>20.53</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="58">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="B33" s="58">
-        <v>0.75</v>
+        <v>20.57</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="58">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="B34" s="58">
-        <v>0.98</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="58">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="B35" s="58">
-        <v>1.21</v>
+        <v>20.84</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="58">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="B36" s="58">
-        <v>1.47</v>
+        <v>20.99</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="58">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="B37" s="58">
-        <v>1.65</v>
+        <v>21.12</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="58">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="B38" s="58">
-        <v>1.81</v>
+        <v>21.25</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="58">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="B39" s="58">
-        <v>1.96</v>
+        <v>21.38</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="58">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B40" s="58">
-        <v>2.13</v>
+        <v>21.54</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="58">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B41" s="58">
-        <v>2.2999999999999998</v>
+        <v>21.69</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="58">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="B42" s="58">
-        <v>2.48</v>
+        <v>21.96</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="58">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B43" s="58">
-        <v>2.64</v>
+        <v>22.23</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="58">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B44" s="58">
-        <v>2.81</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="58">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B45" s="58">
-        <v>2.92</v>
+        <v>22.57</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="58">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="B46" s="58">
-        <v>3.04</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="58">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="B47" s="58">
-        <v>3.05</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="58">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B48" s="58">
-        <v>3.22</v>
+        <v>22.95</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="58">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B49" s="58">
-        <v>3.38</v>
+        <v>22.98</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="58">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="B50" s="58">
-        <v>3.56</v>
+        <v>23.02</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="58">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B51" s="58">
-        <v>3.73</v>
+        <v>23.18</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="58">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="B52" s="58">
-        <v>3.88</v>
+        <v>23.35</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="58">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="B53" s="58">
-        <v>4.0199999999999996</v>
+        <v>23.54</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="58">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B54" s="58">
-        <v>4.18</v>
+        <v>23.76</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="58">
-        <v>82</v>
+        <v>50</v>
+      </c>
+      <c r="B55" s="58">
+        <v>23.98</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="58">
-        <v>18</v>
+        <v>43</v>
+      </c>
+      <c r="B56" s="58">
+        <v>24.19</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="58">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="B57" s="58">
+        <v>24.41</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="58">
-        <v>88</v>
+        <v>25</v>
+      </c>
+      <c r="B58" s="58">
+        <v>24.53</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="58">
-        <v>8</v>
+        <v>94</v>
+      </c>
+      <c r="B59" s="58">
+        <v>24.65</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="58">
-        <v>93</v>
+        <v>41</v>
+      </c>
+      <c r="B60" s="58">
+        <v>24.84</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="58">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="B61" s="58">
+        <v>25.04</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="58">
-        <v>11</v>
+        <v>30</v>
+      </c>
+      <c r="B62" s="58">
+        <v>25.23</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="58">
-        <v>53</v>
+        <v>38</v>
+      </c>
+      <c r="B63" s="58">
+        <v>25.42</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="58">
+        <v>71</v>
+      </c>
+      <c r="B64" s="58">
+        <v>25.61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="58">
+        <v>81</v>
+      </c>
+      <c r="B65" s="58">
+        <v>25.81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="58">
+        <v>86</v>
+      </c>
+      <c r="B66" s="58">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="58">
         <v>77</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="58">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="58">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="58">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B67" s="58">
+        <v>26.18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="58">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="B68" s="58">
+        <v>26.35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="58">
+        <v>28</v>
+      </c>
+      <c r="B69" s="58">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="58">
+        <v>61</v>
+      </c>
+      <c r="B70" s="58">
+        <v>26.39</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="58">
+        <v>42</v>
+      </c>
+      <c r="B71" s="58">
+        <v>26.42</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="58">
+        <v>96</v>
+      </c>
+      <c r="B72" s="58">
+        <v>26.43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="58">
+        <v>15</v>
+      </c>
+      <c r="B73" s="58">
+        <v>26.43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="58">
+        <v>44</v>
+      </c>
+      <c r="B74" s="58">
+        <v>26.46</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="58">
+        <v>59</v>
+      </c>
+      <c r="B75" s="58">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="58">
+        <v>28</v>
+      </c>
+      <c r="B76" s="58">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="58">
+        <v>69</v>
+      </c>
+      <c r="B77" s="58">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="58">
+        <v>20</v>
+      </c>
+      <c r="B78" s="58">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="58">
+        <v>58</v>
+      </c>
+      <c r="B79" s="58">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="58">
+        <v>44</v>
+      </c>
+      <c r="B80" s="58">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="58">
+        <v>73</v>
+      </c>
+      <c r="B81" s="58">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="58">
+        <v>33</v>
+      </c>
+      <c r="B82" s="58">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="58">
+        <v>78</v>
+      </c>
+      <c r="B83" s="58">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="58">
+        <v>42</v>
+      </c>
+      <c r="B84" s="58">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="58">
+        <v>91</v>
+      </c>
+      <c r="B85" s="58">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="58">
+        <v>66</v>
+      </c>
+      <c r="B86" s="58">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="58">
+        <v>84</v>
+      </c>
+      <c r="B87" s="58">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="58">
+        <v>75</v>
+      </c>
+      <c r="B88" s="58">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="58">
+        <v>34</v>
+      </c>
+      <c r="B89" s="58">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="58">
+        <v>85</v>
+      </c>
+      <c r="B90" s="58">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="58">
+        <v>101</v>
+      </c>
+      <c r="B91" s="58">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="58">
+        <v>88</v>
+      </c>
+      <c r="B92" s="58">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="58">
+        <v>39</v>
+      </c>
+      <c r="B93" s="58">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="58">
+        <v>49</v>
+      </c>
+      <c r="B94" s="58">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="58">
+        <v>98</v>
+      </c>
+      <c r="B95" s="58">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="58">
+        <v>31</v>
+      </c>
+      <c r="B96" s="58">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="58">
+        <v>99</v>
+      </c>
+      <c r="B97" s="58">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="58">
+        <v>87</v>
+      </c>
+      <c r="B98" s="58">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="58">
+        <v>47</v>
+      </c>
+      <c r="B99" s="58">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="58">
+        <v>88</v>
+      </c>
+      <c r="B100" s="58">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="58">
+        <v>72</v>
+      </c>
+      <c r="B101" s="58">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="58">
+        <v>52</v>
+      </c>
+      <c r="B102" s="58">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="58">
+        <v>79</v>
+      </c>
+      <c r="B103" s="58">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="58">
+        <v>68</v>
+      </c>
+      <c r="B104" s="58">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="58">
         <v>109</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="58">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="58">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="58">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="58">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="58">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="58">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="58">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="58">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="58">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="58">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="58">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="58">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="58">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="58">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="58">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="58">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="58">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="58">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="58">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="58">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="58">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="58">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="58">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="58">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="58">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="58">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="58">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="58">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="58">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="58">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="58">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="58">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="58">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="58">
+      <c r="B105" s="58">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="58">
         <v>85</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="58">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="58">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B106" s="58">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="58">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="B107" s="58">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="58">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="58">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="58">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="58">
-        <v>18</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="B108" s="58">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="58"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="58"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="58"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="58"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="58">
-        <v>91</v>
-      </c>
+      <c r="A113" s="58"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="58">
-        <v>103</v>
-      </c>
+      <c r="A114" s="58"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="58">
-        <v>1</v>
-      </c>
+      <c r="A115" s="58"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="58">
-        <v>29</v>
-      </c>
+      <c r="A116" s="58"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="58">
-        <v>33</v>
-      </c>
+      <c r="A117" s="58"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="58">
-        <v>100</v>
-      </c>
+      <c r="A118" s="58"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="58">
-        <v>25</v>
-      </c>
+      <c r="A119" s="58"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="58">
-        <v>52</v>
-      </c>
+      <c r="A120" s="58"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="58">
-        <v>63</v>
-      </c>
+      <c r="A121" s="58"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="58">
-        <v>61</v>
-      </c>
+      <c r="A122" s="58"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="58">
-        <v>71</v>
-      </c>
+      <c r="A123" s="58"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="58">
-        <v>62</v>
-      </c>
+      <c r="A124" s="58"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="58">
-        <v>107</v>
-      </c>
+      <c r="A125" s="58"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="58">
-        <v>2</v>
-      </c>
+      <c r="A126" s="58"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="58">
-        <v>74</v>
-      </c>
+      <c r="A127" s="58"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="58">
-        <v>23</v>
-      </c>
+      <c r="A128" s="58"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="58">
-        <v>12</v>
-      </c>
+      <c r="A129" s="58"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="58">
-        <v>72</v>
-      </c>
+      <c r="A130" s="58"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="58">
-        <v>53</v>
-      </c>
+      <c r="A131" s="58"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="58">
-        <v>38</v>
-      </c>
+      <c r="A132" s="58"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="58">
-        <v>75</v>
-      </c>
+      <c r="A133" s="58"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="58">
-        <v>91</v>
-      </c>
+      <c r="A134" s="58"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="58">
-        <v>40</v>
-      </c>
+      <c r="A135" s="58"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="58">
-        <v>85</v>
-      </c>
+      <c r="A136" s="58"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="58">
-        <v>66</v>
-      </c>
+      <c r="A137" s="58"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="58">
-        <v>53</v>
-      </c>
+      <c r="A138" s="58"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="58">
-        <v>48</v>
-      </c>
+      <c r="A139" s="58"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="58">
-        <v>67</v>
-      </c>
+      <c r="A140" s="58"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="58">
-        <v>19</v>
-      </c>
+      <c r="A141" s="58"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="58">
-        <v>38</v>
-      </c>
+      <c r="A142" s="58"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="58">
-        <v>104</v>
-      </c>
+      <c r="A143" s="58"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="58">
-        <v>103</v>
-      </c>
+      <c r="A144" s="58"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="58">
-        <v>42</v>
-      </c>
+      <c r="A145" s="58"/>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="58">
-        <v>8</v>
-      </c>
+      <c r="A146" s="58"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="58">
-        <v>86</v>
-      </c>
+      <c r="A147" s="58"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="58">
-        <v>26</v>
-      </c>
+      <c r="A148" s="58"/>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="58">
-        <v>99</v>
-      </c>
+      <c r="A149" s="58"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="58">
-        <v>70</v>
-      </c>
+      <c r="A150" s="58"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="58">
-        <v>36</v>
-      </c>
+      <c r="A151" s="58"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="58">
-        <v>1</v>
-      </c>
+      <c r="A152" s="58"/>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="58">
-        <v>11</v>
-      </c>
+      <c r="A153" s="58"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="58">
-        <v>98</v>
-      </c>
+      <c r="A154" s="58"/>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="58">
-        <v>76</v>
-      </c>
+      <c r="A155" s="58"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="58">
-        <v>97</v>
-      </c>
+      <c r="A156" s="58"/>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="58">
-        <v>47</v>
-      </c>
+      <c r="A157" s="58"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="58">
-        <v>74</v>
-      </c>
+      <c r="A158" s="58"/>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="58">
-        <v>6</v>
-      </c>
+      <c r="A159" s="58"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="58">
-        <v>36</v>
-      </c>
+      <c r="A160" s="58"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="58">
-        <v>86</v>
-      </c>
+      <c r="A161" s="58"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="58">
-        <v>47</v>
-      </c>
+      <c r="A162" s="58"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="58">
-        <v>18</v>
-      </c>
+      <c r="A163" s="58"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="58">
-        <v>107</v>
-      </c>
+      <c r="A164" s="58"/>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="58">
-        <v>7</v>
-      </c>
+      <c r="A165" s="58"/>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="58">
-        <v>42</v>
-      </c>
+      <c r="A166" s="58"/>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="58">
-        <v>105</v>
-      </c>
+      <c r="A167" s="58"/>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="58">
-        <v>10</v>
-      </c>
+      <c r="A168" s="58"/>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="58">
-        <v>8</v>
-      </c>
+      <c r="A169" s="58"/>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="58">
-        <v>93</v>
-      </c>
+      <c r="A170" s="58"/>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="58">
-        <v>30</v>
-      </c>
+      <c r="A171" s="58"/>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="58">
-        <v>88</v>
-      </c>
+      <c r="A172" s="58"/>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="58">
-        <v>50</v>
-      </c>
+      <c r="A173" s="58"/>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="58">
-        <v>91</v>
-      </c>
+      <c r="A174" s="58"/>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="58">
-        <v>76</v>
-      </c>
+      <c r="A175" s="58"/>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="58">
-        <v>12</v>
-      </c>
+      <c r="A176" s="58"/>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="58">
-        <v>26</v>
-      </c>
+      <c r="A177" s="58"/>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="58">
-        <v>14</v>
-      </c>
+      <c r="A178" s="58"/>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="58">
-        <v>63</v>
-      </c>
+      <c r="A179" s="58"/>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="58">
-        <v>106</v>
-      </c>
+      <c r="A180" s="58"/>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="58">
-        <v>23</v>
-      </c>
+      <c r="A181" s="58"/>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="58">
-        <v>45</v>
-      </c>
+      <c r="A182" s="58"/>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="58">
-        <v>45</v>
-      </c>
+      <c r="A183" s="58"/>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="58">
-        <v>68</v>
-      </c>
+      <c r="A184" s="58"/>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="58">
-        <v>2</v>
-      </c>
+      <c r="A185" s="58"/>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="58">
-        <v>89</v>
-      </c>
+      <c r="A186" s="58"/>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="58">
-        <v>71</v>
-      </c>
+      <c r="A187" s="58"/>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="58">
-        <v>51</v>
-      </c>
+      <c r="A188" s="58"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="58">
-        <v>98</v>
-      </c>
+      <c r="A189" s="58"/>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="58">
-        <v>70</v>
-      </c>
+      <c r="A190" s="58"/>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="58">
-        <v>107</v>
-      </c>
+      <c r="A191" s="58"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="58">
-        <v>66</v>
-      </c>
+      <c r="A192" s="58"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="58">
-        <v>18</v>
-      </c>
+      <c r="A193" s="58"/>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="58">
-        <v>15</v>
-      </c>
+      <c r="A194" s="58"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="58">
-        <v>67</v>
-      </c>
+      <c r="A195" s="58"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="58">
-        <v>85</v>
-      </c>
+      <c r="A196" s="58"/>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="58">
-        <v>99</v>
-      </c>
+      <c r="A197" s="58"/>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="58">
-        <v>34</v>
-      </c>
+      <c r="A198" s="58"/>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="58">
-        <v>69</v>
-      </c>
+      <c r="A199" s="58"/>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="58">
-        <v>12</v>
-      </c>
+      <c r="A200" s="58"/>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="58">
-        <v>29</v>
-      </c>
+      <c r="A201" s="58"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="58">
-        <v>66</v>
-      </c>
+      <c r="A202" s="58"/>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="58">
-        <v>43</v>
-      </c>
+      <c r="A203" s="58"/>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="58">
-        <v>29</v>
-      </c>
+      <c r="A204" s="58"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="58">
-        <v>55</v>
-      </c>
+      <c r="A205" s="58"/>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="58">
-        <v>55</v>
-      </c>
+      <c r="A206" s="58"/>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="58">
-        <v>105</v>
-      </c>
+      <c r="A207" s="58"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="58">
-        <v>74</v>
-      </c>
+      <c r="A208" s="58"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="58">
-        <v>71</v>
-      </c>
+      <c r="A209" s="58"/>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="58">
-        <v>17</v>
-      </c>
+      <c r="A210" s="58"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="58">
-        <v>48</v>
-      </c>
+      <c r="A211" s="58"/>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="58">
-        <v>46</v>
-      </c>
+      <c r="A212" s="58"/>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="58">
-        <v>107</v>
-      </c>
+      <c r="A213" s="58"/>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="58">
-        <v>17</v>
-      </c>
+      <c r="A214" s="58"/>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="58">
-        <v>107</v>
-      </c>
+      <c r="A215" s="58"/>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="58">
-        <v>12</v>
-      </c>
+      <c r="A216" s="58"/>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="58">
-        <v>5</v>
-      </c>
+      <c r="A217" s="58"/>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="58">
-        <v>50</v>
-      </c>
+      <c r="A218" s="58"/>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="58">
-        <v>31</v>
-      </c>
+      <c r="A219" s="58"/>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="58">
-        <v>90</v>
-      </c>
+      <c r="A220" s="58"/>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="58">
-        <v>98</v>
-      </c>
+      <c r="A221" s="58"/>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="58">
-        <v>18</v>
-      </c>
+      <c r="A222" s="58"/>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="58">
-        <v>70</v>
-      </c>
+      <c r="A223" s="58"/>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="58">
-        <v>64</v>
-      </c>
+      <c r="A224" s="58"/>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="58">
-        <v>89</v>
-      </c>
+      <c r="A225" s="58"/>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="58">
-        <v>99</v>
-      </c>
+      <c r="A226" s="58"/>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="58">
-        <v>91</v>
-      </c>
+      <c r="A227" s="58"/>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="58">
-        <v>73</v>
-      </c>
+      <c r="A228" s="58"/>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="58">
-        <v>80</v>
-      </c>
+      <c r="A229" s="58"/>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="58">
-        <v>103</v>
-      </c>
+      <c r="A230" s="58"/>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="58">
-        <v>23</v>
-      </c>
+      <c r="A231" s="58"/>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="58">
-        <v>109</v>
-      </c>
+      <c r="A232" s="58"/>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="58">
-        <v>15</v>
-      </c>
+      <c r="A233" s="58"/>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="58">
-        <v>79</v>
-      </c>
+      <c r="A234" s="58"/>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="58">
-        <v>40</v>
-      </c>
+      <c r="A235" s="58"/>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="58">
-        <v>20</v>
-      </c>
+      <c r="A236" s="58"/>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="58">
-        <v>94</v>
-      </c>
+      <c r="A237" s="58"/>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="58">
-        <v>82</v>
-      </c>
+      <c r="A238" s="58"/>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="58">
-        <v>33</v>
-      </c>
+      <c r="A239" s="58"/>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="58">
-        <v>70</v>
-      </c>
+      <c r="A240" s="58"/>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="58">
-        <v>86</v>
-      </c>
+      <c r="A241" s="58"/>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="58">
-        <v>64</v>
-      </c>
+      <c r="A242" s="58"/>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="58">
-        <v>45</v>
-      </c>
+      <c r="A243" s="58"/>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="58">
-        <v>1</v>
-      </c>
+      <c r="A244" s="58"/>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="58">
-        <v>80</v>
-      </c>
+      <c r="A245" s="58"/>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="58">
-        <v>103</v>
-      </c>
+      <c r="A246" s="58"/>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="58">
-        <v>87</v>
-      </c>
+      <c r="A247" s="58"/>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="58">
-        <v>96</v>
-      </c>
+      <c r="A248" s="58"/>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="58">
-        <v>0</v>
-      </c>
+      <c r="A249" s="58"/>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="58">
-        <v>16</v>
-      </c>
+      <c r="A250" s="58"/>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="58">
-        <v>83</v>
-      </c>
+      <c r="A251" s="58"/>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="58">
-        <v>73</v>
-      </c>
+      <c r="A252" s="58"/>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="58">
-        <v>37</v>
-      </c>
+      <c r="A253" s="58"/>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="58">
-        <v>1</v>
-      </c>
+      <c r="A254" s="58"/>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="58">
-        <v>59</v>
-      </c>
+      <c r="A255" s="58"/>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="58">
-        <v>37</v>
-      </c>
+      <c r="A256" s="58"/>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="58">
-        <v>1</v>
-      </c>
+      <c r="A257" s="58"/>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="58">
-        <v>58</v>
-      </c>
+      <c r="A258" s="58"/>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="58">
-        <v>70</v>
-      </c>
+      <c r="A259" s="58"/>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="58">
-        <v>106</v>
-      </c>
+      <c r="A260" s="58"/>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="58">
-        <v>62</v>
-      </c>
+      <c r="A261" s="58"/>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="58">
-        <v>77</v>
-      </c>
+      <c r="A262" s="58"/>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="58">
-        <v>97</v>
-      </c>
+      <c r="A263" s="58"/>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="58">
-        <v>109</v>
-      </c>
+      <c r="A264" s="58"/>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="58">
-        <v>18</v>
-      </c>
+      <c r="A265" s="58"/>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="58">
-        <v>43</v>
-      </c>
+      <c r="A266" s="58"/>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="58">
-        <v>46</v>
-      </c>
+      <c r="A267" s="58"/>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="58">
-        <v>104</v>
-      </c>
+      <c r="A268" s="58"/>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="58">
-        <v>35</v>
-      </c>
+      <c r="A269" s="58"/>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="58">
-        <v>41</v>
-      </c>
+      <c r="A270" s="58"/>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="58">
-        <v>25</v>
-      </c>
+      <c r="A271" s="58"/>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="58">
-        <v>39</v>
-      </c>
+      <c r="A272" s="58"/>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="58">
-        <v>64</v>
-      </c>
+      <c r="A273" s="58"/>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="58">
-        <v>94</v>
-      </c>
+      <c r="A274" s="58"/>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="58">
-        <v>107</v>
-      </c>
+      <c r="A275" s="58"/>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="58">
-        <v>61</v>
-      </c>
+      <c r="A276" s="58"/>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="58">
-        <v>61</v>
-      </c>
+      <c r="A277" s="58"/>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="58">
-        <v>3</v>
-      </c>
+      <c r="A278" s="58"/>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="58">
-        <v>16</v>
-      </c>
+      <c r="A279" s="58"/>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="58">
-        <v>101</v>
-      </c>
+      <c r="A280" s="58"/>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="58">
-        <v>14</v>
-      </c>
+      <c r="A281" s="58"/>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="58">
-        <v>58</v>
-      </c>
+      <c r="A282" s="58"/>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="58">
-        <v>95</v>
-      </c>
+      <c r="A283" s="58"/>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="58">
-        <v>65</v>
-      </c>
+      <c r="A284" s="58"/>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="58">
-        <v>86</v>
-      </c>
+      <c r="A285" s="58"/>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="58">
-        <v>40</v>
-      </c>
+      <c r="A286" s="58"/>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="58">
-        <v>104</v>
-      </c>
+      <c r="A287" s="58"/>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="58">
@@ -7565,10 +7995,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G290"/>
+  <dimension ref="A1:G320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="G242" sqref="G242"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="H167" sqref="H167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8292,7 +8722,7 @@
         <v>38163.228498199998</v>
       </c>
       <c r="B110" s="42" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E110" s="42"/>
       <c r="G110">
@@ -8304,7 +8734,7 @@
         <v>32629.488922100001</v>
       </c>
       <c r="B111" s="42" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E111" s="42"/>
     </row>
@@ -8584,57 +9014,62 @@
         <v>526</v>
       </c>
     </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="27" t="s">
+        <v>619</v>
+      </c>
+    </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="28" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B164" s="42" t="s">
-        <v>545</v>
+        <v>609</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="28" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B165" s="42" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="28">
-        <v>40532.2757413</v>
+        <v>43846.047648300002</v>
       </c>
       <c r="B166" s="42" t="s">
-        <v>548</v>
+        <v>611</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="28">
-        <v>32649.741543799999</v>
+        <v>34699.402025700001</v>
       </c>
       <c r="B167" s="42" t="s">
-        <v>549</v>
+        <v>612</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="28">
-        <v>39590.876380399997</v>
+        <v>43936.881376400001</v>
       </c>
       <c r="B169" s="42" t="s">
-        <v>550</v>
+        <v>613</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="28">
-        <v>32482.380007700001</v>
+        <v>34321.853161400002</v>
       </c>
       <c r="B170" s="42" t="s">
-        <v>551</v>
+        <v>614</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="28">
-        <v>38501.4283154</v>
+        <v>43096.791007599997</v>
       </c>
       <c r="B172" s="42" t="s">
         <v>552</v>
@@ -8642,7 +9077,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="28">
-        <v>32089.951655299999</v>
+        <v>33604.025064699999</v>
       </c>
       <c r="B173" s="42" t="s">
         <v>553</v>
@@ -8650,641 +9085,755 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="28">
-        <v>38058.538523000003</v>
+        <v>40532.2757413</v>
       </c>
       <c r="B175" s="42" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="28">
-        <v>31970.810215199999</v>
+        <v>32649.741543799999</v>
       </c>
       <c r="B176" s="42" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="28">
-        <v>43096.791007599997</v>
+        <v>39590.876380399997</v>
       </c>
       <c r="B178" s="42" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="28">
-        <v>33604.025064699999</v>
+        <v>32482.380007700001</v>
       </c>
       <c r="B179" s="42" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="28">
-        <v>37122.373530099998</v>
+        <v>38058.538523000003</v>
       </c>
       <c r="B181" s="42" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="28">
-        <v>31667.560614900001</v>
+        <v>31970.810215199999</v>
       </c>
       <c r="B182" s="42" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="28">
-        <v>35705.505176799998</v>
+        <v>35691.025496800001</v>
       </c>
       <c r="B184" s="42" t="s">
-        <v>560</v>
+        <v>616</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="28">
-        <v>31239.412582500001</v>
+        <v>31278.436390499999</v>
       </c>
       <c r="B185" s="42" t="s">
-        <v>561</v>
+        <v>615</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="28">
+        <v>34497.0597996</v>
+      </c>
+      <c r="B187" s="42" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="28">
-        <v>34512.7804397</v>
-      </c>
-      <c r="B188" s="28">
-        <v>103.89183869999999</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="28">
-        <v>30864.168038200001</v>
-      </c>
-      <c r="B189" s="28">
-        <v>1.2953984000000001</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="28" t="s">
-        <v>562</v>
+        <v>30904.950438200001</v>
+      </c>
+      <c r="B188" s="42" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="28" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="28">
-        <v>30576.4513592</v>
+        <v>39590.876380399997</v>
       </c>
       <c r="B192" s="42" t="s">
-        <v>567</v>
+        <v>546</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="28">
-        <v>39785.026074499998</v>
+        <v>32482.380007700001</v>
       </c>
       <c r="B193" s="42" t="s">
-        <v>568</v>
+        <v>547</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="28">
-        <v>30742.867327299999</v>
+        <v>38501.4283154</v>
       </c>
       <c r="B195" s="42" t="s">
-        <v>570</v>
+        <v>548</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="28">
-        <v>39020.313529799998</v>
+        <v>32089.951655299999</v>
       </c>
       <c r="B196" s="42" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="28" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="28">
-        <v>30777.594452199999</v>
-      </c>
-      <c r="B199" s="42" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="28">
-        <v>39888.679278600001</v>
-      </c>
-      <c r="B200" s="42" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="28">
-        <v>30832.0437322</v>
-      </c>
-      <c r="B202" s="42" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="28">
-        <v>39694.078958400001</v>
-      </c>
-      <c r="B203" s="42" t="s">
-        <v>459</v>
+        <v>549</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="28">
+        <v>37122.373530099998</v>
+      </c>
+      <c r="B204" s="42" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="28">
-        <v>31082.8658765</v>
+        <v>31667.560614900001</v>
       </c>
       <c r="B205" s="42" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="28">
-        <v>39095.1092938</v>
-      </c>
-      <c r="B206" s="42" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="28" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="28" t="s">
-        <v>575</v>
+        <v>555</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="28">
+        <v>35705.505176799998</v>
+      </c>
+      <c r="B207" s="42" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="28">
+        <v>31239.412582500001</v>
+      </c>
+      <c r="B208" s="42" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="28">
-        <v>38163.228498199998</v>
-      </c>
-      <c r="B211" s="28" t="s">
-        <v>587</v>
+        <v>34512.7804397</v>
+      </c>
+      <c r="B211" s="28">
+        <v>103.89183869999999</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="28">
-        <v>32629.488922100001</v>
-      </c>
-      <c r="B212" s="28" t="s">
-        <v>588</v>
+        <v>30864.168038200001</v>
+      </c>
+      <c r="B212" s="28">
+        <v>1.2953984000000001</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="28">
-        <v>38060.19</v>
-      </c>
-      <c r="B214" s="42" t="s">
-        <v>577</v>
+      <c r="A214" s="28" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="28">
-        <v>32739.54</v>
+        <v>30576.4513592</v>
       </c>
       <c r="B215" s="42" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="28">
-        <v>37703.629999999997</v>
-      </c>
-      <c r="B217" s="42" t="s">
-        <v>578</v>
+        <v>563</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="28">
+        <v>39785.026074499998</v>
+      </c>
+      <c r="B216" s="42" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="28">
-        <v>32631.88</v>
+        <v>30742.867327299999</v>
       </c>
       <c r="B218" s="42" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="28">
-        <v>37215.75</v>
-      </c>
-      <c r="B220" s="42" t="s">
-        <v>580</v>
+        <v>566</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="28">
+        <v>39020.313529799998</v>
+      </c>
+      <c r="B219" s="42" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="28">
-        <v>32450.71</v>
-      </c>
-      <c r="B221" s="42" t="s">
-        <v>581</v>
+      <c r="A221" s="28" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="28">
+        <v>30777.594452199999</v>
+      </c>
+      <c r="B222" s="42" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="28">
-        <v>36791.79</v>
+        <v>39888.679278600001</v>
       </c>
       <c r="B223" s="42" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="28">
-        <v>32364.92</v>
-      </c>
-      <c r="B224" s="42" t="s">
-        <v>583</v>
+        <v>568</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="28">
+        <v>30832.0437322</v>
+      </c>
+      <c r="B225" s="42" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="28">
-        <v>36372.76</v>
+        <v>39694.078958400001</v>
       </c>
       <c r="B226" s="42" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="28">
-        <v>32280.05</v>
-      </c>
-      <c r="B227" s="42" t="s">
-        <v>499</v>
+        <v>459</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="28">
+        <v>31082.8658765</v>
+      </c>
+      <c r="B228" s="42" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="28">
-        <v>36186.76</v>
+        <v>39095.1092938</v>
       </c>
       <c r="B229" s="42" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="28">
-        <v>32174.880000000001</v>
-      </c>
-      <c r="B230" s="42" t="s">
-        <v>501</v>
+        <v>561</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="28">
-        <v>35970.25</v>
-      </c>
-      <c r="B232" s="42" t="s">
-        <v>502</v>
+      <c r="A232" s="28" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="28">
-        <v>32031.05</v>
-      </c>
-      <c r="B233" s="42" t="s">
-        <v>503</v>
+      <c r="A233" s="28" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="28">
+        <v>38163.228498199998</v>
+      </c>
+      <c r="B234" s="28" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="28">
-        <v>35702.36</v>
-      </c>
-      <c r="B235" s="42" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="28">
-        <v>31859.56</v>
-      </c>
-      <c r="B236" s="42" t="s">
-        <v>505</v>
+        <v>32629.488922100001</v>
+      </c>
+      <c r="B235" s="28" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="28">
+        <v>38060.19</v>
+      </c>
+      <c r="B237" s="42" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="28">
-        <v>35477.760000000002</v>
+        <v>32739.54</v>
       </c>
       <c r="B238" s="42" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="28">
-        <v>31723.99</v>
-      </c>
-      <c r="B239" s="42" t="s">
-        <v>507</v>
+        <v>572</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="28">
+        <v>37703.629999999997</v>
+      </c>
+      <c r="B240" s="42" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="28">
-        <v>35101.279999999999</v>
+        <v>32631.88</v>
       </c>
       <c r="B241" s="42" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="28">
-        <v>31592.21</v>
-      </c>
-      <c r="B242" s="42" t="s">
-        <v>509</v>
+        <v>575</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="28">
+        <v>37215.75</v>
+      </c>
+      <c r="B243" s="42" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="28">
-        <v>34734.089999999997</v>
+        <v>32450.71</v>
       </c>
       <c r="B244" s="42" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="28">
-        <v>31479.83</v>
-      </c>
-      <c r="B245" s="42" t="s">
-        <v>511</v>
+        <v>577</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="28">
+        <v>36791.79</v>
+      </c>
+      <c r="B246" s="42" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="28">
+        <v>32364.92</v>
+      </c>
+      <c r="B247" s="42" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="28">
+        <v>36372.76</v>
+      </c>
+      <c r="B249" s="42" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="28">
+        <v>32280.05</v>
+      </c>
+      <c r="B250" s="42" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="28">
+        <v>36186.76</v>
+      </c>
+      <c r="B252" s="42" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="28">
+        <v>32174.880000000001</v>
+      </c>
+      <c r="B253" s="42" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="28">
+        <v>35970.25</v>
+      </c>
+      <c r="B255" s="42" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="28">
+        <v>32031.05</v>
+      </c>
+      <c r="B256" s="42" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" s="28">
+        <v>35702.36</v>
+      </c>
+      <c r="B258" s="42" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="28">
+        <v>31859.56</v>
+      </c>
+      <c r="B259" s="42" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="28">
+        <v>35477.760000000002</v>
+      </c>
+      <c r="B261" s="42" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="28">
+        <v>31723.99</v>
+      </c>
+      <c r="B262" s="42" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" s="28">
+        <v>35101.279999999999</v>
+      </c>
+      <c r="B264" s="42" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" s="28">
+        <v>31592.21</v>
+      </c>
+      <c r="B265" s="42" t="s">
+        <v>509</v>
+      </c>
+      <c r="E265" t="s">
+        <v>603</v>
+      </c>
+      <c r="F265">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E266" t="s">
+        <v>604</v>
+      </c>
+      <c r="F266">
+        <f>300*12</f>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" s="28">
+        <v>34734.089999999997</v>
+      </c>
+      <c r="B267" s="42" t="s">
+        <v>510</v>
+      </c>
+      <c r="F267">
+        <f>F265+F266</f>
+        <v>15600</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" s="28">
+        <v>31479.83</v>
+      </c>
+      <c r="B268" s="42" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" s="28">
         <v>34065.42</v>
       </c>
-      <c r="B247" s="42" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="28">
+      <c r="B270" s="42" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" s="28">
         <v>31457.71</v>
       </c>
-      <c r="B248" s="42" t="s">
+      <c r="B271" s="42" t="s">
+        <v>581</v>
+      </c>
+      <c r="F271">
+        <f>(15600/12)*3</f>
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="28" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="28" t="s">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="59">
+        <v>30451.992083900001</v>
+      </c>
+      <c r="B274" s="59">
+        <v>103.8553513</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="59">
+        <v>39770.158830499997</v>
+      </c>
+      <c r="B275" s="59">
+        <v>1.3759417</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="59"/>
+      <c r="B276" s="59"/>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="59">
+        <v>31328.920852700001</v>
+      </c>
+      <c r="B277" s="59">
+        <v>103.8632314</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="59">
+        <v>39969.945966599997</v>
+      </c>
+      <c r="B278" s="59">
+        <v>1.3777482999999999</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="59"/>
+      <c r="B279" s="59"/>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="59">
+        <v>31499.1505488</v>
+      </c>
+      <c r="B280" s="59">
+        <v>103.86476089999999</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="59">
+        <v>39170.2856139</v>
+      </c>
+      <c r="B281" s="59">
+        <v>1.3705164999999999</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="59"/>
+      <c r="B282" s="59"/>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="59">
+        <v>30690.992468100001</v>
+      </c>
+      <c r="B283" s="59">
+        <v>103.857499</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="59">
+        <v>39019.5417418</v>
+      </c>
+      <c r="B284" s="59">
+        <v>1.3691533</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="59"/>
+      <c r="B285" s="59"/>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="59">
+        <v>30814.207316200002</v>
+      </c>
+      <c r="B286" s="59">
+        <v>103.85860630000001</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="59">
+        <v>39781.755438499997</v>
+      </c>
+      <c r="B287" s="59">
+        <v>1.3760463000000001</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="59"/>
+      <c r="B288" s="59"/>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" s="59">
+        <v>31063.382612400001</v>
+      </c>
+      <c r="B289" s="59">
+        <v>103.8608452</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="59">
+        <v>39106.710509800003</v>
+      </c>
+      <c r="B290" s="59">
+        <v>1.3699416</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="28" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="59">
-        <v>30451.992083900001</v>
-      </c>
-      <c r="B251" s="59">
-        <v>103.8553513</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="59">
-        <v>39770.158830499997</v>
-      </c>
-      <c r="B252" s="59">
-        <v>1.3759417</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="59"/>
-      <c r="B253" s="59"/>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="59">
-        <v>31328.920852700001</v>
-      </c>
-      <c r="B254" s="59">
-        <v>103.8632314</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="59">
-        <v>39969.945966599997</v>
-      </c>
-      <c r="B255" s="59">
-        <v>1.3777482999999999</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="59"/>
-      <c r="B256" s="59"/>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="59">
-        <v>31499.1505488</v>
-      </c>
-      <c r="B257" s="59">
-        <v>103.86476089999999</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="59">
-        <v>39170.2856139</v>
-      </c>
-      <c r="B258" s="59">
-        <v>1.3705164999999999</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="59"/>
-      <c r="B259" s="59"/>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="59">
-        <v>30690.992468100001</v>
-      </c>
-      <c r="B260" s="59">
-        <v>103.857499</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="59">
-        <v>39019.5417418</v>
-      </c>
-      <c r="B261" s="59">
-        <v>1.3691533</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="59"/>
-      <c r="B262" s="59"/>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="59">
-        <v>30814.207316200002</v>
-      </c>
-      <c r="B263" s="59">
-        <v>103.85860630000001</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="59">
-        <v>39781.755438499997</v>
-      </c>
-      <c r="B264" s="59">
-        <v>1.3760463000000001</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="59"/>
-      <c r="B265" s="59"/>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="59">
-        <v>31063.382612400001</v>
-      </c>
-      <c r="B266" s="59">
-        <v>103.8608452</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="59">
-        <v>39106.710509800003</v>
-      </c>
-      <c r="B267" s="59">
-        <v>1.3699416</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="28" t="s">
+      <c r="B292" s="42" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="28" t="s">
+        <v>588</v>
+      </c>
+      <c r="B293" s="42" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" s="28" t="s">
+        <v>590</v>
+      </c>
+      <c r="B294" s="42" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" s="28" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="28">
+        <v>30790.9181002</v>
+      </c>
+      <c r="B296" s="59">
+        <v>103.8583969</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" s="28">
+        <v>38176.531180999998</v>
+      </c>
+      <c r="B297" s="59">
+        <v>1.3615294</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" s="28" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" s="28">
+        <v>30767.915796199999</v>
+      </c>
+      <c r="B300" s="59">
+        <v>103.8581904</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" s="28">
+        <v>40638.217391300001</v>
+      </c>
+      <c r="B301" s="59">
+        <v>1.3837919999999999</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" s="28" t="s">
         <v>593</v>
       </c>
-      <c r="B269" s="42" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="28" t="s">
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" s="28">
+        <v>30735.826324099999</v>
+      </c>
+      <c r="B304" s="42" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="28">
+        <v>36911.550443799999</v>
+      </c>
+      <c r="B305" s="42" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="28" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="28">
+        <v>30332.467923699998</v>
+      </c>
+      <c r="B308" s="42" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="28">
+        <v>37788.599724599997</v>
+      </c>
+      <c r="B309" s="42" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="28" t="s">
         <v>592</v>
       </c>
-      <c r="B270" s="42" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="28" t="s">
-        <v>594</v>
-      </c>
-      <c r="B271" s="42" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="28" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="28">
-        <v>30790.9181002</v>
-      </c>
-      <c r="B273" s="59">
-        <v>103.8583969</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="28">
-        <v>38176.531180999998</v>
-      </c>
-      <c r="B274" s="59">
-        <v>1.3615294</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="28" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="28">
-        <v>30767.915796199999</v>
-      </c>
-      <c r="B277" s="59">
-        <v>103.8581904</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="28">
-        <v>40638.217391300001</v>
-      </c>
-      <c r="B278" s="59">
-        <v>1.3837919999999999</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="28" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="28">
-        <v>30735.826324099999</v>
-      </c>
-      <c r="B281" s="42" t="s">
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="28">
+        <v>31214.9684046</v>
+      </c>
+      <c r="B312" s="42" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="28">
-        <v>36911.550443799999</v>
-      </c>
-      <c r="B282" s="42" t="s">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="28">
+        <v>37351.410860199998</v>
+      </c>
+      <c r="B313" s="42" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="28" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="28">
-        <v>30332.467923699998</v>
-      </c>
-      <c r="B285" s="42" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="28">
-        <v>37788.599724599997</v>
-      </c>
-      <c r="B286" s="42" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="28" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" s="28">
-        <v>31214.9684046</v>
-      </c>
-      <c r="B289" s="42" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="28">
-        <v>37351.410860199998</v>
-      </c>
-      <c r="B290" s="42" t="s">
-        <v>603</v>
-      </c>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C319" s="28"/>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C320" s="28"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9473,10 +10022,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C147"/>
+  <dimension ref="A1:C152"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="C153" sqref="C153"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -10190,20 +10739,30 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C144" s="47" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="47" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C146" s="47" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C147" s="47" t="s">
-        <v>542</v>
+        <v>539</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="47" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="47" t="s">
+        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -10506,6 +11065,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e39e7e9e36de66d473ce04bb4ab2dbb8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="19dc5994665da46609c24125788630d8" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -10710,14 +11277,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -10728,6 +11287,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EFB9284-2381-45C4-9342-D2A846659864}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C78C4875-2E31-4ACC-AEED-0DAFD072C30B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10746,23 +11322,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EFB9284-2381-45C4-9342-D2A846659864}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3AB413C-A07F-4EE8-909C-4B888D55CBB2}">
   <ds:schemaRefs>

--- a/TT231_DemoScreen_work_Status.xlsx
+++ b/TT231_DemoScreen_work_Status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="1176" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="1188" firstSheet="2" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Screens" sheetId="3" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="655">
   <si>
     <t>Notes</t>
   </si>
@@ -1226,30 +1226,6 @@
     <t>New layer added for Traffic light to show Glide Data</t>
   </si>
   <si>
-    <t>tcttp_713023 - at 138m east/Ang Mo Kio Ave5</t>
-  </si>
-  <si>
-    <t>tcttp_713028 - at 222m west/Ang Mo Kio Ave 5</t>
-  </si>
-  <si>
-    <t>tcttp_713026 - at 205m west/Ang Mo Kio Ave 3</t>
-  </si>
-  <si>
-    <t>tcttp_713021 - at 170m east/Ang Mo Kio Ave 3</t>
-  </si>
-  <si>
-    <t>tatip_711021 - CTE towards AYE</t>
-  </si>
-  <si>
-    <t>tatip_711020 - CTE towards SLE</t>
-  </si>
-  <si>
-    <t>tatip_711022 - CTE Towards SLE / LP34 /14.66</t>
-  </si>
-  <si>
-    <t>tatip_711023 - CTE towards AYE</t>
-  </si>
-  <si>
     <t>VMS Ids</t>
   </si>
   <si>
@@ -1950,6 +1926,135 @@
   </si>
   <si>
     <t>Planned Event</t>
+  </si>
+  <si>
+    <t>Event Start and End Point</t>
+  </si>
+  <si>
+    <t>TIP TSP VMS More points</t>
+  </si>
+  <si>
+    <t>EQT_ID</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>tcttp_713028</t>
+  </si>
+  <si>
+    <t>tcttp_713021</t>
+  </si>
+  <si>
+    <t>tdtsp_714001</t>
+  </si>
+  <si>
+    <t>tdtsp_714004</t>
+  </si>
+  <si>
+    <t>tatip_711016</t>
+  </si>
+  <si>
+    <t>tcttp_713023</t>
+  </si>
+  <si>
+    <t>tcttp_713011</t>
+  </si>
+  <si>
+    <t>tcttp_713015</t>
+  </si>
+  <si>
+    <t>tatip_751094</t>
+  </si>
+  <si>
+    <t>tcttp_713013</t>
+  </si>
+  <si>
+    <t>tcttp_713020</t>
+  </si>
+  <si>
+    <t>tatip_761005</t>
+  </si>
+  <si>
+    <t>tatip_751096</t>
+  </si>
+  <si>
+    <t>tcttp_713022</t>
+  </si>
+  <si>
+    <t>tcttp_713026</t>
+  </si>
+  <si>
+    <t>tatip_761003</t>
+  </si>
+  <si>
+    <t>tcttp_713017</t>
+  </si>
+  <si>
+    <t>Event Start Point</t>
+  </si>
+  <si>
+    <t>1.317613</t>
+  </si>
+  <si>
+    <t>103.965628</t>
+  </si>
+  <si>
+    <t>Event End Point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tcttp_713023 - </t>
+  </si>
+  <si>
+    <t>at 138m east/Ang Mo Kio Ave5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tcttp_713028 - </t>
+  </si>
+  <si>
+    <t>at 222m west/Ang Mo Kio Ave 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tcttp_713026 - </t>
+  </si>
+  <si>
+    <t>at 205m west/Ang Mo Kio Ave 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tcttp_713021 - </t>
+  </si>
+  <si>
+    <t>at 170m east/Ang Mo Kio Ave 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tatip_711021 - </t>
+  </si>
+  <si>
+    <t>CTE towards AYE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tatip_711020 - </t>
+  </si>
+  <si>
+    <t>CTE towards SLE</t>
+  </si>
+  <si>
+    <t>tatip_711022 -</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CTE Towards SLE / LP34 /14.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tatip_711023 - </t>
+  </si>
+  <si>
+    <t>id exists</t>
+  </si>
+  <si>
+    <t>Lati / Longi</t>
   </si>
 </sst>
 </file>
@@ -1959,7 +2064,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;Over/Under flag&quot;;&quot;&quot;;&quot;&quot;"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="3" tint="-0.499984740745262"/>
@@ -2207,6 +2312,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2245,7 +2356,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2334,6 +2445,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2384,7 +2510,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2466,20 +2592,11 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="16">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2508,14 +2625,8 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="16" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -2560,8 +2671,44 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -3483,11 +3630,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="151560704"/>
-        <c:axId val="151081472"/>
+        <c:axId val="130103296"/>
+        <c:axId val="111724224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="151560704"/>
+        <c:axId val="130103296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3496,7 +3643,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151081472"/>
+        <c:crossAx val="111724224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3504,7 +3651,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151081472"/>
+        <c:axId val="111724224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3515,13 +3662,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151560704"/>
+        <c:crossAx val="130103296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4258,11 +4406,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="153317376"/>
-        <c:axId val="151083200"/>
+        <c:axId val="130104832"/>
+        <c:axId val="111725952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="153317376"/>
+        <c:axId val="130104832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4271,7 +4419,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151083200"/>
+        <c:crossAx val="111725952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4279,7 +4427,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151083200"/>
+        <c:axId val="111725952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4290,13 +4438,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153317376"/>
+        <c:crossAx val="130104832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4366,13 +4515,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>4359018</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>76</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4413,8 +4562,8 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2470785</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>429</xdr:rowOff>
     </xdr:to>
@@ -4451,8 +4600,8 @@
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>710565</xdr:colOff>
       <xdr:row>284</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
@@ -6000,56 +6149,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="44"/>
+      <c r="B1" s="39"/>
       <c r="C1" t="s">
-        <v>512</v>
-      </c>
-      <c r="D1" s="44"/>
+        <v>504</v>
+      </c>
+      <c r="D1" s="39"/>
     </row>
     <row r="2" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>513</v>
-      </c>
-      <c r="D2" s="44"/>
+        <v>505</v>
+      </c>
+      <c r="D2" s="39"/>
     </row>
     <row r="3" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>514</v>
-      </c>
-      <c r="D3" s="44"/>
+        <v>506</v>
+      </c>
+      <c r="D3" s="39"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D9" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="79" spans="2:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B79" s="44"/>
+      <c r="B79" s="39"/>
     </row>
     <row r="82" spans="2:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B82" s="45"/>
+      <c r="B82" s="40"/>
     </row>
     <row r="86" spans="2:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B86" s="44"/>
+      <c r="B86" s="39"/>
     </row>
     <row r="90" spans="2:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B90" s="44"/>
+      <c r="B90" s="39"/>
     </row>
     <row r="93" spans="2:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B93" s="44"/>
+      <c r="B93" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6069,1444 +6218,1444 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="B1" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="58">
+      <c r="A3" s="53">
         <v>40</v>
       </c>
-      <c r="B3" s="58">
+      <c r="B3" s="53">
         <v>16.22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="58">
+      <c r="A4" s="53">
         <v>84</v>
       </c>
-      <c r="B4" s="58">
+      <c r="B4" s="53">
         <v>16.29</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="58">
+      <c r="A5" s="53">
         <v>10</v>
       </c>
-      <c r="B5" s="58">
+      <c r="B5" s="53">
         <v>16.41</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="58">
+      <c r="A6" s="53">
         <v>98</v>
       </c>
-      <c r="B6" s="58">
+      <c r="B6" s="53">
         <v>16.59</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="58">
+      <c r="A7" s="53">
         <v>51</v>
       </c>
-      <c r="B7" s="58">
+      <c r="B7" s="53">
         <v>16.66</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="58">
+      <c r="A8" s="53">
         <v>57</v>
       </c>
-      <c r="B8" s="58">
+      <c r="B8" s="53">
         <v>16.8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="58">
+      <c r="A9" s="53">
         <v>92</v>
       </c>
-      <c r="B9" s="58">
+      <c r="B9" s="53">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="58">
+      <c r="A10" s="53">
         <v>94</v>
       </c>
-      <c r="B10" s="58">
+      <c r="B10" s="53">
         <v>17.059999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="58">
+      <c r="A11" s="53">
         <v>39</v>
       </c>
-      <c r="B11" s="58">
+      <c r="B11" s="53">
         <v>17.190000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="58">
+      <c r="A12" s="53">
         <v>9</v>
       </c>
-      <c r="B12" s="58">
+      <c r="B12" s="53">
         <v>17.309999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="58">
+      <c r="A13" s="53">
         <v>30</v>
       </c>
-      <c r="B13" s="58">
+      <c r="B13" s="53">
         <v>17.47</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="58">
+      <c r="A14" s="53">
         <v>103</v>
       </c>
-      <c r="B14" s="58">
+      <c r="B14" s="53">
         <v>17.61</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="58">
+      <c r="A15" s="53">
         <v>59</v>
       </c>
-      <c r="B15" s="58">
+      <c r="B15" s="53">
         <v>17.75</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="58">
+      <c r="A16" s="53">
         <v>91</v>
       </c>
-      <c r="B16" s="58">
+      <c r="B16" s="53">
         <v>17.91</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="58">
+      <c r="A17" s="53">
         <v>79</v>
       </c>
-      <c r="B17" s="58">
+      <c r="B17" s="53">
         <v>18.03</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="58">
+      <c r="A18" s="53">
         <v>89</v>
       </c>
-      <c r="B18" s="58">
+      <c r="B18" s="53">
         <v>18.22</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="58">
+      <c r="A19" s="53">
         <v>32</v>
       </c>
-      <c r="B19" s="58">
+      <c r="B19" s="53">
         <v>18.41</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="58">
+      <c r="A20" s="53">
         <v>99</v>
       </c>
-      <c r="B20" s="58">
+      <c r="B20" s="53">
         <v>18.649999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="58">
+      <c r="A21" s="53">
         <v>56</v>
       </c>
-      <c r="B21" s="58">
+      <c r="B21" s="53">
         <v>18.77</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="58">
+      <c r="A22" s="53">
         <v>87</v>
       </c>
-      <c r="B22" s="58">
+      <c r="B22" s="53">
         <v>18.940000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="58">
+      <c r="A23" s="53">
         <v>71</v>
       </c>
-      <c r="B23" s="58">
+      <c r="B23" s="53">
         <v>19.05</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="58">
+      <c r="A24" s="53">
         <v>73</v>
       </c>
-      <c r="B24" s="58">
+      <c r="B24" s="53">
         <v>19.11</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="58">
+      <c r="A25" s="53">
         <v>106</v>
       </c>
-      <c r="B25" s="58">
+      <c r="B25" s="53">
         <v>19.23</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="58">
+      <c r="A26" s="53">
         <v>64</v>
       </c>
-      <c r="B26" s="58">
+      <c r="B26" s="53">
         <v>19.350000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="58">
+      <c r="A27" s="53">
         <v>73</v>
       </c>
-      <c r="B27" s="58">
+      <c r="B27" s="53">
         <v>19.420000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="58">
+      <c r="A28" s="53">
         <v>54</v>
       </c>
-      <c r="B28" s="58">
+      <c r="B28" s="53">
         <v>19.61</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="58">
+      <c r="A29" s="53">
         <v>33</v>
       </c>
-      <c r="B29" s="58">
+      <c r="B29" s="53">
         <v>19.850000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="58">
+      <c r="A30" s="53">
         <v>91</v>
       </c>
-      <c r="B30" s="58">
+      <c r="B30" s="53">
         <v>20.09</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="58">
+      <c r="A31" s="53">
         <v>53</v>
       </c>
-      <c r="B31" s="58">
+      <c r="B31" s="53">
         <v>20.309999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="58">
+      <c r="A32" s="53">
         <v>94</v>
       </c>
-      <c r="B32" s="58">
+      <c r="B32" s="53">
         <v>20.53</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="58">
+      <c r="A33" s="53">
         <v>48</v>
       </c>
-      <c r="B33" s="58">
+      <c r="B33" s="53">
         <v>20.57</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="58">
+      <c r="A34" s="53">
         <v>99</v>
       </c>
-      <c r="B34" s="58">
+      <c r="B34" s="53">
         <v>20.7</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="58">
+      <c r="A35" s="53">
         <v>40</v>
       </c>
-      <c r="B35" s="58">
+      <c r="B35" s="53">
         <v>20.84</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="58">
+      <c r="A36" s="53">
         <v>50</v>
       </c>
-      <c r="B36" s="58">
+      <c r="B36" s="53">
         <v>20.99</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="58">
+      <c r="A37" s="53">
         <v>51</v>
       </c>
-      <c r="B37" s="58">
+      <c r="B37" s="53">
         <v>21.12</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="58">
+      <c r="A38" s="53">
         <v>31</v>
       </c>
-      <c r="B38" s="58">
+      <c r="B38" s="53">
         <v>21.25</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="58">
+      <c r="A39" s="53">
         <v>82</v>
       </c>
-      <c r="B39" s="58">
+      <c r="B39" s="53">
         <v>21.38</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="58">
+      <c r="A40" s="53">
         <v>79</v>
       </c>
-      <c r="B40" s="58">
+      <c r="B40" s="53">
         <v>21.54</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="58">
+      <c r="A41" s="53">
         <v>1</v>
       </c>
-      <c r="B41" s="58">
+      <c r="B41" s="53">
         <v>21.69</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="58">
+      <c r="A42" s="53">
         <v>33</v>
       </c>
-      <c r="B42" s="58">
+      <c r="B42" s="53">
         <v>21.96</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="58">
+      <c r="A43" s="53">
         <v>41</v>
       </c>
-      <c r="B43" s="58">
+      <c r="B43" s="53">
         <v>22.23</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="58">
+      <c r="A44" s="53">
         <v>67</v>
       </c>
-      <c r="B44" s="58">
+      <c r="B44" s="53">
         <v>22.4</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="58">
+      <c r="A45" s="53">
         <v>15</v>
       </c>
-      <c r="B45" s="58">
+      <c r="B45" s="53">
         <v>22.57</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="58">
+      <c r="A46" s="53">
         <v>4</v>
       </c>
-      <c r="B46" s="58">
+      <c r="B46" s="53">
         <v>22.7</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="58">
+      <c r="A47" s="53">
         <v>20</v>
       </c>
-      <c r="B47" s="58">
+      <c r="B47" s="53">
         <v>22.82</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="58">
+      <c r="A48" s="53">
         <v>48</v>
       </c>
-      <c r="B48" s="58">
+      <c r="B48" s="53">
         <v>22.95</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="58">
+      <c r="A49" s="53">
         <v>72</v>
       </c>
-      <c r="B49" s="58">
+      <c r="B49" s="53">
         <v>22.98</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="58">
+      <c r="A50" s="53">
         <v>79</v>
       </c>
-      <c r="B50" s="58">
+      <c r="B50" s="53">
         <v>23.02</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="58">
+      <c r="A51" s="53">
         <v>13</v>
       </c>
-      <c r="B51" s="58">
+      <c r="B51" s="53">
         <v>23.18</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="58">
+      <c r="A52" s="53">
         <v>45</v>
       </c>
-      <c r="B52" s="58">
+      <c r="B52" s="53">
         <v>23.35</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="58">
+      <c r="A53" s="53">
         <v>78</v>
       </c>
-      <c r="B53" s="58">
+      <c r="B53" s="53">
         <v>23.54</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="58">
+      <c r="A54" s="53">
         <v>57</v>
       </c>
-      <c r="B54" s="58">
+      <c r="B54" s="53">
         <v>23.76</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="58">
+      <c r="A55" s="53">
         <v>50</v>
       </c>
-      <c r="B55" s="58">
+      <c r="B55" s="53">
         <v>23.98</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="58">
+      <c r="A56" s="53">
         <v>43</v>
       </c>
-      <c r="B56" s="58">
+      <c r="B56" s="53">
         <v>24.19</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="58">
+      <c r="A57" s="53">
         <v>26</v>
       </c>
-      <c r="B57" s="58">
+      <c r="B57" s="53">
         <v>24.41</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="58">
+      <c r="A58" s="53">
         <v>25</v>
       </c>
-      <c r="B58" s="58">
+      <c r="B58" s="53">
         <v>24.53</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="58">
+      <c r="A59" s="53">
         <v>94</v>
       </c>
-      <c r="B59" s="58">
+      <c r="B59" s="53">
         <v>24.65</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="58">
+      <c r="A60" s="53">
         <v>41</v>
       </c>
-      <c r="B60" s="58">
+      <c r="B60" s="53">
         <v>24.84</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="58">
+      <c r="A61" s="53">
         <v>25</v>
       </c>
-      <c r="B61" s="58">
+      <c r="B61" s="53">
         <v>25.04</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="58">
+      <c r="A62" s="53">
         <v>30</v>
       </c>
-      <c r="B62" s="58">
+      <c r="B62" s="53">
         <v>25.23</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="58">
+      <c r="A63" s="53">
         <v>38</v>
       </c>
-      <c r="B63" s="58">
+      <c r="B63" s="53">
         <v>25.42</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="58">
+      <c r="A64" s="53">
         <v>71</v>
       </c>
-      <c r="B64" s="58">
+      <c r="B64" s="53">
         <v>25.61</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="58">
+      <c r="A65" s="53">
         <v>81</v>
       </c>
-      <c r="B65" s="58">
+      <c r="B65" s="53">
         <v>25.81</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="58">
+      <c r="A66" s="53">
         <v>86</v>
       </c>
-      <c r="B66" s="58">
+      <c r="B66" s="53">
         <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="58">
+      <c r="A67" s="53">
         <v>77</v>
       </c>
-      <c r="B67" s="58">
+      <c r="B67" s="53">
         <v>26.18</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="58">
+      <c r="A68" s="53">
         <v>9</v>
       </c>
-      <c r="B68" s="58">
+      <c r="B68" s="53">
         <v>26.35</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="58">
+      <c r="A69" s="53">
         <v>28</v>
       </c>
-      <c r="B69" s="58">
+      <c r="B69" s="53">
         <v>26.36</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="58">
+      <c r="A70" s="53">
         <v>61</v>
       </c>
-      <c r="B70" s="58">
+      <c r="B70" s="53">
         <v>26.39</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="58">
+      <c r="A71" s="53">
         <v>42</v>
       </c>
-      <c r="B71" s="58">
+      <c r="B71" s="53">
         <v>26.42</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="58">
+      <c r="A72" s="53">
         <v>96</v>
       </c>
-      <c r="B72" s="58">
+      <c r="B72" s="53">
         <v>26.43</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="58">
+      <c r="A73" s="53">
         <v>15</v>
       </c>
-      <c r="B73" s="58">
+      <c r="B73" s="53">
         <v>26.43</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="58">
+      <c r="A74" s="53">
         <v>44</v>
       </c>
-      <c r="B74" s="58">
+      <c r="B74" s="53">
         <v>26.46</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="58">
+      <c r="A75" s="53">
         <v>59</v>
       </c>
-      <c r="B75" s="58">
+      <c r="B75" s="53">
         <v>0.19</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="58">
+      <c r="A76" s="53">
         <v>28</v>
       </c>
-      <c r="B76" s="58">
+      <c r="B76" s="53">
         <v>0.27</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="58">
+      <c r="A77" s="53">
         <v>69</v>
       </c>
-      <c r="B77" s="58">
+      <c r="B77" s="53">
         <v>0.41</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="58">
+      <c r="A78" s="53">
         <v>20</v>
       </c>
-      <c r="B78" s="58">
+      <c r="B78" s="53">
         <v>0.48</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="58">
+      <c r="A79" s="53">
         <v>58</v>
       </c>
-      <c r="B79" s="58">
+      <c r="B79" s="53">
         <v>0.53</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="58">
+      <c r="A80" s="53">
         <v>44</v>
       </c>
-      <c r="B80" s="58">
+      <c r="B80" s="53">
         <v>0.59</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="58">
+      <c r="A81" s="53">
         <v>73</v>
       </c>
-      <c r="B81" s="58">
+      <c r="B81" s="53">
         <v>0.62</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="58">
+      <c r="A82" s="53">
         <v>33</v>
       </c>
-      <c r="B82" s="58">
+      <c r="B82" s="53">
         <v>0.68</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="58">
+      <c r="A83" s="53">
         <v>78</v>
       </c>
-      <c r="B83" s="58">
+      <c r="B83" s="53">
         <v>0.83</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="58">
+      <c r="A84" s="53">
         <v>42</v>
       </c>
-      <c r="B84" s="58">
+      <c r="B84" s="53">
         <v>0.98</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="58">
+      <c r="A85" s="53">
         <v>91</v>
       </c>
-      <c r="B85" s="58">
+      <c r="B85" s="53">
         <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="58">
+      <c r="A86" s="53">
         <v>66</v>
       </c>
-      <c r="B86" s="58">
+      <c r="B86" s="53">
         <v>1.28</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="58">
+      <c r="A87" s="53">
         <v>84</v>
       </c>
-      <c r="B87" s="58">
+      <c r="B87" s="53">
         <v>1.43</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="58">
+      <c r="A88" s="53">
         <v>75</v>
       </c>
-      <c r="B88" s="58">
+      <c r="B88" s="53">
         <v>1.53</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="58">
+      <c r="A89" s="53">
         <v>34</v>
       </c>
-      <c r="B89" s="58">
+      <c r="B89" s="53">
         <v>1.62</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="58">
+      <c r="A90" s="53">
         <v>85</v>
       </c>
-      <c r="B90" s="58">
+      <c r="B90" s="53">
         <v>1.8</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="58">
+      <c r="A91" s="53">
         <v>101</v>
       </c>
-      <c r="B91" s="58">
+      <c r="B91" s="53">
         <v>1.87</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="58">
+      <c r="A92" s="53">
         <v>88</v>
       </c>
-      <c r="B92" s="58">
+      <c r="B92" s="53">
         <v>1.9</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="58">
+      <c r="A93" s="53">
         <v>39</v>
       </c>
-      <c r="B93" s="58">
+      <c r="B93" s="53">
         <v>2.04</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="58">
+      <c r="A94" s="53">
         <v>49</v>
       </c>
-      <c r="B94" s="58">
+      <c r="B94" s="53">
         <v>2.19</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="58">
+      <c r="A95" s="53">
         <v>98</v>
       </c>
-      <c r="B95" s="58">
+      <c r="B95" s="53">
         <v>2.27</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="58">
+      <c r="A96" s="53">
         <v>31</v>
       </c>
-      <c r="B96" s="58">
+      <c r="B96" s="53">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="58">
+      <c r="A97" s="53">
         <v>99</v>
       </c>
-      <c r="B97" s="58">
+      <c r="B97" s="53">
         <v>2.41</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="58">
+      <c r="A98" s="53">
         <v>87</v>
       </c>
-      <c r="B98" s="58">
+      <c r="B98" s="53">
         <v>2.5</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="58">
+      <c r="A99" s="53">
         <v>47</v>
       </c>
-      <c r="B99" s="58">
+      <c r="B99" s="53">
         <v>2.62</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="58">
+      <c r="A100" s="53">
         <v>88</v>
       </c>
-      <c r="B100" s="58">
+      <c r="B100" s="53">
         <v>2.65</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="58">
+      <c r="A101" s="53">
         <v>72</v>
       </c>
-      <c r="B101" s="58">
+      <c r="B101" s="53">
         <v>2.7</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="58">
+      <c r="A102" s="53">
         <v>52</v>
       </c>
-      <c r="B102" s="58">
+      <c r="B102" s="53">
         <v>2.82</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="58">
+      <c r="A103" s="53">
         <v>79</v>
       </c>
-      <c r="B103" s="58">
+      <c r="B103" s="53">
         <v>2.93</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="58">
+      <c r="A104" s="53">
         <v>68</v>
       </c>
-      <c r="B104" s="58">
+      <c r="B104" s="53">
         <v>3.06</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="58">
+      <c r="A105" s="53">
         <v>109</v>
       </c>
-      <c r="B105" s="58">
+      <c r="B105" s="53">
         <v>3.17</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="58">
+      <c r="A106" s="53">
         <v>85</v>
       </c>
-      <c r="B106" s="58">
+      <c r="B106" s="53">
         <v>3.3</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="58">
+      <c r="A107" s="53">
         <v>2</v>
       </c>
-      <c r="B107" s="58">
+      <c r="B107" s="53">
         <v>3.51</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="58">
+      <c r="A108" s="53">
         <v>84</v>
       </c>
-      <c r="B108" s="58">
+      <c r="B108" s="53">
         <v>3.67</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="58"/>
+      <c r="A109" s="53"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="58"/>
+      <c r="A110" s="53"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="58"/>
+      <c r="A111" s="53"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="58"/>
+      <c r="A112" s="53"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="58"/>
+      <c r="A113" s="53"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="58"/>
+      <c r="A114" s="53"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="58"/>
+      <c r="A115" s="53"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="58"/>
+      <c r="A116" s="53"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="58"/>
+      <c r="A117" s="53"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="58"/>
+      <c r="A118" s="53"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="58"/>
+      <c r="A119" s="53"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="58"/>
+      <c r="A120" s="53"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="58"/>
+      <c r="A121" s="53"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="58"/>
+      <c r="A122" s="53"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="58"/>
+      <c r="A123" s="53"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="58"/>
+      <c r="A124" s="53"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="58"/>
+      <c r="A125" s="53"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="58"/>
+      <c r="A126" s="53"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="58"/>
+      <c r="A127" s="53"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="58"/>
+      <c r="A128" s="53"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="58"/>
+      <c r="A129" s="53"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="58"/>
+      <c r="A130" s="53"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="58"/>
+      <c r="A131" s="53"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="58"/>
+      <c r="A132" s="53"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="58"/>
+      <c r="A133" s="53"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="58"/>
+      <c r="A134" s="53"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="58"/>
+      <c r="A135" s="53"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="58"/>
+      <c r="A136" s="53"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="58"/>
+      <c r="A137" s="53"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="58"/>
+      <c r="A138" s="53"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="58"/>
+      <c r="A139" s="53"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="58"/>
+      <c r="A140" s="53"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="58"/>
+      <c r="A141" s="53"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="58"/>
+      <c r="A142" s="53"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="58"/>
+      <c r="A143" s="53"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="58"/>
+      <c r="A144" s="53"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="58"/>
+      <c r="A145" s="53"/>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="58"/>
+      <c r="A146" s="53"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="58"/>
+      <c r="A147" s="53"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="58"/>
+      <c r="A148" s="53"/>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="58"/>
+      <c r="A149" s="53"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="58"/>
+      <c r="A150" s="53"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="58"/>
+      <c r="A151" s="53"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="58"/>
+      <c r="A152" s="53"/>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="58"/>
+      <c r="A153" s="53"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="58"/>
+      <c r="A154" s="53"/>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="58"/>
+      <c r="A155" s="53"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="58"/>
+      <c r="A156" s="53"/>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="58"/>
+      <c r="A157" s="53"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="58"/>
+      <c r="A158" s="53"/>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="58"/>
+      <c r="A159" s="53"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="58"/>
+      <c r="A160" s="53"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="58"/>
+      <c r="A161" s="53"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="58"/>
+      <c r="A162" s="53"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="58"/>
+      <c r="A163" s="53"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="58"/>
+      <c r="A164" s="53"/>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="58"/>
+      <c r="A165" s="53"/>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="58"/>
+      <c r="A166" s="53"/>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="58"/>
+      <c r="A167" s="53"/>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="58"/>
+      <c r="A168" s="53"/>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="58"/>
+      <c r="A169" s="53"/>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="58"/>
+      <c r="A170" s="53"/>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="58"/>
+      <c r="A171" s="53"/>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="58"/>
+      <c r="A172" s="53"/>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="58"/>
+      <c r="A173" s="53"/>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="58"/>
+      <c r="A174" s="53"/>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="58"/>
+      <c r="A175" s="53"/>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="58"/>
+      <c r="A176" s="53"/>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="58"/>
+      <c r="A177" s="53"/>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="58"/>
+      <c r="A178" s="53"/>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="58"/>
+      <c r="A179" s="53"/>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="58"/>
+      <c r="A180" s="53"/>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="58"/>
+      <c r="A181" s="53"/>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="58"/>
+      <c r="A182" s="53"/>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="58"/>
+      <c r="A183" s="53"/>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="58"/>
+      <c r="A184" s="53"/>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="58"/>
+      <c r="A185" s="53"/>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="58"/>
+      <c r="A186" s="53"/>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="58"/>
+      <c r="A187" s="53"/>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="58"/>
+      <c r="A188" s="53"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="58"/>
+      <c r="A189" s="53"/>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="58"/>
+      <c r="A190" s="53"/>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="58"/>
+      <c r="A191" s="53"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="58"/>
+      <c r="A192" s="53"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="58"/>
+      <c r="A193" s="53"/>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="58"/>
+      <c r="A194" s="53"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="58"/>
+      <c r="A195" s="53"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="58"/>
+      <c r="A196" s="53"/>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="58"/>
+      <c r="A197" s="53"/>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="58"/>
+      <c r="A198" s="53"/>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="58"/>
+      <c r="A199" s="53"/>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="58"/>
+      <c r="A200" s="53"/>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="58"/>
+      <c r="A201" s="53"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="58"/>
+      <c r="A202" s="53"/>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="58"/>
+      <c r="A203" s="53"/>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="58"/>
+      <c r="A204" s="53"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="58"/>
+      <c r="A205" s="53"/>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="58"/>
+      <c r="A206" s="53"/>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="58"/>
+      <c r="A207" s="53"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="58"/>
+      <c r="A208" s="53"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="58"/>
+      <c r="A209" s="53"/>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="58"/>
+      <c r="A210" s="53"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="58"/>
+      <c r="A211" s="53"/>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="58"/>
+      <c r="A212" s="53"/>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="58"/>
+      <c r="A213" s="53"/>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="58"/>
+      <c r="A214" s="53"/>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="58"/>
+      <c r="A215" s="53"/>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="58"/>
+      <c r="A216" s="53"/>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="58"/>
+      <c r="A217" s="53"/>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="58"/>
+      <c r="A218" s="53"/>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="58"/>
+      <c r="A219" s="53"/>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="58"/>
+      <c r="A220" s="53"/>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="58"/>
+      <c r="A221" s="53"/>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="58"/>
+      <c r="A222" s="53"/>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="58"/>
+      <c r="A223" s="53"/>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="58"/>
+      <c r="A224" s="53"/>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="58"/>
+      <c r="A225" s="53"/>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="58"/>
+      <c r="A226" s="53"/>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="58"/>
+      <c r="A227" s="53"/>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="58"/>
+      <c r="A228" s="53"/>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="58"/>
+      <c r="A229" s="53"/>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="58"/>
+      <c r="A230" s="53"/>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="58"/>
+      <c r="A231" s="53"/>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="58"/>
+      <c r="A232" s="53"/>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="58"/>
+      <c r="A233" s="53"/>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="58"/>
+      <c r="A234" s="53"/>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="58"/>
+      <c r="A235" s="53"/>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="58"/>
+      <c r="A236" s="53"/>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="58"/>
+      <c r="A237" s="53"/>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="58"/>
+      <c r="A238" s="53"/>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="58"/>
+      <c r="A239" s="53"/>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="58"/>
+      <c r="A240" s="53"/>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="58"/>
+      <c r="A241" s="53"/>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="58"/>
+      <c r="A242" s="53"/>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="58"/>
+      <c r="A243" s="53"/>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="58"/>
+      <c r="A244" s="53"/>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="58"/>
+      <c r="A245" s="53"/>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="58"/>
+      <c r="A246" s="53"/>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="58"/>
+      <c r="A247" s="53"/>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="58"/>
+      <c r="A248" s="53"/>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="58"/>
+      <c r="A249" s="53"/>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="58"/>
+      <c r="A250" s="53"/>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="58"/>
+      <c r="A251" s="53"/>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="58"/>
+      <c r="A252" s="53"/>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="58"/>
+      <c r="A253" s="53"/>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="58"/>
+      <c r="A254" s="53"/>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="58"/>
+      <c r="A255" s="53"/>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="58"/>
+      <c r="A256" s="53"/>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="58"/>
+      <c r="A257" s="53"/>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="58"/>
+      <c r="A258" s="53"/>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="58"/>
+      <c r="A259" s="53"/>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="58"/>
+      <c r="A260" s="53"/>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="58"/>
+      <c r="A261" s="53"/>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="58"/>
+      <c r="A262" s="53"/>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="58"/>
+      <c r="A263" s="53"/>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="58"/>
+      <c r="A264" s="53"/>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="58"/>
+      <c r="A265" s="53"/>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="58"/>
+      <c r="A266" s="53"/>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="58"/>
+      <c r="A267" s="53"/>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="58"/>
+      <c r="A268" s="53"/>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="58"/>
+      <c r="A269" s="53"/>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="58"/>
+      <c r="A270" s="53"/>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="58"/>
+      <c r="A271" s="53"/>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="58"/>
+      <c r="A272" s="53"/>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="58"/>
+      <c r="A273" s="53"/>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="58"/>
+      <c r="A274" s="53"/>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="58"/>
+      <c r="A275" s="53"/>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="58"/>
+      <c r="A276" s="53"/>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="58"/>
+      <c r="A277" s="53"/>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="58"/>
+      <c r="A278" s="53"/>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="58"/>
+      <c r="A279" s="53"/>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="58"/>
+      <c r="A280" s="53"/>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="58"/>
+      <c r="A281" s="53"/>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="58"/>
+      <c r="A282" s="53"/>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="58"/>
+      <c r="A283" s="53"/>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="58"/>
+      <c r="A284" s="53"/>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="58"/>
+      <c r="A285" s="53"/>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="58"/>
+      <c r="A286" s="53"/>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="58"/>
+      <c r="A287" s="53"/>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="58">
+      <c r="A288" s="53">
         <v>32</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="58">
+      <c r="A289" s="53">
         <v>96</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="58">
+      <c r="A290" s="53">
         <v>109</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="58">
+      <c r="A291" s="53">
         <v>85</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="58">
+      <c r="A292" s="53">
         <v>96</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="58">
+      <c r="A293" s="53">
         <v>100</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="58">
+      <c r="A294" s="53">
         <v>21</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="58">
+      <c r="A295" s="53">
         <v>49</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="58">
+      <c r="A296" s="53">
         <v>63</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="58">
+      <c r="A297" s="53">
         <v>35</v>
       </c>
     </row>
@@ -7517,24 +7666,280 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.296875" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="16.8984375" customWidth="1"/>
     <col min="4" max="4" width="16.19921875" customWidth="1"/>
     <col min="5" max="5" width="14.8984375" customWidth="1"/>
     <col min="6" max="6" width="25.69921875" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="60" t="s">
+        <v>621</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="61">
+        <v>103.86219579999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="60"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="61">
+        <v>1.3321417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="60"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="61"/>
+    </row>
+    <row r="6" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="60" t="s">
+        <v>625</v>
+      </c>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="61">
+        <v>103.8988485</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="60"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="61">
+        <v>1.3244034</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="55"/>
+      <c r="B8" s="58"/>
+    </row>
+    <row r="9" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="60" t="s">
+        <v>628</v>
+      </c>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="61">
+        <v>103.83105639999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="60"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="61">
+        <v>1.3264697000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="60"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="61"/>
+    </row>
+    <row r="12" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="60" t="s">
+        <v>632</v>
+      </c>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="61">
+        <v>103.8488083</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="60"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="61">
+        <v>1.3298669999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="60"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="61"/>
+    </row>
+    <row r="15" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="60" t="s">
+        <v>629</v>
+      </c>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="61">
+        <v>103.8846192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="60"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="61">
+        <v>1.3218881</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="60"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="61"/>
+    </row>
+    <row r="18" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="61">
+        <v>103.8615152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="60"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="61">
+        <v>1.3326743000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="60"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="61"/>
+    </row>
+    <row r="21" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="60" t="s">
+        <v>627</v>
+      </c>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="61">
+        <v>103.85822450000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="60"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="61">
+        <v>1.3298227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="60"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="61"/>
+    </row>
+    <row r="24" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="60" t="s">
+        <v>630</v>
+      </c>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="61">
+        <v>103.856763</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A25" s="60"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="61">
+        <v>1.3434153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="60"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="61"/>
+    </row>
+    <row r="27" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A27" s="60" t="s">
+        <v>633</v>
+      </c>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="61">
+        <v>103.8605362</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="63"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61">
+        <v>1.3452302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="55"/>
+      <c r="B29" s="58"/>
+    </row>
+    <row r="30" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A30" s="60" t="s">
+        <v>623</v>
+      </c>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="61">
+        <v>103.8660249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A31" s="60"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="61">
+        <v>1.3253549</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A32" s="60"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="61"/>
+    </row>
+    <row r="33" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A33" s="60" t="s">
+        <v>624</v>
+      </c>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="61">
+        <v>103.8634873</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A34" s="60"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="61">
+        <v>1.3437891</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7603,11 +8008,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7615,8 +8020,8 @@
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="24.19921875" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="37.09765625" style="33" customWidth="1"/>
-    <col min="5" max="5" width="44.59765625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="37.09765625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="44.59765625" style="30" customWidth="1"/>
     <col min="6" max="6" width="59.59765625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7630,10 +8035,10 @@
       <c r="C1" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="29" t="s">
         <v>129</v>
       </c>
       <c r="F1" s="24" t="s">
@@ -7650,7 +8055,7 @@
       <c r="C2" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="30" t="s">
         <v>123</v>
       </c>
     </row>
@@ -7661,7 +8066,7 @@
       <c r="C3" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="30" t="s">
         <v>123</v>
       </c>
     </row>
@@ -7675,317 +8080,317 @@
       <c r="C4" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="30" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="30" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="30" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="30" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="30" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="31" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="32" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="32" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>137</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B14" t="s">
         <v>139</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D14" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E14" s="29" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E15" s="30" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E21" s="33" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" s="30" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E23" s="32" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="29" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E24" s="33" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" s="30" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="E25" s="33" t="s">
+    <row r="20" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="E20" s="30" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="E31" s="33" t="s">
+      <c r="E22" s="30" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E32" s="33" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" s="30" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E33" s="33" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" s="30" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" s="30" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" s="30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" t="s">
+        <v>168</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>171</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>175</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>173</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>214</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>218</v>
+      </c>
       <c r="E34" s="33" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E35" s="33" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>215</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C37" t="s">
-        <v>166</v>
-      </c>
-      <c r="D37" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="E37" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="F37" s="26" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>164</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="24"/>
       <c r="C38" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="24"/>
+      <c r="C39" t="s">
         <v>168</v>
       </c>
-      <c r="D38" s="33" t="s">
+      <c r="D39" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="E38" s="33" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
-        <v>169</v>
-      </c>
-      <c r="D39" s="33" t="s">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="24"/>
+      <c r="C40" t="s">
+        <v>221</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="24"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="24"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" t="s">
+        <v>187</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>173</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>168</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>189</v>
+      </c>
+      <c r="D47" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="E39" s="33" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
-        <v>171</v>
-      </c>
-      <c r="D40" s="33" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>175</v>
-      </c>
-      <c r="D41" s="33" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
-        <v>173</v>
-      </c>
-      <c r="D42" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="E42" s="33" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
-        <v>214</v>
-      </c>
-      <c r="D43" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="E43" s="36" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
-        <v>215</v>
-      </c>
-      <c r="D44" s="33" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
-        <v>170</v>
-      </c>
+      <c r="E47" s="30" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>220</v>
-      </c>
-      <c r="E48" s="33" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="24"/>
-      <c r="C49" t="s">
-        <v>173</v>
-      </c>
-      <c r="D49" s="33" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="24"/>
-      <c r="C50" t="s">
-        <v>168</v>
-      </c>
-      <c r="D50" s="33" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="24"/>
-      <c r="C51" t="s">
-        <v>221</v>
-      </c>
-      <c r="D51" s="33" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="24"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="24"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C55" t="s">
-        <v>187</v>
-      </c>
-      <c r="E55" s="33" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
-        <v>173</v>
-      </c>
-      <c r="D56" s="33" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
-        <v>168</v>
-      </c>
-      <c r="D57" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="E57" s="32" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
-        <v>189</v>
-      </c>
-      <c r="D58" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="E58" s="33" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
         <v>197</v>
       </c>
-      <c r="E59" s="33" t="s">
+      <c r="E48" s="30" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E60" s="33" t="s">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E49" s="30" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E61" s="33" t="s">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E50" s="30" t="s">
         <v>194</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F37" r:id="rId1"/>
+    <hyperlink ref="F28" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -7995,27 +8400,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G320"/>
+  <dimension ref="A1:G386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="H167" sqref="H167"/>
+    <sheetView topLeftCell="A352" workbookViewId="0">
+      <selection activeCell="A355" sqref="A355:D386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" style="28" customWidth="1"/>
-    <col min="2" max="2" width="50.69921875" style="42" customWidth="1"/>
+    <col min="1" max="1" width="26.296875" style="55" customWidth="1"/>
+    <col min="2" max="2" width="21.296875" style="58" customWidth="1"/>
     <col min="3" max="3" width="14.69921875" customWidth="1"/>
-    <col min="4" max="4" width="7.09765625" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="4" max="4" width="17.19921875" customWidth="1"/>
+    <col min="5" max="5" width="37.19921875" customWidth="1"/>
+    <col min="6" max="6" width="18.3984375" customWidth="1"/>
     <col min="7" max="7" width="34.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="57" t="s">
         <v>156</v>
       </c>
       <c r="E1" s="24" t="s">
@@ -8026,10 +8432,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="28">
+      <c r="A2" s="55">
         <v>103.839</v>
       </c>
-      <c r="B2" s="42">
+      <c r="B2" s="58">
         <v>1.2809999999999999</v>
       </c>
       <c r="E2" t="s">
@@ -8040,10 +8446,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="29">
+      <c r="A3" s="56">
         <v>103.81699999999999</v>
       </c>
-      <c r="B3" s="42">
+      <c r="B3" s="58">
         <v>1.2889999999999999</v>
       </c>
       <c r="E3" t="s">
@@ -8051,10 +8457,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="28">
+      <c r="A4" s="55">
         <v>103.806</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="58">
         <v>1.294</v>
       </c>
       <c r="E4" t="s">
@@ -8062,10 +8468,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="28">
+      <c r="A5" s="55">
         <v>103.79</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="58">
         <v>1.3069999999999999</v>
       </c>
       <c r="E5" t="s">
@@ -8073,10 +8479,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="28">
+      <c r="A6" s="55">
         <v>103.77800000000001</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B6" s="58">
         <v>1.3120000000000001</v>
       </c>
       <c r="E6" t="s">
@@ -8084,8 +8490,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="43"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="59"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E10" s="24" t="s">
@@ -8093,26 +8499,26 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="54" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="28">
+      <c r="A12" s="55">
         <v>103.884</v>
       </c>
-      <c r="B12" s="42">
+      <c r="B12" s="58">
         <v>1.3580000000000001</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="28" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="28">
+      <c r="A13" s="55">
         <v>103.851</v>
       </c>
-      <c r="B13" s="42">
+      <c r="B13" s="58">
         <v>1.373</v>
       </c>
       <c r="E13" t="s">
@@ -8120,31 +8526,31 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="55" t="s">
         <v>203</v>
       </c>
-      <c r="E14" s="30"/>
+      <c r="E14" s="28"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="55" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="55" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="55" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="28">
+      <c r="A18" s="55">
         <v>103.839</v>
       </c>
-      <c r="B18" s="42">
+      <c r="B18" s="58">
         <v>1.2809999999999999</v>
       </c>
       <c r="E18" t="s">
@@ -8152,10 +8558,10 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="29">
+      <c r="A19" s="56">
         <v>103.81699999999999</v>
       </c>
-      <c r="B19" s="42">
+      <c r="B19" s="58">
         <v>1.2889999999999999</v>
       </c>
       <c r="E19" t="s">
@@ -8163,10 +8569,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="28">
+      <c r="A20" s="55">
         <v>103.806</v>
       </c>
-      <c r="B20" s="42">
+      <c r="B20" s="58">
         <v>1.294</v>
       </c>
       <c r="E20" t="s">
@@ -8174,12 +8580,12 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="55" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="55" t="s">
         <v>213</v>
       </c>
     </row>
@@ -8189,30 +8595,30 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="55" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="55" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="55" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="55" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="28">
+      <c r="A29" s="55">
         <v>103.79</v>
       </c>
-      <c r="B29" s="42">
+      <c r="B29" s="58">
         <v>1.3069999999999999</v>
       </c>
       <c r="E29" t="s">
@@ -8220,10 +8626,10 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="28">
+      <c r="A30" s="55">
         <v>103.77800000000001</v>
       </c>
-      <c r="B30" s="42">
+      <c r="B30" s="58">
         <v>1.3120000000000001</v>
       </c>
       <c r="E30" t="s">
@@ -8231,20 +8637,20 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="55" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="55" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="55" t="s">
         <v>237</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="58" t="s">
         <v>234</v>
       </c>
       <c r="E35" t="s">
@@ -8252,10 +8658,10 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="55" t="s">
         <v>236</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="58" t="s">
         <v>238</v>
       </c>
       <c r="E36" t="s">
@@ -8263,10 +8669,10 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="28">
+      <c r="A37" s="55">
         <v>1.332525</v>
       </c>
-      <c r="B37" s="42">
+      <c r="B37" s="58">
         <v>103.861481</v>
       </c>
       <c r="E37" t="s">
@@ -8274,10 +8680,10 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="28">
+      <c r="A38" s="55">
         <v>1.331914</v>
       </c>
-      <c r="B38" s="42">
+      <c r="B38" s="58">
         <v>103.86223200000001</v>
       </c>
       <c r="E38" t="s">
@@ -8285,10 +8691,10 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="55" t="s">
         <v>243</v>
       </c>
-      <c r="B39" s="42">
+      <c r="B39" s="58">
         <v>103.85790799999999</v>
       </c>
       <c r="E39" t="s">
@@ -8296,10 +8702,10 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="28">
+      <c r="A41" s="55">
         <v>103.857499</v>
       </c>
-      <c r="B41" s="42">
+      <c r="B41" s="58">
         <v>1.3691533</v>
       </c>
       <c r="D41" t="s">
@@ -8310,39 +8716,39 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="28">
+      <c r="A42" s="55">
         <v>103.8581903</v>
       </c>
-      <c r="B42" s="42">
+      <c r="B42" s="58">
         <v>1.3837919999999999</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="28">
+      <c r="A43" s="55">
         <v>103.8553513</v>
       </c>
-      <c r="B43" s="42">
+      <c r="B43" s="58">
         <v>1.3759417</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="28">
+      <c r="A44" s="55">
         <v>103.8583969</v>
       </c>
-      <c r="B44" s="42">
+      <c r="B44" s="58">
         <v>1.3615294</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="42" t="s">
+      <c r="B48" s="58" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="55" t="s">
         <v>265</v>
       </c>
-      <c r="B49" s="42" t="s">
+      <c r="B49" s="58" t="s">
         <v>267</v>
       </c>
       <c r="C49">
@@ -8353,10 +8759,10 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="28" t="s">
+      <c r="A50" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="B50" s="42" t="s">
+      <c r="B50" s="58" t="s">
         <v>268</v>
       </c>
       <c r="C50">
@@ -8364,10 +8770,10 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="55" t="s">
         <v>265</v>
       </c>
-      <c r="B52" s="42" t="s">
+      <c r="B52" s="58" t="s">
         <v>269</v>
       </c>
       <c r="C52">
@@ -8378,10 +8784,10 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="B53" s="42" t="s">
+      <c r="B53" s="58" t="s">
         <v>270</v>
       </c>
       <c r="C53">
@@ -8389,10 +8795,10 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="28" t="s">
+      <c r="A55" s="55" t="s">
         <v>265</v>
       </c>
-      <c r="B55" s="42" t="s">
+      <c r="B55" s="58" t="s">
         <v>271</v>
       </c>
       <c r="C55">
@@ -8403,10 +8809,10 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="28" t="s">
+      <c r="A56" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="B56" s="42" t="s">
+      <c r="B56" s="58" t="s">
         <v>272</v>
       </c>
       <c r="C56">
@@ -8414,10 +8820,10 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="28" t="s">
+      <c r="A58" s="55" t="s">
         <v>265</v>
       </c>
-      <c r="B58" s="42" t="s">
+      <c r="B58" s="58" t="s">
         <v>273</v>
       </c>
       <c r="C58">
@@ -8428,10 +8834,10 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="28" t="s">
+      <c r="A59" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="B59" s="42" t="s">
+      <c r="B59" s="58" t="s">
         <v>274</v>
       </c>
       <c r="C59">
@@ -8439,10 +8845,10 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="28" t="s">
+      <c r="A61" s="55" t="s">
         <v>265</v>
       </c>
-      <c r="B61" s="42" t="s">
+      <c r="B61" s="58" t="s">
         <v>275</v>
       </c>
       <c r="C61">
@@ -8453,10 +8859,10 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="28" t="s">
+      <c r="A62" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="B62" s="42" t="s">
+      <c r="B62" s="58" t="s">
         <v>276</v>
       </c>
       <c r="C62">
@@ -8464,10 +8870,10 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="28" t="s">
+      <c r="A64" s="55" t="s">
         <v>265</v>
       </c>
-      <c r="B64" s="42" t="s">
+      <c r="B64" s="58" t="s">
         <v>277</v>
       </c>
       <c r="C64">
@@ -8478,10 +8884,10 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="28" t="s">
+      <c r="A65" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="B65" s="42" t="s">
+      <c r="B65" s="58" t="s">
         <v>278</v>
       </c>
       <c r="C65">
@@ -8489,10 +8895,10 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="28" t="s">
+      <c r="A67" s="55" t="s">
         <v>265</v>
       </c>
-      <c r="B67" s="42" t="s">
+      <c r="B67" s="58" t="s">
         <v>279</v>
       </c>
       <c r="C67">
@@ -8503,10 +8909,10 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="28" t="s">
+      <c r="A68" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="B68" s="42" t="s">
+      <c r="B68" s="58" t="s">
         <v>280</v>
       </c>
       <c r="C68">
@@ -8514,10 +8920,10 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="28" t="s">
+      <c r="A70" s="55" t="s">
         <v>265</v>
       </c>
-      <c r="B70" s="42" t="s">
+      <c r="B70" s="58" t="s">
         <v>281</v>
       </c>
       <c r="C70">
@@ -8528,10 +8934,10 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="28" t="s">
+      <c r="A71" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="B71" s="42" t="s">
+      <c r="B71" s="58" t="s">
         <v>282</v>
       </c>
       <c r="C71">
@@ -8539,992 +8945,1004 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="28" t="s">
+      <c r="A73" s="54" t="s">
+        <v>378</v>
+      </c>
+      <c r="B73" s="57" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="55" t="s">
+        <v>638</v>
+      </c>
+      <c r="B74" s="58" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="55" t="s">
+        <v>640</v>
+      </c>
+      <c r="B75" s="58" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A76" s="55" t="s">
+        <v>642</v>
+      </c>
+      <c r="B76" s="58" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="55" t="s">
+        <v>644</v>
+      </c>
+      <c r="B77" s="58" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="55" t="s">
+        <v>646</v>
+      </c>
+      <c r="B78" s="58" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="55" t="s">
+        <v>648</v>
+      </c>
+      <c r="B79" s="58" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A80" s="55" t="s">
+        <v>650</v>
+      </c>
+      <c r="B80" s="58" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="B81" s="58" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="54" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="55">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="55">
+        <v>31088.9</v>
+      </c>
+      <c r="B87" s="58" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="55">
+        <v>39920.080000000002</v>
+      </c>
+      <c r="B88" s="58" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="55">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="55">
+        <v>30755.81</v>
+      </c>
+      <c r="B91" s="58" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="55">
+        <v>39822.019999999997</v>
+      </c>
+      <c r="B92" s="58" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="55">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="55">
+        <v>30383.93</v>
+      </c>
+      <c r="B95" s="58" t="s">
         <v>386</v>
       </c>
-      <c r="B73" s="42" t="s">
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="55">
+        <v>39757.74</v>
+      </c>
+      <c r="B96" s="58" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="28" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="28" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="28" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="28" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="28" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="28" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="28" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="28" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="28" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="28">
-        <v>1471</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="28">
-        <v>31088.9</v>
-      </c>
-      <c r="B87" s="42" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="28">
-        <v>39920.080000000002</v>
-      </c>
-      <c r="B88" s="42" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="28">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="28">
-        <v>30755.81</v>
-      </c>
-      <c r="B91" s="42" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="28">
-        <v>39822.019999999997</v>
-      </c>
-      <c r="B92" s="42" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="28">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="28">
-        <v>30383.93</v>
-      </c>
-      <c r="B95" s="42" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="28">
-        <v>39757.74</v>
-      </c>
-      <c r="B96" s="42" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="28" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="55" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A99" s="30" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="30">
         <v>30832.0437322</v>
       </c>
-      <c r="B100" s="42" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="B100" s="58" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="30">
         <v>39694.078958400001</v>
       </c>
-      <c r="B101" s="42" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="B101" s="58" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="30">
         <v>30777.594452199999</v>
       </c>
-      <c r="B103" s="42" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="B103" s="58" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="30">
         <v>39888.679278600001</v>
       </c>
-      <c r="B104" s="42" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="B104" s="58" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="30">
         <v>30799.527124200002</v>
       </c>
-      <c r="B106" s="42" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107">
+      <c r="B106" s="58" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="30">
         <v>39978.569966700001</v>
       </c>
-      <c r="B107" s="42" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="28" t="s">
+      <c r="B107" s="58" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="55" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="55">
+        <v>38163.228498199998</v>
+      </c>
+      <c r="B110" s="58" t="s">
+        <v>561</v>
+      </c>
+      <c r="E110" s="38"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="55">
+        <v>32629.488922100001</v>
+      </c>
+      <c r="B111" s="58" t="s">
+        <v>562</v>
+      </c>
+      <c r="E111" s="38"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E112" s="38"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="55">
+        <v>36474.971568599998</v>
+      </c>
+      <c r="B113" s="58" t="s">
+        <v>481</v>
+      </c>
+      <c r="E113" s="38"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="55">
+        <v>32287.4021058</v>
+      </c>
+      <c r="B114" s="58" t="s">
+        <v>480</v>
+      </c>
+      <c r="E114" s="38"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E115" s="38"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="55">
+        <v>36026.658896200002</v>
+      </c>
+      <c r="B116" s="58" t="s">
+        <v>482</v>
+      </c>
+      <c r="E116" s="38"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="55">
+        <v>32082.515513599999</v>
+      </c>
+      <c r="B117" s="58" t="s">
+        <v>483</v>
+      </c>
+      <c r="E117" s="38"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E118" s="38"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="55">
+        <v>35642.5160798</v>
+      </c>
+      <c r="B119" s="58" t="s">
+        <v>484</v>
+      </c>
+      <c r="E119" s="38"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="55">
+        <v>31807.078489299998</v>
+      </c>
+      <c r="B120" s="58" t="s">
+        <v>485</v>
+      </c>
+      <c r="E120" s="38"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="55">
+        <v>34377.592782599997</v>
+      </c>
+      <c r="B122" s="58" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="28">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="55">
+        <v>31385.698520900001</v>
+      </c>
+      <c r="B123" s="58" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="55">
+        <v>34258.6779025</v>
+      </c>
+      <c r="B125" s="58" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="55">
+        <v>31402.082680899999</v>
+      </c>
+      <c r="B126" s="58" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="55" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="55">
+        <v>36372.76</v>
+      </c>
+      <c r="B129" s="58" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="55">
+        <v>32280.05</v>
+      </c>
+      <c r="B130" s="58" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="55">
+        <v>36186.76</v>
+      </c>
+      <c r="B132" s="58" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="55">
+        <v>32174.880000000001</v>
+      </c>
+      <c r="B133" s="58" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="55">
+        <v>35970.25</v>
+      </c>
+      <c r="B135" s="58" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="55">
+        <v>32031.05</v>
+      </c>
+      <c r="B136" s="58" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="55">
+        <v>35702.36</v>
+      </c>
+      <c r="B138" s="58" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="55">
+        <v>31859.56</v>
+      </c>
+      <c r="B139" s="58" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="55">
+        <v>35477.760000000002</v>
+      </c>
+      <c r="B141" s="58" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="55">
+        <v>31723.99</v>
+      </c>
+      <c r="B142" s="58" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="55">
+        <v>35101.279999999999</v>
+      </c>
+      <c r="B144" s="58" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="55">
+        <v>31592.21</v>
+      </c>
+      <c r="B145" s="58" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="55">
+        <v>34734.089999999997</v>
+      </c>
+      <c r="B147" s="58" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="55">
+        <v>31479.83</v>
+      </c>
+      <c r="B148" s="58" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A150" s="55" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="55" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="55" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="55" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="55" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="55" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="55" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="55" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="55" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="55" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="55" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="54" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="55" t="s">
+        <v>533</v>
+      </c>
+      <c r="B164" s="58" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="55" t="s">
+        <v>534</v>
+      </c>
+      <c r="B165" s="58" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="55">
+        <v>43846.047648300002</v>
+      </c>
+      <c r="B166" s="58" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="55">
+        <v>34699.402025700001</v>
+      </c>
+      <c r="B167" s="58" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="55">
+        <v>43936.881376400001</v>
+      </c>
+      <c r="B169" s="58" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="55">
+        <v>34321.853161400002</v>
+      </c>
+      <c r="B170" s="58" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="55">
+        <v>43096.791007599997</v>
+      </c>
+      <c r="B172" s="58" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="55">
+        <v>33604.025064699999</v>
+      </c>
+      <c r="B173" s="58" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="55">
+        <v>40532.2757413</v>
+      </c>
+      <c r="B175" s="58" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="55">
+        <v>32649.741543799999</v>
+      </c>
+      <c r="B176" s="58" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="55">
+        <v>39590.876380399997</v>
+      </c>
+      <c r="B178" s="58" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="55">
+        <v>32482.380007700001</v>
+      </c>
+      <c r="B179" s="58" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="55">
+        <v>38058.538523000003</v>
+      </c>
+      <c r="B181" s="58" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="55">
+        <v>31970.810215199999</v>
+      </c>
+      <c r="B182" s="58" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="55">
+        <v>35691.025496800001</v>
+      </c>
+      <c r="B184" s="58" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="55">
+        <v>31278.436390499999</v>
+      </c>
+      <c r="B185" s="58" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="55">
+        <v>34497.0597996</v>
+      </c>
+      <c r="B187" s="58" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="55">
+        <v>30904.950438200001</v>
+      </c>
+      <c r="B188" s="58" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="55" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="55">
+        <v>39590.876380399997</v>
+      </c>
+      <c r="B192" s="58" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="55">
+        <v>32482.380007700001</v>
+      </c>
+      <c r="B193" s="58" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="55">
+        <v>38501.4283154</v>
+      </c>
+      <c r="B195" s="58" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="55">
+        <v>32089.951655299999</v>
+      </c>
+      <c r="B196" s="58" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="55">
+        <v>37122.373530099998</v>
+      </c>
+      <c r="B204" s="58" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="55">
+        <v>31667.560614900001</v>
+      </c>
+      <c r="B205" s="58" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="55">
+        <v>35705.505176799998</v>
+      </c>
+      <c r="B207" s="58" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="55">
+        <v>31239.412582500001</v>
+      </c>
+      <c r="B208" s="58" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="55">
+        <v>34512.7804397</v>
+      </c>
+      <c r="B211" s="55">
+        <v>103.89183869999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="55">
+        <v>30864.168038200001</v>
+      </c>
+      <c r="B212" s="55">
+        <v>1.2953984000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="55" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="55">
+        <v>30576.4513592</v>
+      </c>
+      <c r="B215" s="58" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="55">
+        <v>39785.026074499998</v>
+      </c>
+      <c r="B216" s="58" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="55">
+        <v>30742.867327299999</v>
+      </c>
+      <c r="B218" s="58" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="55">
+        <v>39020.313529799998</v>
+      </c>
+      <c r="B219" s="58" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="55" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="55">
+        <v>30777.594452199999</v>
+      </c>
+      <c r="B222" s="58" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="55">
+        <v>39888.679278600001</v>
+      </c>
+      <c r="B223" s="58" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="55">
+        <v>30832.0437322</v>
+      </c>
+      <c r="B225" s="58" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="55">
+        <v>39694.078958400001</v>
+      </c>
+      <c r="B226" s="58" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="55">
+        <v>31082.8658765</v>
+      </c>
+      <c r="B228" s="58" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="55">
+        <v>39095.1092938</v>
+      </c>
+      <c r="B229" s="58" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A232" s="55" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="55" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="55">
         <v>38163.228498199998</v>
       </c>
-      <c r="B110" s="42" t="s">
+      <c r="B234" s="55" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="55">
+        <v>32629.488922100001</v>
+      </c>
+      <c r="B235" s="55" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="55">
+        <v>38060.19</v>
+      </c>
+      <c r="B237" s="58" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="55">
+        <v>32739.54</v>
+      </c>
+      <c r="B238" s="58" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="55">
+        <v>37703.629999999997</v>
+      </c>
+      <c r="B240" s="58" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="55">
+        <v>32631.88</v>
+      </c>
+      <c r="B241" s="58" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="55">
+        <v>37215.75</v>
+      </c>
+      <c r="B243" s="58" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="55">
+        <v>32450.71</v>
+      </c>
+      <c r="B244" s="58" t="s">
         <v>569</v>
       </c>
-      <c r="E110" s="42"/>
-      <c r="G110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="28">
-        <v>32629.488922100001</v>
-      </c>
-      <c r="B111" s="42" t="s">
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="55">
+        <v>36791.79</v>
+      </c>
+      <c r="B246" s="58" t="s">
         <v>570</v>
       </c>
-      <c r="E111" s="42"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E112" s="42"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="28">
-        <v>36474.971568599998</v>
-      </c>
-      <c r="B113" s="42" t="s">
-        <v>489</v>
-      </c>
-      <c r="E113" s="42"/>
-      <c r="G113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="28">
-        <v>32287.4021058</v>
-      </c>
-      <c r="B114" s="42" t="s">
-        <v>488</v>
-      </c>
-      <c r="E114" s="42"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E115" s="42"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="28">
-        <v>36026.658896200002</v>
-      </c>
-      <c r="B116" s="42" t="s">
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="55">
+        <v>32364.92</v>
+      </c>
+      <c r="B247" s="58" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="55">
+        <v>36372.76</v>
+      </c>
+      <c r="B249" s="58" t="s">
         <v>490</v>
       </c>
-      <c r="E116" s="42"/>
-      <c r="G116">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="28">
-        <v>32082.515513599999</v>
-      </c>
-      <c r="B117" s="42" t="s">
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="55">
+        <v>32280.05</v>
+      </c>
+      <c r="B250" s="58" t="s">
         <v>491</v>
       </c>
-      <c r="E117" s="42"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E118" s="42"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="28">
-        <v>35642.5160798</v>
-      </c>
-      <c r="B119" s="42" t="s">
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="55">
+        <v>36186.76</v>
+      </c>
+      <c r="B252" s="58" t="s">
         <v>492</v>
       </c>
-      <c r="E119" s="42"/>
-      <c r="G119">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="28">
-        <v>31807.078489299998</v>
-      </c>
-      <c r="B120" s="42" t="s">
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="55">
+        <v>32174.880000000001</v>
+      </c>
+      <c r="B253" s="58" t="s">
         <v>493</v>
       </c>
-      <c r="E120" s="42"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="28">
-        <v>34377.592782599997</v>
-      </c>
-      <c r="B122" s="42" t="s">
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="55">
+        <v>35970.25</v>
+      </c>
+      <c r="B255" s="58" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="28">
-        <v>31385.698520900001</v>
-      </c>
-      <c r="B123" s="42" t="s">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="55">
+        <v>32031.05</v>
+      </c>
+      <c r="B256" s="58" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="28">
-        <v>34258.6779025</v>
-      </c>
-      <c r="B125" s="42" t="s">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" s="55">
+        <v>35702.36</v>
+      </c>
+      <c r="B258" s="58" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="28">
-        <v>31402.082680899999</v>
-      </c>
-      <c r="B126" s="42" t="s">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="55">
+        <v>31859.56</v>
+      </c>
+      <c r="B259" s="58" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="28" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="28">
-        <v>36372.76</v>
-      </c>
-      <c r="B129" s="42" t="s">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="55">
+        <v>35477.760000000002</v>
+      </c>
+      <c r="B261" s="58" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="28">
-        <v>32280.05</v>
-      </c>
-      <c r="B130" s="42" t="s">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="55">
+        <v>31723.99</v>
+      </c>
+      <c r="B262" s="58" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="28">
-        <v>36186.76</v>
-      </c>
-      <c r="B132" s="42" t="s">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" s="55">
+        <v>35101.279999999999</v>
+      </c>
+      <c r="B264" s="58" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="28">
-        <v>32174.880000000001</v>
-      </c>
-      <c r="B133" s="42" t="s">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" s="55">
+        <v>31592.21</v>
+      </c>
+      <c r="B265" s="58" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="28">
-        <v>35970.25</v>
-      </c>
-      <c r="B135" s="42" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="28">
-        <v>32031.05</v>
-      </c>
-      <c r="B136" s="42" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="28">
-        <v>35702.36</v>
-      </c>
-      <c r="B138" s="42" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="28">
-        <v>31859.56</v>
-      </c>
-      <c r="B139" s="42" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="28">
-        <v>35477.760000000002</v>
-      </c>
-      <c r="B141" s="42" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="28">
-        <v>31723.99</v>
-      </c>
-      <c r="B142" s="42" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="28">
-        <v>35101.279999999999</v>
-      </c>
-      <c r="B144" s="42" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="28">
-        <v>31592.21</v>
-      </c>
-      <c r="B145" s="42" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="28">
-        <v>34734.089999999997</v>
-      </c>
-      <c r="B147" s="42" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="28">
-        <v>31479.83</v>
-      </c>
-      <c r="B148" s="42" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="28" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="28" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="28" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="28" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="28" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="28" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="28" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="28" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="28" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="28" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="28" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="27" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="28" t="s">
-        <v>541</v>
-      </c>
-      <c r="B164" s="42" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="28" t="s">
-        <v>542</v>
-      </c>
-      <c r="B165" s="42" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="28">
-        <v>43846.047648300002</v>
-      </c>
-      <c r="B166" s="42" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="28">
-        <v>34699.402025700001</v>
-      </c>
-      <c r="B167" s="42" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="28">
-        <v>43936.881376400001</v>
-      </c>
-      <c r="B169" s="42" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="28">
-        <v>34321.853161400002</v>
-      </c>
-      <c r="B170" s="42" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="28">
-        <v>43096.791007599997</v>
-      </c>
-      <c r="B172" s="42" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="28">
-        <v>33604.025064699999</v>
-      </c>
-      <c r="B173" s="42" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="28">
-        <v>40532.2757413</v>
-      </c>
-      <c r="B175" s="42" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="28">
-        <v>32649.741543799999</v>
-      </c>
-      <c r="B176" s="42" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="28">
-        <v>39590.876380399997</v>
-      </c>
-      <c r="B178" s="42" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="28">
-        <v>32482.380007700001</v>
-      </c>
-      <c r="B179" s="42" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="28">
-        <v>38058.538523000003</v>
-      </c>
-      <c r="B181" s="42" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="28">
-        <v>31970.810215199999</v>
-      </c>
-      <c r="B182" s="42" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="28">
-        <v>35691.025496800001</v>
-      </c>
-      <c r="B184" s="42" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="28">
-        <v>31278.436390499999</v>
-      </c>
-      <c r="B185" s="42" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="28">
-        <v>34497.0597996</v>
-      </c>
-      <c r="B187" s="42" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="28">
-        <v>30904.950438200001</v>
-      </c>
-      <c r="B188" s="42" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="28" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="28">
-        <v>39590.876380399997</v>
-      </c>
-      <c r="B192" s="42" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="28">
-        <v>32482.380007700001</v>
-      </c>
-      <c r="B193" s="42" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="28">
-        <v>38501.4283154</v>
-      </c>
-      <c r="B195" s="42" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="28">
-        <v>32089.951655299999</v>
-      </c>
-      <c r="B196" s="42" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="28">
-        <v>37122.373530099998</v>
-      </c>
-      <c r="B204" s="42" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="28">
-        <v>31667.560614900001</v>
-      </c>
-      <c r="B205" s="42" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="28">
-        <v>35705.505176799998</v>
-      </c>
-      <c r="B207" s="42" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="28">
-        <v>31239.412582500001</v>
-      </c>
-      <c r="B208" s="42" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="28">
-        <v>34512.7804397</v>
-      </c>
-      <c r="B211" s="28">
-        <v>103.89183869999999</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="28">
-        <v>30864.168038200001</v>
-      </c>
-      <c r="B212" s="28">
-        <v>1.2953984000000001</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="28" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="28">
-        <v>30576.4513592</v>
-      </c>
-      <c r="B215" s="42" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="28">
-        <v>39785.026074499998</v>
-      </c>
-      <c r="B216" s="42" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="28">
-        <v>30742.867327299999</v>
-      </c>
-      <c r="B218" s="42" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="28">
-        <v>39020.313529799998</v>
-      </c>
-      <c r="B219" s="42" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="28" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="28">
-        <v>30777.594452199999</v>
-      </c>
-      <c r="B222" s="42" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="28">
-        <v>39888.679278600001</v>
-      </c>
-      <c r="B223" s="42" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="28">
-        <v>30832.0437322</v>
-      </c>
-      <c r="B225" s="42" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="28">
-        <v>39694.078958400001</v>
-      </c>
-      <c r="B226" s="42" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="28">
-        <v>31082.8658765</v>
-      </c>
-      <c r="B228" s="42" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="28">
-        <v>39095.1092938</v>
-      </c>
-      <c r="B229" s="42" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="28" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="28" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="28">
-        <v>38163.228498199998</v>
-      </c>
-      <c r="B234" s="28" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="28">
-        <v>32629.488922100001</v>
-      </c>
-      <c r="B235" s="28" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="28">
-        <v>38060.19</v>
-      </c>
-      <c r="B237" s="42" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="28">
-        <v>32739.54</v>
-      </c>
-      <c r="B238" s="42" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="28">
-        <v>37703.629999999997</v>
-      </c>
-      <c r="B240" s="42" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="28">
-        <v>32631.88</v>
-      </c>
-      <c r="B241" s="42" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="28">
-        <v>37215.75</v>
-      </c>
-      <c r="B243" s="42" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="28">
-        <v>32450.71</v>
-      </c>
-      <c r="B244" s="42" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="28">
-        <v>36791.79</v>
-      </c>
-      <c r="B246" s="42" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="28">
-        <v>32364.92</v>
-      </c>
-      <c r="B247" s="42" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="28">
-        <v>36372.76</v>
-      </c>
-      <c r="B249" s="42" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="28">
-        <v>32280.05</v>
-      </c>
-      <c r="B250" s="42" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="28">
-        <v>36186.76</v>
-      </c>
-      <c r="B252" s="42" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="28">
-        <v>32174.880000000001</v>
-      </c>
-      <c r="B253" s="42" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="28">
-        <v>35970.25</v>
-      </c>
-      <c r="B255" s="42" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="28">
-        <v>32031.05</v>
-      </c>
-      <c r="B256" s="42" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" s="28">
-        <v>35702.36</v>
-      </c>
-      <c r="B258" s="42" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" s="28">
-        <v>31859.56</v>
-      </c>
-      <c r="B259" s="42" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" s="28">
-        <v>35477.760000000002</v>
-      </c>
-      <c r="B261" s="42" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="28">
-        <v>31723.99</v>
-      </c>
-      <c r="B262" s="42" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264" s="28">
-        <v>35101.279999999999</v>
-      </c>
-      <c r="B264" s="42" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265" s="28">
-        <v>31592.21</v>
-      </c>
-      <c r="B265" s="42" t="s">
-        <v>509</v>
-      </c>
       <c r="E265" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="F265">
         <v>12000</v>
@@ -9532,7 +9950,7 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E266" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="F266">
         <f>300*12</f>
@@ -9540,11 +9958,11 @@
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A267" s="28">
+      <c r="A267" s="55">
         <v>34734.089999999997</v>
       </c>
-      <c r="B267" s="42" t="s">
-        <v>510</v>
+      <c r="B267" s="58" t="s">
+        <v>502</v>
       </c>
       <c r="F267">
         <f>F265+F266</f>
@@ -9552,288 +9970,937 @@
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A268" s="28">
+      <c r="A268" s="55">
         <v>31479.83</v>
       </c>
-      <c r="B268" s="42" t="s">
-        <v>511</v>
+      <c r="B268" s="58" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A270" s="28">
+      <c r="A270" s="55">
         <v>34065.42</v>
       </c>
-      <c r="B270" s="42" t="s">
-        <v>580</v>
+      <c r="B270" s="58" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A271" s="28">
+      <c r="A271" s="55">
         <v>31457.71</v>
       </c>
-      <c r="B271" s="42" t="s">
-        <v>581</v>
+      <c r="B271" s="58" t="s">
+        <v>573</v>
       </c>
       <c r="F271">
         <f>(15600/12)*3</f>
         <v>3900</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="28" t="s">
+    <row r="273" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A273" s="55" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="32">
+        <v>30451.992083900001</v>
+      </c>
+      <c r="B274" s="32">
+        <v>103.8553513</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="32">
+        <v>39770.158830499997</v>
+      </c>
+      <c r="B275" s="32">
+        <v>1.3759417</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="32"/>
+      <c r="B276" s="32"/>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="32">
+        <v>31328.920852700001</v>
+      </c>
+      <c r="B277" s="32">
+        <v>103.8632314</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="32">
+        <v>39969.945966599997</v>
+      </c>
+      <c r="B278" s="32">
+        <v>1.3777482999999999</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="32"/>
+      <c r="B279" s="32"/>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="32">
+        <v>31499.1505488</v>
+      </c>
+      <c r="B280" s="32">
+        <v>103.86476089999999</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="32">
+        <v>39170.2856139</v>
+      </c>
+      <c r="B281" s="32">
+        <v>1.3705164999999999</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="32"/>
+      <c r="B282" s="32"/>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="32">
+        <v>30690.992468100001</v>
+      </c>
+      <c r="B283" s="32">
+        <v>103.857499</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="32">
+        <v>39019.5417418</v>
+      </c>
+      <c r="B284" s="32">
+        <v>1.3691533</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="32"/>
+      <c r="B285" s="32"/>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="32">
+        <v>30814.207316200002</v>
+      </c>
+      <c r="B286" s="32">
+        <v>103.85860630000001</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="32">
+        <v>39781.755438499997</v>
+      </c>
+      <c r="B287" s="32">
+        <v>1.3760463000000001</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="32"/>
+      <c r="B288" s="32"/>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" s="32">
+        <v>31063.382612400001</v>
+      </c>
+      <c r="B289" s="32">
+        <v>103.8608452</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="32">
+        <v>39106.710509800003</v>
+      </c>
+      <c r="B290" s="32">
+        <v>1.3699416</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A292" s="55" t="s">
+        <v>581</v>
+      </c>
+      <c r="B292" s="58" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A293" s="55" t="s">
+        <v>580</v>
+      </c>
+      <c r="B293" s="58" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A294" s="55" t="s">
+        <v>582</v>
+      </c>
+      <c r="B294" s="58" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" s="55" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="55">
+        <v>30790.9181002</v>
+      </c>
+      <c r="B296" s="32">
+        <v>103.8583969</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" s="55">
+        <v>38176.531180999998</v>
+      </c>
+      <c r="B297" s="32">
+        <v>1.3615294</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" s="55" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" s="55">
+        <v>30767.915796199999</v>
+      </c>
+      <c r="B300" s="32">
+        <v>103.8581904</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" s="55">
+        <v>40638.217391300001</v>
+      </c>
+      <c r="B301" s="32">
+        <v>1.3837919999999999</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" s="55" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="59">
-        <v>30451.992083900001</v>
-      </c>
-      <c r="B274" s="59">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" s="55">
+        <v>30735.826324099999</v>
+      </c>
+      <c r="B304" s="58" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="55">
+        <v>36911.550443799999</v>
+      </c>
+      <c r="B305" s="58" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="55" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="55">
+        <v>30332.467923699998</v>
+      </c>
+      <c r="B308" s="58" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="55">
+        <v>37788.599724599997</v>
+      </c>
+      <c r="B309" s="58" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="55" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="55">
+        <v>31214.9684046</v>
+      </c>
+      <c r="B312" s="58" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="55">
+        <v>37351.410860199998</v>
+      </c>
+      <c r="B313" s="58" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="54" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="55" t="s">
+        <v>634</v>
+      </c>
+      <c r="B317" s="55">
+        <v>103.93318499999999</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B318" s="55">
+        <v>1.308079</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B319" s="55"/>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="55" t="s">
+        <v>637</v>
+      </c>
+      <c r="B320" s="58" t="s">
+        <v>636</v>
+      </c>
+      <c r="C320" s="27"/>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B321" s="58" t="s">
+        <v>635</v>
+      </c>
+      <c r="C321" s="27"/>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" s="55" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A324" s="60" t="s">
+        <v>614</v>
+      </c>
+      <c r="B324" s="60" t="s">
+        <v>615</v>
+      </c>
+      <c r="C324" s="60" t="s">
+        <v>616</v>
+      </c>
+      <c r="D324" s="61" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A325" s="60" t="s">
+        <v>617</v>
+      </c>
+      <c r="B325" s="62">
+        <v>30451.99208</v>
+      </c>
+      <c r="C325" s="62">
+        <v>39770.15883</v>
+      </c>
+      <c r="D325" s="61">
         <v>103.8553513</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="59">
-        <v>39770.158830499997</v>
-      </c>
-      <c r="B275" s="59">
+      <c r="E325" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A326" s="60"/>
+      <c r="B326" s="62"/>
+      <c r="C326" s="62"/>
+      <c r="D326" s="61">
         <v>1.3759417</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="59"/>
-      <c r="B276" s="59"/>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="59">
-        <v>31328.920852700001</v>
-      </c>
-      <c r="B277" s="59">
+    <row r="327" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A327" s="60"/>
+      <c r="B327" s="62"/>
+      <c r="C327" s="62"/>
+      <c r="D327" s="61"/>
+    </row>
+    <row r="328" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A328" s="60" t="s">
+        <v>578</v>
+      </c>
+      <c r="B328" s="62">
+        <v>30790.918099999999</v>
+      </c>
+      <c r="C328" s="62">
+        <v>38176.531179999998</v>
+      </c>
+      <c r="D328" s="61">
+        <v>103.8583969</v>
+      </c>
+      <c r="E328" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A329" s="60"/>
+      <c r="B329" s="62"/>
+      <c r="C329" s="62"/>
+      <c r="D329" s="61">
+        <v>1.3615294</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A330" s="60"/>
+      <c r="B330" s="62"/>
+      <c r="C330" s="62"/>
+      <c r="D330" s="61"/>
+    </row>
+    <row r="331" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A331" s="60" t="s">
+        <v>618</v>
+      </c>
+      <c r="B331" s="62">
+        <v>31499.150549999998</v>
+      </c>
+      <c r="C331" s="62">
+        <v>39170.285609999999</v>
+      </c>
+      <c r="D331" s="61">
+        <v>103.86476089999999</v>
+      </c>
+      <c r="E331" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A332" s="60"/>
+      <c r="B332" s="62"/>
+      <c r="C332" s="62"/>
+      <c r="D332" s="61">
+        <v>1.3705164999999999</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A333" s="60"/>
+      <c r="B333" s="62"/>
+      <c r="C333" s="62"/>
+      <c r="D333" s="61"/>
+    </row>
+    <row r="334" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A334" s="60" t="s">
+        <v>584</v>
+      </c>
+      <c r="B334" s="62">
+        <v>31214.968400000002</v>
+      </c>
+      <c r="C334" s="62">
+        <v>37351.410860000004</v>
+      </c>
+      <c r="D334" s="61">
+        <v>103.86220710000001</v>
+      </c>
+      <c r="E334" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A335" s="60"/>
+      <c r="B335" s="62"/>
+      <c r="C335" s="62"/>
+      <c r="D335" s="61">
+        <v>1.3540672</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A336" s="60"/>
+      <c r="B336" s="62"/>
+      <c r="C336" s="62"/>
+      <c r="D336" s="61"/>
+    </row>
+    <row r="337" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A337" s="60" t="s">
+        <v>619</v>
+      </c>
+      <c r="B337" s="62">
+        <v>31063.382610000001</v>
+      </c>
+      <c r="C337" s="62">
+        <v>39106.710509999997</v>
+      </c>
+      <c r="D337" s="61">
+        <v>103.8608452</v>
+      </c>
+      <c r="E337" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A338" s="60"/>
+      <c r="B338" s="62"/>
+      <c r="C338" s="62"/>
+      <c r="D338" s="61">
+        <v>1.3699416</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A339" s="60"/>
+      <c r="B339" s="62"/>
+      <c r="C339" s="62"/>
+      <c r="D339" s="61"/>
+    </row>
+    <row r="340" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A340" s="60" t="s">
+        <v>620</v>
+      </c>
+      <c r="B340" s="62">
+        <v>30814.207320000001</v>
+      </c>
+      <c r="C340" s="62">
+        <v>39781.755440000001</v>
+      </c>
+      <c r="D340" s="61">
+        <v>103.85860630000001</v>
+      </c>
+      <c r="E340" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A341" s="60"/>
+      <c r="B341" s="62"/>
+      <c r="C341" s="62"/>
+      <c r="D341" s="61">
+        <v>1.3760465</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A342" s="60"/>
+      <c r="B342" s="62"/>
+      <c r="C342" s="62"/>
+      <c r="D342" s="61"/>
+    </row>
+    <row r="343" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A343" s="60" t="s">
+        <v>583</v>
+      </c>
+      <c r="B343" s="62">
+        <v>30332.467919999999</v>
+      </c>
+      <c r="C343" s="62">
+        <v>37788.599719999998</v>
+      </c>
+      <c r="D343" s="61">
+        <v>103.85427730000001</v>
+      </c>
+      <c r="E343" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A344" s="60"/>
+      <c r="B344" s="62"/>
+      <c r="C344" s="62"/>
+      <c r="D344" s="61">
+        <v>1.3580211</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A345" s="60"/>
+      <c r="B345" s="62"/>
+      <c r="C345" s="62"/>
+      <c r="D345" s="61"/>
+    </row>
+    <row r="346" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A346" s="60" t="s">
+        <v>622</v>
+      </c>
+      <c r="B346" s="62">
+        <v>31328.920849999999</v>
+      </c>
+      <c r="C346" s="62">
+        <v>39969.945970000001</v>
+      </c>
+      <c r="D346" s="61">
         <v>103.8632314</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="59">
-        <v>39969.945966599997</v>
-      </c>
-      <c r="B278" s="59">
+      <c r="E346" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A347" s="60"/>
+      <c r="B347" s="62"/>
+      <c r="C347" s="62"/>
+      <c r="D347" s="61">
         <v>1.3777482999999999</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="59"/>
-      <c r="B279" s="59"/>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="59">
-        <v>31499.1505488</v>
-      </c>
-      <c r="B280" s="59">
-        <v>103.86476089999999</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="59">
-        <v>39170.2856139</v>
-      </c>
-      <c r="B281" s="59">
-        <v>1.3705164999999999</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="59"/>
-      <c r="B282" s="59"/>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="59">
-        <v>30690.992468100001</v>
-      </c>
-      <c r="B283" s="59">
+    <row r="348" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A348" s="60"/>
+      <c r="B348" s="62"/>
+      <c r="C348" s="62"/>
+      <c r="D348" s="61"/>
+    </row>
+    <row r="349" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A349" s="60" t="s">
+        <v>631</v>
+      </c>
+      <c r="B349" s="62">
+        <v>30690.992470000001</v>
+      </c>
+      <c r="C349" s="62">
+        <v>39019.541740000001</v>
+      </c>
+      <c r="D349" s="61">
         <v>103.857499</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="59">
-        <v>39019.5417418</v>
-      </c>
-      <c r="B284" s="59">
+      <c r="E349" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A350" s="60"/>
+      <c r="B350" s="62"/>
+      <c r="C350" s="62"/>
+      <c r="D350" s="61">
         <v>1.3691533</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="59"/>
-      <c r="B285" s="59"/>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="59">
-        <v>30814.207316200002</v>
-      </c>
-      <c r="B286" s="59">
-        <v>103.85860630000001</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="59">
-        <v>39781.755438499997</v>
-      </c>
-      <c r="B287" s="59">
-        <v>1.3760463000000001</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="59"/>
-      <c r="B288" s="59"/>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" s="59">
-        <v>31063.382612400001</v>
-      </c>
-      <c r="B289" s="59">
-        <v>103.8608452</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="59">
-        <v>39106.710509800003</v>
-      </c>
-      <c r="B290" s="59">
-        <v>1.3699416</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" s="28" t="s">
-        <v>589</v>
-      </c>
-      <c r="B292" s="42" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" s="28" t="s">
-        <v>588</v>
-      </c>
-      <c r="B293" s="42" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" s="28" t="s">
-        <v>590</v>
-      </c>
-      <c r="B294" s="42" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" s="28" t="s">
+    <row r="351" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A351" s="60"/>
+      <c r="B351" s="62"/>
+      <c r="C351" s="62"/>
+      <c r="D351" s="61"/>
+    </row>
+    <row r="352" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A352" s="65" t="s">
+        <v>585</v>
+      </c>
+      <c r="B352" s="65">
+        <v>30735.826324099999</v>
+      </c>
+      <c r="C352" s="65">
+        <v>36911.550443799999</v>
+      </c>
+      <c r="D352" s="66" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" s="28">
-        <v>30790.9181002</v>
-      </c>
-      <c r="B296" s="59">
-        <v>103.8583969</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" s="28">
-        <v>38176.531180999998</v>
-      </c>
-      <c r="B297" s="59">
-        <v>1.3615294</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" s="28" t="s">
+      <c r="E352" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A353" s="60"/>
+      <c r="B353" s="62"/>
+      <c r="C353" s="62"/>
+      <c r="D353" s="66" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" s="28">
-        <v>30767.915796199999</v>
-      </c>
-      <c r="B300" s="59">
-        <v>103.8581904</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" s="28">
-        <v>40638.217391300001</v>
-      </c>
-      <c r="B301" s="59">
-        <v>1.3837919999999999</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" s="28" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" s="28">
-        <v>30735.826324099999</v>
-      </c>
-      <c r="B304" s="42" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" s="28">
-        <v>36911.550443799999</v>
-      </c>
-      <c r="B305" s="42" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307" s="28" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" s="28">
-        <v>30332.467923699998</v>
-      </c>
-      <c r="B308" s="42" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" s="28">
-        <v>37788.599724599997</v>
-      </c>
-      <c r="B309" s="42" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311" s="28" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A312" s="28">
-        <v>31214.9684046</v>
-      </c>
-      <c r="B312" s="42" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313" s="28">
-        <v>37351.410860199998</v>
-      </c>
-      <c r="B313" s="42" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C319" s="28"/>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C320" s="28"/>
+    <row r="354" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A354" s="60"/>
+      <c r="B354" s="62"/>
+      <c r="C354" s="62"/>
+      <c r="D354" s="66"/>
+    </row>
+    <row r="355" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A355" s="60" t="s">
+        <v>621</v>
+      </c>
+      <c r="B355" s="62">
+        <v>31213.735189999999</v>
+      </c>
+      <c r="C355" s="62">
+        <v>34926.99755</v>
+      </c>
+      <c r="D355" s="61">
+        <v>103.86219579999999</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A356" s="60"/>
+      <c r="B356" s="62"/>
+      <c r="C356" s="62"/>
+      <c r="D356" s="61">
+        <v>1.3321417</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A357" s="60"/>
+      <c r="B357" s="62"/>
+      <c r="C357" s="62"/>
+      <c r="D357" s="61"/>
+    </row>
+    <row r="358" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A358" s="60" t="s">
+        <v>625</v>
+      </c>
+      <c r="B358" s="62">
+        <v>35292.82415</v>
+      </c>
+      <c r="C358" s="62">
+        <v>34071.418279999998</v>
+      </c>
+      <c r="D358" s="61">
+        <v>103.8988485</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A359" s="60"/>
+      <c r="B359" s="62"/>
+      <c r="C359" s="62"/>
+      <c r="D359" s="61">
+        <v>1.3244034</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A361" s="60" t="s">
+        <v>628</v>
+      </c>
+      <c r="B361" s="62">
+        <v>27748.242829999999</v>
+      </c>
+      <c r="C361" s="62">
+        <v>34299.800040000002</v>
+      </c>
+      <c r="D361" s="61">
+        <v>103.83105639999999</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A362" s="60"/>
+      <c r="B362" s="62"/>
+      <c r="C362" s="62"/>
+      <c r="D362" s="61">
+        <v>1.3264697000000001</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A363" s="60"/>
+      <c r="B363" s="62"/>
+      <c r="C363" s="62"/>
+      <c r="D363" s="61"/>
+    </row>
+    <row r="364" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A364" s="60" t="s">
+        <v>632</v>
+      </c>
+      <c r="B364" s="62">
+        <v>29723.851279999999</v>
+      </c>
+      <c r="C364" s="62">
+        <v>34675.455979999999</v>
+      </c>
+      <c r="D364" s="61">
+        <v>103.8488083</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A365" s="60"/>
+      <c r="B365" s="62"/>
+      <c r="C365" s="62"/>
+      <c r="D365" s="61">
+        <v>1.3298669999999999</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A366" s="60"/>
+      <c r="B366" s="62"/>
+      <c r="C366" s="62"/>
+      <c r="D366" s="61"/>
+    </row>
+    <row r="367" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A367" s="60" t="s">
+        <v>629</v>
+      </c>
+      <c r="B367" s="62">
+        <v>33709.245080000001</v>
+      </c>
+      <c r="C367" s="62">
+        <v>33793.2497</v>
+      </c>
+      <c r="D367" s="61">
+        <v>103.8846192</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A368" s="60"/>
+      <c r="B368" s="62"/>
+      <c r="C368" s="62"/>
+      <c r="D368" s="61">
+        <v>1.3218881</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A369" s="60"/>
+      <c r="B369" s="62"/>
+      <c r="C369" s="62"/>
+      <c r="D369" s="61"/>
+    </row>
+    <row r="370" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A370" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="B370" s="62">
+        <v>31137.989969999999</v>
+      </c>
+      <c r="C370" s="62">
+        <v>34985.88996</v>
+      </c>
+      <c r="D370" s="61">
+        <v>103.8615152</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A371" s="60"/>
+      <c r="B371" s="62"/>
+      <c r="C371" s="62"/>
+      <c r="D371" s="61">
+        <v>1.3326743000000001</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A372" s="60"/>
+      <c r="B372" s="62"/>
+      <c r="C372" s="62"/>
+      <c r="D372" s="61"/>
+    </row>
+    <row r="373" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A373" s="60" t="s">
+        <v>627</v>
+      </c>
+      <c r="B373" s="62">
+        <v>30771.769489999999</v>
+      </c>
+      <c r="C373" s="62">
+        <v>34670.569259999997</v>
+      </c>
+      <c r="D373" s="61">
+        <v>103.85822450000001</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A374" s="60"/>
+      <c r="B374" s="62"/>
+      <c r="C374" s="62"/>
+      <c r="D374" s="61">
+        <v>1.3298227</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A375" s="60"/>
+      <c r="B375" s="62"/>
+      <c r="C375" s="62"/>
+      <c r="D375" s="61"/>
+    </row>
+    <row r="376" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A376" s="60" t="s">
+        <v>630</v>
+      </c>
+      <c r="B376" s="62">
+        <v>30609.10312</v>
+      </c>
+      <c r="C376" s="62">
+        <v>36173.572139999997</v>
+      </c>
+      <c r="D376" s="61">
+        <v>103.856763</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A377" s="60"/>
+      <c r="B377" s="62"/>
+      <c r="C377" s="62"/>
+      <c r="D377" s="61">
+        <v>1.3434153</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A378" s="60"/>
+      <c r="B378" s="62"/>
+      <c r="C378" s="62"/>
+      <c r="D378" s="61"/>
+    </row>
+    <row r="379" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A379" s="60" t="s">
+        <v>633</v>
+      </c>
+      <c r="B379" s="62">
+        <v>31029.018520000001</v>
+      </c>
+      <c r="C379" s="62">
+        <v>36374.259239999999</v>
+      </c>
+      <c r="D379" s="61">
+        <v>103.8605362</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380" s="63"/>
+      <c r="B380" s="64"/>
+      <c r="C380" s="61"/>
+      <c r="D380" s="61">
+        <v>1.3452302</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A382" s="60" t="s">
+        <v>623</v>
+      </c>
+      <c r="B382" s="62">
+        <v>31639.886869999998</v>
+      </c>
+      <c r="C382" s="62">
+        <v>34176.548069999997</v>
+      </c>
+      <c r="D382" s="61">
+        <v>103.8660249</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A383" s="60"/>
+      <c r="B383" s="62"/>
+      <c r="C383" s="62"/>
+      <c r="D383" s="61">
+        <v>1.3253549</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A384" s="60"/>
+      <c r="B384" s="62"/>
+      <c r="C384" s="62"/>
+      <c r="D384" s="61"/>
+    </row>
+    <row r="385" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A385" s="60" t="s">
+        <v>624</v>
+      </c>
+      <c r="B385" s="62">
+        <v>31357.454040000001</v>
+      </c>
+      <c r="C385" s="62">
+        <v>36214.903599999998</v>
+      </c>
+      <c r="D385" s="61">
+        <v>103.8634873</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A386" s="60"/>
+      <c r="B386" s="62"/>
+      <c r="C386" s="62"/>
+      <c r="D386" s="61">
+        <v>1.3437891</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9855,62 +10922,62 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.59765625" style="33" customWidth="1"/>
+    <col min="1" max="1" width="48.59765625" style="30" customWidth="1"/>
     <col min="2" max="2" width="57.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="29" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="30" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="29" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="29" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="30" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="29" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="30" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="32" t="s">
+      <c r="A50" s="29" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="33" t="s">
+      <c r="A51" s="30" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="32" t="s">
+      <c r="A55" s="29" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A56" s="33" t="s">
+      <c r="A56" s="30" t="s">
         <v>201</v>
       </c>
     </row>
@@ -9972,7 +11039,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="34" t="s">
         <v>226</v>
       </c>
       <c r="B2" t="s">
@@ -9983,7 +11050,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="34" t="s">
         <v>228</v>
       </c>
       <c r="B3" t="s">
@@ -9999,15 +11066,15 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
+      <c r="A6" s="35"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="37" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="36" t="s">
         <v>247</v>
       </c>
     </row>
@@ -10030,739 +11097,739 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.09765625" style="47" customWidth="1"/>
-    <col min="2" max="2" width="28.09765625" style="47" customWidth="1"/>
-    <col min="3" max="3" width="106.8984375" style="47" customWidth="1"/>
-    <col min="4" max="16384" width="8.69921875" style="47"/>
+    <col min="1" max="1" width="12.09765625" style="42" customWidth="1"/>
+    <col min="2" max="2" width="28.09765625" style="42" customWidth="1"/>
+    <col min="3" max="3" width="106.8984375" style="42" customWidth="1"/>
+    <col min="4" max="16384" width="8.69921875" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="41" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="41" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="45" t="s">
         <v>337</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="42" t="s">
         <v>353</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="46" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="46" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="46" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C5" s="51"/>
+      <c r="C5" s="46"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="45" t="s">
         <v>338</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="46" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="46" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="42" t="s">
         <v>340</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="46" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="46" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="46" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
-      <c r="C12" s="51" t="s">
+      <c r="A12" s="47"/>
+      <c r="C12" s="46" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="46" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="46" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="46" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C16" s="51"/>
+      <c r="C16" s="46"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="42" t="s">
         <v>345</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="46" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="46" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="46" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="46" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="46" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="42" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="46" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="46" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="52"/>
-      <c r="C26" s="51" t="s">
+      <c r="A26" s="47"/>
+      <c r="C26" s="46" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="51" t="s">
+      <c r="C27" s="46" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="51" t="s">
+      <c r="C28" s="46" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="42" t="s">
         <v>350</v>
       </c>
-      <c r="C30" s="51" t="s">
+      <c r="C30" s="46" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C31" s="51" t="s">
+      <c r="C31" s="46" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C32" s="51" t="s">
+      <c r="C32" s="46" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="51"/>
-      <c r="C33" s="51" t="s">
+      <c r="A33" s="46"/>
+      <c r="C33" s="46" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="51" t="s">
+      <c r="C34" s="46" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="51" t="s">
+      <c r="C35" s="46" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="51" t="s">
+      <c r="C36" s="46" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="51" t="s">
+      <c r="C37" s="46" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C38" s="51" t="s">
+      <c r="C38" s="46" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C39" s="51" t="s">
+      <c r="C39" s="46" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="47" t="s">
+      <c r="A41" s="42" t="s">
         <v>341</v>
       </c>
-      <c r="C41" s="51" t="s">
+      <c r="C41" s="46" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="51" t="s">
+      <c r="C42" s="46" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C43" s="51" t="s">
+      <c r="C43" s="46" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C44" s="51" t="s">
+      <c r="C44" s="46" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C45" s="51" t="s">
+      <c r="C45" s="46" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="52"/>
+      <c r="A46" s="47"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="52" t="s">
+      <c r="A47" s="47" t="s">
         <v>342</v>
       </c>
-      <c r="C47" s="51" t="s">
+      <c r="C47" s="46" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C48" s="51" t="s">
+      <c r="C48" s="46" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="51" t="s">
+      <c r="C49" s="46" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="51" t="s">
+      <c r="C50" s="46" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="47" t="s">
+      <c r="A52" s="42" t="s">
         <v>343</v>
       </c>
-      <c r="B52" s="47" t="s">
+      <c r="B52" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="C52" s="51" t="s">
+      <c r="C52" s="46" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="47" t="s">
+      <c r="A53" s="42" t="s">
         <v>344</v>
       </c>
-      <c r="C53" s="51" t="s">
+      <c r="C53" s="46" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="47" t="s">
+      <c r="A54" s="42" t="s">
         <v>359</v>
       </c>
-      <c r="C54" s="51" t="s">
+      <c r="C54" s="46" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="47" t="s">
+      <c r="A55" s="42" t="s">
         <v>354</v>
       </c>
-      <c r="C55" s="51" t="s">
+      <c r="C55" s="46" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="47" t="s">
+      <c r="A56" s="42" t="s">
         <v>355</v>
       </c>
-      <c r="C56" s="51" t="s">
+      <c r="C56" s="46" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="47" t="s">
+      <c r="A57" s="42" t="s">
         <v>356</v>
       </c>
-      <c r="C57" s="51" t="s">
+      <c r="C57" s="46" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="47" t="s">
+      <c r="A58" s="42" t="s">
         <v>357</v>
       </c>
-      <c r="C58" s="51" t="s">
+      <c r="C58" s="46" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C59" s="51" t="s">
+      <c r="C59" s="46" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C60" s="51" t="s">
+      <c r="C60" s="46" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C61" s="51" t="s">
+      <c r="C61" s="46" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C62" s="51" t="s">
+      <c r="C62" s="46" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C63" s="51" t="s">
+      <c r="C63" s="46" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C64" s="51" t="s">
+      <c r="C64" s="46" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C65" s="51" t="s">
+      <c r="C65" s="46" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C66" s="51" t="s">
+      <c r="C66" s="46" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C67" s="51" t="s">
+      <c r="C67" s="46" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C68" s="51" t="s">
-        <v>397</v>
+      <c r="C68" s="46" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C69" s="51" t="s">
-        <v>398</v>
+      <c r="C69" s="46" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C70" s="51"/>
+      <c r="C70" s="46"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C71" s="51"/>
+      <c r="C71" s="46"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="47" t="s">
+      <c r="A72" s="42" t="s">
         <v>358</v>
       </c>
-      <c r="B72" s="47" t="s">
+      <c r="B72" s="42" t="s">
         <v>290</v>
       </c>
-      <c r="C72" s="47" t="s">
+      <c r="C72" s="42" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C73" s="47" t="s">
+      <c r="C73" s="42" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C74" s="47" t="s">
+      <c r="C74" s="42" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C75" s="47" t="s">
+      <c r="C75" s="42" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C76" s="47" t="s">
+      <c r="C76" s="42" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="48" t="s">
+      <c r="A77" s="43" t="s">
         <v>246</v>
       </c>
-      <c r="B77" s="47" t="s">
+      <c r="B77" s="42" t="s">
         <v>259</v>
       </c>
-      <c r="C77" s="47" t="s">
+      <c r="C77" s="42" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C78" s="47" t="s">
+      <c r="C78" s="42" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C79" s="47" t="s">
+      <c r="C79" s="42" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="47" t="s">
+      <c r="B80" s="42" t="s">
         <v>264</v>
       </c>
-      <c r="C80" s="47" t="s">
+      <c r="C80" s="42" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C81" s="47" t="s">
+      <c r="C81" s="42" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C82" s="47" t="s">
+      <c r="C82" s="42" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C83" s="47" t="s">
+      <c r="C83" s="42" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C84" s="47" t="s">
+      <c r="C84" s="42" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="49" t="s">
+      <c r="A85" s="44" t="s">
         <v>286</v>
       </c>
-      <c r="C85" s="47" t="s">
+      <c r="C85" s="42" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C86" s="47" t="s">
+      <c r="C86" s="42" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C87" s="47" t="s">
+      <c r="C87" s="42" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C88" s="47" t="s">
+      <c r="C88" s="42" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B89" s="47" t="s">
+      <c r="B89" s="42" t="s">
         <v>377</v>
       </c>
-      <c r="C89" s="47" t="s">
+      <c r="C89" s="42" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C90" s="47" t="s">
+      <c r="C90" s="42" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C91" s="42" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C91" s="47" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C92" s="42" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="42" t="s">
+        <v>352</v>
+      </c>
+      <c r="B94" s="41" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C95" s="42" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C96" s="42" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C92" s="47" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="47" t="s">
-        <v>352</v>
-      </c>
-      <c r="B94" s="46" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C95" s="47" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C96" s="47" t="s">
-        <v>404</v>
-      </c>
-    </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C97" s="47" t="s">
-        <v>402</v>
+      <c r="C97" s="42" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C98" s="47" t="s">
-        <v>403</v>
+      <c r="C98" s="42" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C99" s="47" t="s">
+      <c r="C99" s="42" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C100" s="42" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C101" s="42" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C111" s="42" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C112" s="42" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C113" s="42" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C114" s="42" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C115" s="42" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C116" s="42" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C100" s="47" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C117" s="42" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C101" s="47" t="s">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C118" s="42" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C111" s="47" t="s">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C119" s="42" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C112" s="47" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="42" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C113" s="47" t="s">
+      <c r="C121" s="42" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C114" s="47" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B122" s="42" t="s">
+        <v>429</v>
+      </c>
+      <c r="C122" s="42" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C115" s="47" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C123" s="42" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C116" s="47" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C117" s="47" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C124" s="42" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C118" s="47" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C119" s="47" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="47" t="s">
-        <v>433</v>
-      </c>
-      <c r="C121" s="47" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B122" s="47" t="s">
-        <v>437</v>
-      </c>
-      <c r="C122" s="47" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C123" s="47" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C124" s="47" t="s">
-        <v>438</v>
-      </c>
-    </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C125" s="47" t="s">
-        <v>464</v>
+      <c r="C125" s="42" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C126" s="47" t="s">
-        <v>465</v>
+      <c r="C126" s="42" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C127" s="47" t="s">
-        <v>466</v>
+      <c r="C127" s="42" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C128" s="47" t="s">
-        <v>467</v>
+      <c r="C128" s="42" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C129" s="47" t="s">
-        <v>468</v>
+      <c r="C129" s="42" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="47" t="s">
+      <c r="A131" s="42" t="s">
+        <v>522</v>
+      </c>
+      <c r="B131" s="42" t="s">
+        <v>472</v>
+      </c>
+      <c r="C131" s="42" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C132" s="42" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="42" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C134" s="42" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C135" s="42" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C136" s="42" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="42" t="s">
+        <v>523</v>
+      </c>
+      <c r="C140" s="42" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C141" s="42" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C142" s="52" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C143" s="42" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C144" s="42" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="42" t="s">
+        <v>529</v>
+      </c>
+      <c r="C146" s="42" t="s">
         <v>530</v>
       </c>
-      <c r="B131" s="47" t="s">
-        <v>480</v>
-      </c>
-      <c r="C131" s="47" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C132" s="47" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C133" s="47" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C134" s="47" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C135" s="47" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C136" s="47" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="47" t="s">
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C147" s="42" t="s">
         <v>531</v>
       </c>
-      <c r="C140" s="47" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C141" s="47" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C142" s="57" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C143" s="47" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C144" s="47" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="47" t="s">
-        <v>537</v>
-      </c>
-      <c r="C146" s="47" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C147" s="47" t="s">
-        <v>539</v>
-      </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="47" t="s">
-        <v>607</v>
+      <c r="A149" s="42" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="47" t="s">
-        <v>608</v>
+      <c r="A152" s="42" t="s">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -10833,228 +11900,228 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="53"/>
-      <c r="B33" s="53" t="s">
-        <v>449</v>
+      <c r="A33" s="48"/>
+      <c r="B33" s="48" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="54"/>
-      <c r="B34" s="54" t="s">
-        <v>450</v>
+      <c r="A34" s="49"/>
+      <c r="B34" s="49" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="53"/>
-      <c r="B35" s="53" t="s">
-        <v>451</v>
+      <c r="A35" s="48"/>
+      <c r="B35" s="48" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="54"/>
-      <c r="B36" s="54" t="s">
-        <v>452</v>
+      <c r="A36" s="49"/>
+      <c r="B36" s="49" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="54"/>
-      <c r="B37" s="55" t="s">
-        <v>453</v>
+      <c r="A37" s="49"/>
+      <c r="B37" s="50" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>479</v>
-      </c>
-      <c r="C77" s="56"/>
+        <v>471</v>
+      </c>
+      <c r="C77" s="51"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>

--- a/TT231_DemoScreen_work_Status.xlsx
+++ b/TT231_DemoScreen_work_Status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="1188" firstSheet="2" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="1188" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Screens" sheetId="3" r:id="rId1"/>
@@ -3630,11 +3630,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="130103296"/>
-        <c:axId val="111724224"/>
+        <c:axId val="643504640"/>
+        <c:axId val="642946688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="130103296"/>
+        <c:axId val="643504640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3643,7 +3643,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111724224"/>
+        <c:crossAx val="642946688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3651,7 +3651,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111724224"/>
+        <c:axId val="642946688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3662,14 +3662,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130103296"/>
+        <c:crossAx val="643504640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4406,11 +4405,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="130104832"/>
-        <c:axId val="111725952"/>
+        <c:axId val="643505664"/>
+        <c:axId val="642948416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="130104832"/>
+        <c:axId val="643505664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4419,7 +4418,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111725952"/>
+        <c:crossAx val="642948416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4427,7 +4426,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111725952"/>
+        <c:axId val="642948416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4438,14 +4437,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130104832"/>
+        <c:crossAx val="643505664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7669,7 +7667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -8402,8 +8400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G386"/>
   <sheetViews>
-    <sheetView topLeftCell="A352" workbookViewId="0">
-      <selection activeCell="A355" sqref="A355:D386"/>
+    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
+      <selection activeCell="D302" sqref="D302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8952,7 +8950,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A74" s="55" t="s">
         <v>638</v>
       </c>
@@ -8960,7 +8958,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A75" s="55" t="s">
         <v>640</v>
       </c>
@@ -8976,7 +8974,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A77" s="55" t="s">
         <v>644</v>
       </c>
@@ -9089,7 +9087,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A99" s="30" t="s">
         <v>448</v>
       </c>
@@ -9997,7 +9995,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A273" s="55" t="s">
         <v>577</v>
       </c>
@@ -12132,14 +12130,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e39e7e9e36de66d473ce04bb4ab2dbb8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="19dc5994665da46609c24125788630d8" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -12344,6 +12334,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -12354,23 +12352,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EFB9284-2381-45C4-9342-D2A846659864}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C78C4875-2E31-4ACC-AEED-0DAFD072C30B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12389,6 +12370,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EFB9284-2381-45C4-9342-D2A846659864}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3AB413C-A07F-4EE8-909C-4B888D55CBB2}">
   <ds:schemaRefs>
